--- a/reque/SMS_Gateway_Requirements_20171115.xlsx
+++ b/reque/SMS_Gateway_Requirements_20171115.xlsx
@@ -1583,9 +1583,6 @@
   </si>
   <si>
     <t>updated_date</t>
-  </si>
-  <si>
-    <t>TABLE "Administrator"</t>
   </si>
   <si>
     <t>TABLE "Modem"</t>
@@ -2694,6 +2691,9 @@
   </si>
   <si>
     <t>TABLE "User_Account" =&gt; dang dung bảng Web_user</t>
+  </si>
+  <si>
+    <t>TABLE "Administrator"=&gt; không dùng bảng này</t>
   </si>
 </sst>
 </file>
@@ -18134,7 +18134,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -18458,6 +18458,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5341">
@@ -24189,7 +24195,7 @@
       </c>
       <c r="I1" s="111"/>
       <c r="J1" s="111" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K1" s="111"/>
       <c r="L1" s="111" t="s">
@@ -24236,10 +24242,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="105" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E3" s="40">
         <v>0</v>
@@ -24269,7 +24275,7 @@
       <c r="B4" s="46"/>
       <c r="C4" s="106"/>
       <c r="D4" s="73" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E4" s="43">
         <v>0</v>
@@ -24299,7 +24305,7 @@
       <c r="B5" s="46"/>
       <c r="C5" s="107"/>
       <c r="D5" s="73" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E5" s="43">
         <v>0</v>
@@ -24331,7 +24337,7 @@
         <v>425</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E6" s="40">
         <v>1</v>
@@ -24363,7 +24369,7 @@
       </c>
       <c r="C7" s="106"/>
       <c r="D7" s="73" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E7" s="40">
         <v>1</v>
@@ -24395,7 +24401,7 @@
       </c>
       <c r="C8" s="107"/>
       <c r="D8" s="73" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E8" s="40">
         <v>1</v>
@@ -24426,10 +24432,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="104" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D9" s="73" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E9" s="40">
         <v>2</v>
@@ -24457,7 +24463,7 @@
       </c>
       <c r="C10" s="104"/>
       <c r="D10" s="73" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E10" s="39">
         <v>2</v>
@@ -24485,7 +24491,7 @@
       </c>
       <c r="C11" s="104"/>
       <c r="D11" s="73" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E11" s="39">
         <v>2</v>
@@ -24542,10 +24548,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="104" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E13" s="39">
         <v>2</v>
@@ -24573,7 +24579,7 @@
       </c>
       <c r="C14" s="104"/>
       <c r="D14" s="76" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E14" s="39">
         <v>2</v>
@@ -24601,7 +24607,7 @@
       </c>
       <c r="C15" s="104"/>
       <c r="D15" s="76" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E15" s="39">
         <v>2</v>
@@ -24629,7 +24635,7 @@
       </c>
       <c r="C16" s="104"/>
       <c r="D16" s="84" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E16" s="39">
         <v>2</v>
@@ -24657,7 +24663,7 @@
       </c>
       <c r="C17" s="104"/>
       <c r="D17" s="84" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E17" s="39">
         <v>2</v>
@@ -24684,10 +24690,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="104" t="s">
+        <v>746</v>
+      </c>
+      <c r="D18" s="85" t="s">
         <v>747</v>
-      </c>
-      <c r="D18" s="85" t="s">
-        <v>748</v>
       </c>
       <c r="E18" s="39">
         <v>3</v>
@@ -24715,7 +24721,7 @@
       </c>
       <c r="C19" s="104"/>
       <c r="D19" s="84" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E19" s="39">
         <v>3</v>
@@ -24743,7 +24749,7 @@
       </c>
       <c r="C20" s="104"/>
       <c r="D20" s="84" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E20" s="39">
         <v>3</v>
@@ -24769,10 +24775,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="105" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D21" s="84" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E21" s="40">
         <v>4</v>
@@ -24799,7 +24805,7 @@
       </c>
       <c r="C22" s="106"/>
       <c r="D22" s="84" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E22" s="40">
         <v>4</v>
@@ -24826,7 +24832,7 @@
       </c>
       <c r="C23" s="106"/>
       <c r="D23" s="84" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E23" s="40">
         <v>4</v>
@@ -24853,7 +24859,7 @@
       </c>
       <c r="C24" s="106"/>
       <c r="D24" s="70" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E24" s="40">
         <v>5</v>
@@ -24880,7 +24886,7 @@
       </c>
       <c r="C25" s="106"/>
       <c r="D25" s="84" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E25" s="40">
         <v>4</v>
@@ -24906,10 +24912,10 @@
         <v>21</v>
       </c>
       <c r="C26" s="105" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D26" s="84" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E26" s="40">
         <v>5</v>
@@ -24936,7 +24942,7 @@
       </c>
       <c r="C27" s="106"/>
       <c r="D27" s="84" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E27" s="40">
         <v>5</v>
@@ -24963,7 +24969,7 @@
       </c>
       <c r="C28" s="106"/>
       <c r="D28" s="84" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E28" s="40">
         <v>5</v>
@@ -24990,7 +24996,7 @@
       </c>
       <c r="C29" s="106"/>
       <c r="D29" s="84" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E29" s="40">
         <v>5</v>
@@ -25017,7 +25023,7 @@
       </c>
       <c r="C30" s="106"/>
       <c r="D30" s="84" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E30" s="40">
         <v>5</v>
@@ -25043,10 +25049,10 @@
         <v>26</v>
       </c>
       <c r="C31" s="104" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D31" s="84" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E31" s="40">
         <v>1</v>
@@ -25077,7 +25083,7 @@
       </c>
       <c r="C32" s="104"/>
       <c r="D32" s="84" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E32" s="40">
         <v>1</v>
@@ -25106,7 +25112,7 @@
         <v>481</v>
       </c>
       <c r="D33" s="76" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E33" s="40">
         <v>1</v>
@@ -25137,7 +25143,7 @@
       </c>
       <c r="C34" s="104"/>
       <c r="D34" s="85" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E34" s="40">
         <v>2</v>
@@ -25164,7 +25170,7 @@
       </c>
       <c r="C35" s="104"/>
       <c r="D35" s="85" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E35" s="39">
         <v>3</v>
@@ -25191,7 +25197,7 @@
       </c>
       <c r="C36" s="104"/>
       <c r="D36" s="85" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E36" s="39">
         <v>3</v>
@@ -25218,7 +25224,7 @@
       </c>
       <c r="C37" s="104"/>
       <c r="D37" s="76" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E37" s="40">
         <v>4</v>
@@ -25245,7 +25251,7 @@
       </c>
       <c r="C38" s="104"/>
       <c r="D38" s="85" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E38" s="40">
         <v>4</v>
@@ -25272,7 +25278,7 @@
       </c>
       <c r="C39" s="104"/>
       <c r="D39" s="85" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E39" s="40">
         <v>4</v>
@@ -25299,7 +25305,7 @@
       </c>
       <c r="C40" s="104"/>
       <c r="D40" s="76" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E40" s="40">
         <v>2</v>
@@ -25355,7 +25361,7 @@
         <v>482</v>
       </c>
       <c r="D42" s="84" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E42" s="40">
         <v>5</v>
@@ -25379,10 +25385,10 @@
     <row r="43" spans="2:12">
       <c r="B43" s="41"/>
       <c r="C43" s="105" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D43" s="84" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E43" s="40">
         <v>6</v>
@@ -25407,7 +25413,7 @@
       <c r="B44" s="41"/>
       <c r="C44" s="106"/>
       <c r="D44" s="84" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E44" s="40">
         <v>7</v>
@@ -25432,7 +25438,7 @@
       <c r="B45" s="41"/>
       <c r="C45" s="107"/>
       <c r="D45" s="84" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E45" s="40">
         <v>8</v>
@@ -25441,13 +25447,13 @@
         <v>1</v>
       </c>
       <c r="G45" s="51" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H45" s="9">
         <v>1</v>
       </c>
       <c r="I45" s="52" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J45" s="38"/>
       <c r="K45" s="38"/>
@@ -25515,7 +25521,7 @@
         <v>419</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F1" s="45" t="s">
         <v>459</v>
@@ -25544,25 +25550,25 @@
         <v>425</v>
       </c>
       <c r="C2" s="73" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E2" s="88">
         <v>0.5</v>
       </c>
       <c r="F2" s="115" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G2" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H2" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I2" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J2" s="92"/>
     </row>
@@ -25572,23 +25578,23 @@
       </c>
       <c r="B3" s="104"/>
       <c r="C3" s="73" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E3" s="88">
         <v>0.5</v>
       </c>
       <c r="F3" s="115"/>
       <c r="G3" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H3" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I3" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J3" s="92"/>
     </row>
@@ -25598,23 +25604,23 @@
       </c>
       <c r="B4" s="104"/>
       <c r="C4" s="73" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E4" s="88">
         <v>0</v>
       </c>
       <c r="F4" s="115"/>
       <c r="G4" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H4" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I4" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J4" s="92"/>
     </row>
@@ -25623,25 +25629,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="104" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E5" s="88">
         <v>1</v>
       </c>
       <c r="F5" s="116" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G5" s="92"/>
       <c r="H5" s="92"/>
       <c r="I5" s="92"/>
       <c r="J5" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -25650,10 +25656,10 @@
       </c>
       <c r="B6" s="104"/>
       <c r="C6" s="73" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E6" s="88">
         <v>1</v>
@@ -25663,7 +25669,7 @@
       <c r="H6" s="92"/>
       <c r="I6" s="92"/>
       <c r="J6" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="47.25">
@@ -25672,10 +25678,10 @@
       </c>
       <c r="B7" s="104"/>
       <c r="C7" s="73" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E7" s="88">
         <v>2</v>
@@ -25685,7 +25691,7 @@
       <c r="H7" s="92"/>
       <c r="I7" s="92"/>
       <c r="J7" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
@@ -25699,22 +25705,22 @@
         <v>485</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E8" s="89">
         <v>0.5</v>
       </c>
       <c r="F8" s="114" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G8" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H8" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I8" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J8" s="92"/>
     </row>
@@ -25725,14 +25731,14 @@
       <c r="B9" s="104"/>
       <c r="C9" s="114"/>
       <c r="D9" s="77" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E9" s="89">
         <v>0.5</v>
       </c>
       <c r="F9" s="114"/>
       <c r="G9" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H9" s="93"/>
       <c r="I9" s="92"/>
@@ -25743,22 +25749,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="104" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C10" s="114" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D10" s="84" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E10" s="87">
         <v>0.2</v>
       </c>
       <c r="F10" s="114" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G10" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H10" s="93"/>
       <c r="I10" s="92"/>
@@ -25771,14 +25777,14 @@
       <c r="B11" s="104"/>
       <c r="C11" s="114"/>
       <c r="D11" s="79" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E11" s="87">
         <v>0.5</v>
       </c>
       <c r="F11" s="114"/>
       <c r="G11" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H11" s="93"/>
       <c r="I11" s="92"/>
@@ -25791,14 +25797,14 @@
       <c r="B12" s="104"/>
       <c r="C12" s="114"/>
       <c r="D12" s="79" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E12" s="87">
         <v>0.2</v>
       </c>
       <c r="F12" s="114"/>
       <c r="G12" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H12" s="93"/>
       <c r="I12" s="92"/>
@@ -25810,19 +25816,19 @@
       </c>
       <c r="B13" s="104"/>
       <c r="C13" s="76" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D13" s="84" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E13" s="87">
         <v>1</v>
       </c>
       <c r="F13" s="76" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G13" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H13" s="93"/>
       <c r="I13" s="92"/>
@@ -25834,19 +25840,19 @@
       </c>
       <c r="B14" s="104"/>
       <c r="C14" s="114" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E14" s="89">
         <v>0.5</v>
       </c>
       <c r="F14" s="114" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G14" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H14" s="93"/>
       <c r="I14" s="92"/>
@@ -25859,14 +25865,14 @@
       <c r="B15" s="104"/>
       <c r="C15" s="114"/>
       <c r="D15" s="77" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E15" s="89">
         <v>0.5</v>
       </c>
       <c r="F15" s="114"/>
       <c r="G15" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H15" s="93"/>
       <c r="I15" s="92"/>
@@ -25879,14 +25885,14 @@
       <c r="B16" s="104"/>
       <c r="C16" s="114"/>
       <c r="D16" s="77" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E16" s="89">
         <v>0.5</v>
       </c>
       <c r="F16" s="114"/>
       <c r="G16" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H16" s="93"/>
       <c r="I16" s="92"/>
@@ -25899,14 +25905,14 @@
       <c r="B17" s="104"/>
       <c r="C17" s="114"/>
       <c r="D17" s="77" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E17" s="89">
         <v>0.5</v>
       </c>
       <c r="F17" s="114"/>
       <c r="G17" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H17" s="93"/>
       <c r="I17" s="92"/>
@@ -25918,19 +25924,19 @@
       </c>
       <c r="B18" s="104"/>
       <c r="C18" s="112" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E18" s="89">
         <v>1.5</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G18" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H18" s="92"/>
       <c r="I18" s="92"/>
@@ -25943,16 +25949,16 @@
       <c r="B19" s="104"/>
       <c r="C19" s="112"/>
       <c r="D19" s="77" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E19" s="89">
         <v>1.5</v>
       </c>
       <c r="F19" s="80" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G19" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H19" s="92"/>
       <c r="I19" s="92"/>
@@ -25964,19 +25970,19 @@
       </c>
       <c r="B20" s="104"/>
       <c r="C20" s="112" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D20" s="77" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E20" s="89">
         <v>1.5</v>
       </c>
       <c r="F20" s="80" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G20" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H20" s="92"/>
       <c r="I20" s="92"/>
@@ -25989,16 +25995,16 @@
       <c r="B21" s="104"/>
       <c r="C21" s="112"/>
       <c r="D21" s="77" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E21" s="89">
         <v>1.5</v>
       </c>
       <c r="F21" s="80" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G21" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H21" s="92"/>
       <c r="I21" s="92"/>
@@ -26009,23 +26015,23 @@
         <v>21</v>
       </c>
       <c r="B22" s="104" t="s">
+        <v>746</v>
+      </c>
+      <c r="C22" s="85" t="s">
         <v>747</v>
       </c>
-      <c r="C22" s="85" t="s">
-        <v>748</v>
-      </c>
       <c r="D22" s="84" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E22" s="87">
         <v>0.5</v>
       </c>
       <c r="F22" s="83" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G22" s="92"/>
       <c r="H22" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I22" s="92"/>
       <c r="J22" s="92"/>
@@ -26036,19 +26042,19 @@
       </c>
       <c r="B23" s="104"/>
       <c r="C23" s="84" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D23" s="82" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E23" s="87">
         <v>2</v>
       </c>
       <c r="F23" s="83" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G23" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H23" s="92"/>
       <c r="I23" s="92"/>
@@ -26060,22 +26066,22 @@
       </c>
       <c r="B24" s="104"/>
       <c r="C24" s="112" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D24" s="82" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E24" s="87">
         <v>1</v>
       </c>
       <c r="F24" s="113" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G24" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H24" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I24" s="92"/>
       <c r="J24" s="92"/>
@@ -26087,17 +26093,17 @@
       <c r="B25" s="104"/>
       <c r="C25" s="112"/>
       <c r="D25" s="82" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E25" s="87">
         <v>2</v>
       </c>
       <c r="F25" s="113"/>
       <c r="G25" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H25" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I25" s="92"/>
       <c r="J25" s="92"/>
@@ -26107,22 +26113,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="105" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C26" s="112" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D26" s="77" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E26" s="89">
         <v>0.5</v>
       </c>
       <c r="F26" s="113" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G26" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H26" s="92"/>
       <c r="I26" s="92"/>
@@ -26135,14 +26141,14 @@
       <c r="B27" s="106"/>
       <c r="C27" s="112"/>
       <c r="D27" s="77" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E27" s="89">
         <v>1.5</v>
       </c>
       <c r="F27" s="113"/>
       <c r="G27" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H27" s="92"/>
       <c r="I27" s="92"/>
@@ -26155,14 +26161,14 @@
       <c r="B28" s="106"/>
       <c r="C28" s="112"/>
       <c r="D28" s="77" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E28" s="89">
         <v>3</v>
       </c>
       <c r="F28" s="113"/>
       <c r="G28" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H28" s="92"/>
       <c r="I28" s="92"/>
@@ -26174,20 +26180,20 @@
       </c>
       <c r="B29" s="106"/>
       <c r="C29" s="112" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D29" s="77" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E29" s="89">
         <v>0.5</v>
       </c>
       <c r="F29" s="113" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G29" s="93"/>
       <c r="H29" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I29" s="92"/>
       <c r="J29" s="92"/>
@@ -26199,7 +26205,7 @@
       <c r="B30" s="106"/>
       <c r="C30" s="112"/>
       <c r="D30" s="77" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E30" s="89">
         <v>1.5</v>
@@ -26207,7 +26213,7 @@
       <c r="F30" s="113"/>
       <c r="G30" s="93"/>
       <c r="H30" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I30" s="92"/>
       <c r="J30" s="92"/>
@@ -26219,7 +26225,7 @@
       <c r="B31" s="106"/>
       <c r="C31" s="112"/>
       <c r="D31" s="77" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E31" s="89">
         <v>3</v>
@@ -26227,7 +26233,7 @@
       <c r="F31" s="113"/>
       <c r="G31" s="93"/>
       <c r="H31" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I31" s="92"/>
       <c r="J31" s="92"/>
@@ -26238,23 +26244,23 @@
       </c>
       <c r="B32" s="106"/>
       <c r="C32" s="112" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D32" s="82" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E32" s="87">
         <v>2</v>
       </c>
       <c r="F32" s="113" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G32" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H32" s="92"/>
       <c r="I32" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J32" s="92"/>
     </row>
@@ -26265,18 +26271,18 @@
       <c r="B33" s="106"/>
       <c r="C33" s="112"/>
       <c r="D33" s="82" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E33" s="87">
         <v>0.5</v>
       </c>
       <c r="F33" s="113"/>
       <c r="G33" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H33" s="92"/>
       <c r="I33" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J33" s="92"/>
     </row>
@@ -26286,10 +26292,10 @@
       </c>
       <c r="B34" s="106"/>
       <c r="C34" s="71" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D34" s="60" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E34" s="91">
         <v>5</v>
@@ -26299,7 +26305,7 @@
       <c r="H34" s="92"/>
       <c r="I34" s="92"/>
       <c r="J34" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1">
@@ -26308,23 +26314,23 @@
       </c>
       <c r="B35" s="106"/>
       <c r="C35" s="112" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D35" s="82" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E35" s="87">
         <v>0.5</v>
       </c>
       <c r="F35" s="113" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G35" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H35" s="92"/>
       <c r="I35" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J35" s="92"/>
     </row>
@@ -26335,18 +26341,18 @@
       <c r="B36" s="106"/>
       <c r="C36" s="112"/>
       <c r="D36" s="82" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E36" s="87">
         <v>2</v>
       </c>
       <c r="F36" s="113"/>
       <c r="G36" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H36" s="92"/>
       <c r="I36" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J36" s="92"/>
     </row>
@@ -26357,20 +26363,20 @@
       <c r="B37" s="107"/>
       <c r="C37" s="112"/>
       <c r="D37" s="82" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E37" s="87">
         <v>2</v>
       </c>
       <c r="F37" s="80" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G37" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H37" s="92"/>
       <c r="I37" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J37" s="92"/>
     </row>
@@ -26379,25 +26385,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="105" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C38" s="112" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D38" s="82" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E38" s="87">
         <v>0.5</v>
       </c>
       <c r="F38" s="113" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G38" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H38" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I38" s="92"/>
       <c r="J38" s="92"/>
@@ -26409,17 +26415,17 @@
       <c r="B39" s="106"/>
       <c r="C39" s="112"/>
       <c r="D39" s="82" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E39" s="87">
         <v>2</v>
       </c>
       <c r="F39" s="113"/>
       <c r="G39" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H39" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I39" s="92"/>
       <c r="J39" s="92"/>
@@ -26430,22 +26436,22 @@
       </c>
       <c r="B40" s="106"/>
       <c r="C40" s="112" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D40" s="82" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E40" s="87">
         <v>0.5</v>
       </c>
       <c r="F40" s="83" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G40" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H40" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I40" s="92"/>
       <c r="J40" s="92"/>
@@ -26457,19 +26463,19 @@
       <c r="B41" s="106"/>
       <c r="C41" s="112"/>
       <c r="D41" s="82" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E41" s="87">
         <v>1</v>
       </c>
       <c r="F41" s="113" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G41" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H41" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I41" s="92"/>
       <c r="J41" s="92"/>
@@ -26480,20 +26486,20 @@
       </c>
       <c r="B42" s="106"/>
       <c r="C42" s="112" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D42" s="82" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E42" s="87">
         <v>0.5</v>
       </c>
       <c r="F42" s="113"/>
       <c r="G42" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H42" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I42" s="92"/>
       <c r="J42" s="92"/>
@@ -26505,17 +26511,17 @@
       <c r="B43" s="106"/>
       <c r="C43" s="112"/>
       <c r="D43" s="82" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E43" s="87">
         <v>1</v>
       </c>
       <c r="F43" s="83"/>
       <c r="G43" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H43" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I43" s="92"/>
       <c r="J43" s="92"/>
@@ -26526,22 +26532,22 @@
       </c>
       <c r="B44" s="106"/>
       <c r="C44" s="112" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D44" s="82" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E44" s="87">
         <v>0.5</v>
       </c>
       <c r="F44" s="113" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G44" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H44" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I44" s="92"/>
       <c r="J44" s="92"/>
@@ -26553,17 +26559,17 @@
       <c r="B45" s="106"/>
       <c r="C45" s="112"/>
       <c r="D45" s="82" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E45" s="87">
         <v>1</v>
       </c>
       <c r="F45" s="113"/>
       <c r="G45" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H45" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I45" s="92"/>
       <c r="J45" s="92"/>
@@ -26574,22 +26580,22 @@
       </c>
       <c r="B46" s="106"/>
       <c r="C46" s="112" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D46" s="82" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E46" s="87">
         <v>0.5</v>
       </c>
       <c r="F46" s="113" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G46" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H46" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I46" s="92"/>
       <c r="J46" s="92"/>
@@ -26601,17 +26607,17 @@
       <c r="B47" s="106"/>
       <c r="C47" s="112"/>
       <c r="D47" s="82" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E47" s="87">
         <v>0.5</v>
       </c>
       <c r="F47" s="113"/>
       <c r="G47" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H47" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I47" s="92"/>
       <c r="J47" s="92"/>
@@ -26623,17 +26629,17 @@
       <c r="B48" s="107"/>
       <c r="C48" s="112"/>
       <c r="D48" s="82" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E48" s="87">
         <v>1</v>
       </c>
       <c r="F48" s="113"/>
       <c r="G48" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H48" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I48" s="92"/>
       <c r="J48" s="92"/>
@@ -26643,25 +26649,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="104" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C49" s="112" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D49" s="82" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E49" s="87">
         <v>0.2</v>
       </c>
       <c r="F49" s="113" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G49" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H49" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I49" s="92"/>
       <c r="J49" s="92"/>
@@ -26673,14 +26679,14 @@
       <c r="B50" s="104"/>
       <c r="C50" s="112"/>
       <c r="D50" s="82" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E50" s="87">
         <v>0.2</v>
       </c>
       <c r="F50" s="113"/>
       <c r="G50" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H50" s="92"/>
       <c r="I50" s="92"/>
@@ -26692,21 +26698,21 @@
       </c>
       <c r="B51" s="104"/>
       <c r="C51" s="112" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D51" s="82" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E51" s="87">
         <v>0.2</v>
       </c>
       <c r="F51" s="113"/>
       <c r="G51" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H51" s="92"/>
       <c r="I51" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J51" s="92"/>
     </row>
@@ -26717,14 +26723,14 @@
       <c r="B52" s="104"/>
       <c r="C52" s="112"/>
       <c r="D52" s="82" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E52" s="87">
         <v>0.2</v>
       </c>
       <c r="F52" s="113"/>
       <c r="G52" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H52" s="92"/>
       <c r="I52" s="92"/>
@@ -26738,27 +26744,27 @@
         <v>481</v>
       </c>
       <c r="C53" s="76" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D53" s="77" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E53" s="89">
         <v>2</v>
       </c>
       <c r="F53" s="76" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G53" s="93"/>
       <c r="H53" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I53" s="92"/>
       <c r="J53" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K53" s="61" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="47.25">
@@ -26767,7 +26773,7 @@
       </c>
       <c r="B54" s="104"/>
       <c r="C54" s="85" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D54" s="77" t="s">
         <v>486</v>
@@ -26776,15 +26782,15 @@
         <v>2</v>
       </c>
       <c r="F54" s="85" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G54" s="93"/>
       <c r="H54" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I54" s="92"/>
       <c r="J54" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="220.5">
@@ -26793,22 +26799,22 @@
       </c>
       <c r="B55" s="104"/>
       <c r="C55" s="85" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D55" s="77" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E55" s="89">
         <v>2</v>
       </c>
       <c r="F55" s="85" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G55" s="93"/>
       <c r="H55" s="93"/>
       <c r="I55" s="92"/>
       <c r="J55" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="47.25">
@@ -26817,22 +26823,22 @@
       </c>
       <c r="B56" s="104"/>
       <c r="C56" s="85" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D56" s="77" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E56" s="89">
         <v>1</v>
       </c>
       <c r="F56" s="85"/>
       <c r="G56" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H56" s="93"/>
       <c r="I56" s="92"/>
       <c r="J56" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="47.25">
@@ -26841,20 +26847,20 @@
       </c>
       <c r="B57" s="104"/>
       <c r="C57" s="114" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D57" s="77" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E57" s="89">
         <v>1</v>
       </c>
       <c r="F57" s="85" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G57" s="93"/>
       <c r="H57" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I57" s="92"/>
       <c r="J57" s="92"/>
@@ -26866,19 +26872,19 @@
       <c r="B58" s="104"/>
       <c r="C58" s="114"/>
       <c r="D58" s="77" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E58" s="89">
         <v>3</v>
       </c>
       <c r="F58" s="85" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G58" s="93"/>
       <c r="H58" s="93"/>
       <c r="I58" s="92"/>
       <c r="J58" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="31.5">
@@ -26887,22 +26893,22 @@
       </c>
       <c r="B59" s="104"/>
       <c r="C59" s="85" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D59" s="77" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E59" s="89">
         <v>2</v>
       </c>
       <c r="F59" s="85" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G59" s="93"/>
       <c r="H59" s="93"/>
       <c r="I59" s="92"/>
       <c r="J59" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="78.75">
@@ -26911,22 +26917,22 @@
       </c>
       <c r="B60" s="104"/>
       <c r="C60" s="85" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D60" s="77" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E60" s="89">
         <v>2</v>
       </c>
       <c r="F60" s="85" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G60" s="93"/>
       <c r="H60" s="93"/>
       <c r="I60" s="92"/>
       <c r="J60" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="47.25">
@@ -26935,10 +26941,10 @@
       </c>
       <c r="B61" s="104"/>
       <c r="C61" s="76" t="s">
+        <v>679</v>
+      </c>
+      <c r="D61" s="77" t="s">
         <v>680</v>
-      </c>
-      <c r="D61" s="77" t="s">
-        <v>681</v>
       </c>
       <c r="E61" s="89">
         <v>5</v>
@@ -26946,7 +26952,7 @@
       <c r="F61" s="94"/>
       <c r="G61" s="93"/>
       <c r="H61" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I61" s="92"/>
       <c r="J61" s="92"/>
@@ -26960,21 +26966,21 @@
         <v>487</v>
       </c>
       <c r="D62" s="77" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E62" s="89">
         <v>2</v>
       </c>
       <c r="F62" s="85" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G62" s="93"/>
       <c r="H62" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I62" s="92"/>
       <c r="J62" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="31.5">
@@ -26985,10 +26991,10 @@
         <v>482</v>
       </c>
       <c r="C63" s="112" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D63" s="82" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E63" s="87">
         <v>1</v>
@@ -26998,7 +27004,7 @@
       <c r="H63" s="92"/>
       <c r="I63" s="92"/>
       <c r="J63" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="31.5">
@@ -27008,7 +27014,7 @@
       <c r="B64" s="104"/>
       <c r="C64" s="112"/>
       <c r="D64" s="82" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E64" s="87">
         <v>1</v>
@@ -27018,7 +27024,7 @@
       <c r="H64" s="92"/>
       <c r="I64" s="92"/>
       <c r="J64" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -27028,7 +27034,7 @@
       <c r="B65" s="104"/>
       <c r="C65" s="112"/>
       <c r="D65" s="82" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E65" s="87">
         <v>1</v>
@@ -27038,7 +27044,7 @@
       <c r="H65" s="92"/>
       <c r="I65" s="92"/>
       <c r="J65" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -27097,8 +27103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -27115,7 +27121,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="57" t="s">
-        <v>520</v>
+        <v>833</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -27262,10 +27268,12 @@
     <row r="10" spans="1:6">
       <c r="A10" s="57"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="57" t="s">
-        <v>571</v>
-      </c>
+    <row r="11" spans="1:6" s="11" customFormat="1">
+      <c r="A11" s="119" t="s">
+        <v>570</v>
+      </c>
+      <c r="D11" s="120"/>
+      <c r="F11" s="121"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="53" t="s">
@@ -27332,7 +27340,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="96" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C15" s="96" t="s">
         <v>434</v>
@@ -27344,7 +27352,7 @@
         <v>435</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -27352,7 +27360,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="96" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C16" s="96" t="s">
         <v>434</v>
@@ -27364,7 +27372,7 @@
         <v>435</v>
       </c>
       <c r="F16" s="78" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="63">
@@ -27372,7 +27380,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="102" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C17" s="99" t="s">
         <v>488</v>
@@ -27384,7 +27392,7 @@
         <v>435</v>
       </c>
       <c r="F17" s="79" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -27392,10 +27400,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="96" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C18" s="96" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D18" s="97">
         <v>2</v>
@@ -27404,7 +27412,7 @@
         <v>435</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -27422,7 +27430,7 @@
         <v>435</v>
       </c>
       <c r="F19" s="78" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -27440,7 +27448,7 @@
         <v>452</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -27448,10 +27456,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="57" t="s">
-        <v>595</v>
-      </c>
+    <row r="23" spans="1:7" s="11" customFormat="1">
+      <c r="A23" s="119" t="s">
+        <v>594</v>
+      </c>
+      <c r="D23" s="120"/>
+      <c r="F23" s="121"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="53" t="s">
@@ -27490,7 +27500,7 @@
         <v>435</v>
       </c>
       <c r="F25" s="78" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -27498,7 +27508,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="102" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C26" s="96" t="s">
         <v>434</v>
@@ -27510,10 +27520,10 @@
         <v>435</v>
       </c>
       <c r="F26" s="81" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G26" s="56" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -27521,20 +27531,20 @@
         <v>3</v>
       </c>
       <c r="B27" s="96" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C27" s="96" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D27" s="97"/>
       <c r="E27" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F27" s="78" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G27" s="56" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -27542,7 +27552,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C28" s="96" t="s">
         <v>434</v>
@@ -27554,10 +27564,10 @@
         <v>435</v>
       </c>
       <c r="F28" s="79" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G28" s="56" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -27565,20 +27575,20 @@
         <v>5</v>
       </c>
       <c r="B29" s="96" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C29" s="96" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D29" s="97"/>
       <c r="E29" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F29" s="78" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G29" s="56" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -27586,20 +27596,20 @@
         <v>6</v>
       </c>
       <c r="B30" s="96" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C30" s="96" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D30" s="97"/>
       <c r="E30" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F30" s="78" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G30" s="56" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -27607,20 +27617,20 @@
         <v>7</v>
       </c>
       <c r="B31" s="96" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C31" s="96" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D31" s="97"/>
       <c r="E31" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F31" s="78" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G31" s="56" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -27628,20 +27638,20 @@
         <v>8</v>
       </c>
       <c r="B32" s="96" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C32" s="96" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D32" s="97"/>
       <c r="E32" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F32" s="78" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G32" s="56" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -27649,20 +27659,20 @@
         <v>9</v>
       </c>
       <c r="B33" s="96" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C33" s="96" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D33" s="97"/>
       <c r="E33" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F33" s="78" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G33" s="56" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -27670,20 +27680,20 @@
         <v>10</v>
       </c>
       <c r="B34" s="96" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C34" s="96" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D34" s="97"/>
       <c r="E34" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F34" s="78" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G34" s="56" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.25" customHeight="1">
@@ -27701,7 +27711,7 @@
         <v>435</v>
       </c>
       <c r="F35" s="78" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -27719,7 +27729,7 @@
         <v>452</v>
       </c>
       <c r="F36" s="78" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -27727,10 +27737,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="57" t="s">
-        <v>630</v>
-      </c>
+    <row r="39" spans="1:7" s="11" customFormat="1">
+      <c r="A39" s="119" t="s">
+        <v>629</v>
+      </c>
+      <c r="D39" s="120"/>
+      <c r="F39" s="121"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="53" t="s">
@@ -27769,7 +27781,7 @@
         <v>435</v>
       </c>
       <c r="F41" s="78" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -27777,7 +27789,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="102" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C42" s="99" t="s">
         <v>488</v>
@@ -27789,7 +27801,7 @@
         <v>452</v>
       </c>
       <c r="F42" s="78" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -27797,7 +27809,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="96" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C43" s="96" t="s">
         <v>434</v>
@@ -27809,7 +27821,7 @@
         <v>435</v>
       </c>
       <c r="F43" s="78" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -27817,7 +27829,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="96" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C44" s="99" t="s">
         <v>488</v>
@@ -27829,7 +27841,7 @@
         <v>435</v>
       </c>
       <c r="F44" s="78" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -27837,7 +27849,7 @@
         <v>5</v>
       </c>
       <c r="B45" s="102" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C45" s="96" t="s">
         <v>434</v>
@@ -27849,7 +27861,7 @@
         <v>435</v>
       </c>
       <c r="F45" s="79" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -27857,7 +27869,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="102" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C46" s="96" t="s">
         <v>434</v>
@@ -27869,7 +27881,7 @@
         <v>435</v>
       </c>
       <c r="F46" s="79" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -27877,13 +27889,13 @@
         <v>7</v>
       </c>
       <c r="B47" s="102" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C47" s="102"/>
       <c r="D47" s="103"/>
       <c r="E47" s="102"/>
       <c r="F47" s="79" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -27901,7 +27913,7 @@
         <v>435</v>
       </c>
       <c r="F48" s="78" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -27919,7 +27931,7 @@
         <v>452</v>
       </c>
       <c r="F49" s="78" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -27928,8 +27940,8 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="57" t="s">
-        <v>833</v>
+      <c r="A52" s="119" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -27969,7 +27981,7 @@
         <v>435</v>
       </c>
       <c r="F54" s="78" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -27977,7 +27989,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="102" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C55" s="99" t="s">
         <v>488</v>
@@ -27989,7 +28001,7 @@
         <v>452</v>
       </c>
       <c r="F55" s="79" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -27997,7 +28009,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="102" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C56" s="99" t="s">
         <v>488</v>
@@ -28009,7 +28021,7 @@
         <v>435</v>
       </c>
       <c r="F56" s="79" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -28167,7 +28179,7 @@
         <v>435</v>
       </c>
       <c r="F64" s="101" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -28278,7 +28290,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="119" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -28318,7 +28330,7 @@
         <v>435</v>
       </c>
       <c r="F74" s="78" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -28326,7 +28338,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="102" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C75" s="96" t="s">
         <v>434</v>
@@ -28338,7 +28350,7 @@
         <v>435</v>
       </c>
       <c r="F75" s="78" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -28346,7 +28358,7 @@
         <v>4</v>
       </c>
       <c r="B76" s="99" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C76" s="99" t="s">
         <v>438</v>
@@ -28358,10 +28370,10 @@
         <v>452</v>
       </c>
       <c r="F76" s="101" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G76" s="56" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -28369,7 +28381,7 @@
         <v>5</v>
       </c>
       <c r="B77" s="102" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C77" s="99" t="s">
         <v>438</v>
@@ -28381,10 +28393,10 @@
         <v>452</v>
       </c>
       <c r="F77" s="79" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G77" s="56" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -28392,10 +28404,10 @@
         <v>6</v>
       </c>
       <c r="B78" s="99" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C78" s="99" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D78" s="100">
         <v>8</v>
@@ -28404,10 +28416,10 @@
         <v>452</v>
       </c>
       <c r="F78" s="101" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G78" s="56" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -28430,7 +28442,7 @@
         <v>500</v>
       </c>
       <c r="G79" s="56" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="31.5">
@@ -28438,7 +28450,7 @@
         <v>8</v>
       </c>
       <c r="B80" s="99" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C80" s="99" t="s">
         <v>438</v>
@@ -28450,10 +28462,10 @@
         <v>435</v>
       </c>
       <c r="F80" s="101" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G80" s="56" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -28473,7 +28485,7 @@
         <v>435</v>
       </c>
       <c r="F81" s="81" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G81" s="56" t="s">
         <v>2</v>
@@ -28484,7 +28496,7 @@
         <v>10</v>
       </c>
       <c r="B82" s="99" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C82" s="99" t="s">
         <v>438</v>
@@ -28496,7 +28508,7 @@
         <v>435</v>
       </c>
       <c r="F82" s="101" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G82" s="56" t="s">
         <v>2</v>
@@ -28507,7 +28519,7 @@
         <v>11</v>
       </c>
       <c r="B83" s="102" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C83" s="99" t="s">
         <v>438</v>
@@ -28519,7 +28531,7 @@
         <v>435</v>
       </c>
       <c r="F83" s="79" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G83" s="56" t="s">
         <v>2</v>
@@ -28530,7 +28542,7 @@
         <v>12</v>
       </c>
       <c r="B84" s="102" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C84" s="99" t="s">
         <v>438</v>
@@ -28542,7 +28554,7 @@
         <v>435</v>
       </c>
       <c r="F84" s="79" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G84" s="56" t="s">
         <v>2</v>
@@ -28553,17 +28565,17 @@
         <v>13</v>
       </c>
       <c r="B85" s="96" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C85" s="96" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D85" s="97"/>
       <c r="E85" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F85" s="78" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G85" s="56" t="s">
         <v>2</v>
@@ -28574,7 +28586,7 @@
         <v>14</v>
       </c>
       <c r="B86" s="96" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C86" s="96" t="s">
         <v>434</v>
@@ -28586,7 +28598,7 @@
         <v>435</v>
       </c>
       <c r="F86" s="79" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G86" s="56" t="s">
         <v>2</v>
@@ -28638,7 +28650,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="119" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -28678,7 +28690,7 @@
         <v>435</v>
       </c>
       <c r="F93" s="78" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -28686,7 +28698,7 @@
         <v>2</v>
       </c>
       <c r="B94" s="102" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C94" s="96" t="s">
         <v>434</v>
@@ -28698,7 +28710,7 @@
         <v>435</v>
       </c>
       <c r="F94" s="78" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -28706,7 +28718,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="99" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C95" s="99" t="s">
         <v>438</v>
@@ -28718,7 +28730,7 @@
         <v>452</v>
       </c>
       <c r="F95" s="101" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -28726,7 +28738,7 @@
         <v>4</v>
       </c>
       <c r="B96" s="102" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C96" s="99" t="s">
         <v>438</v>
@@ -28738,7 +28750,7 @@
         <v>452</v>
       </c>
       <c r="F96" s="79" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -28746,17 +28758,17 @@
         <v>5</v>
       </c>
       <c r="B97" s="99" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C97" s="99" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D97" s="100"/>
       <c r="E97" s="96" t="s">
         <v>452</v>
       </c>
       <c r="F97" s="101" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="31.5">
@@ -28776,7 +28788,7 @@
         <v>435</v>
       </c>
       <c r="F98" s="101" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -28822,7 +28834,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="119" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -28862,7 +28874,7 @@
         <v>435</v>
       </c>
       <c r="F105" s="79" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -28870,7 +28882,7 @@
         <v>2</v>
       </c>
       <c r="B106" s="102" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C106" s="102" t="s">
         <v>434</v>
@@ -28882,7 +28894,7 @@
         <v>435</v>
       </c>
       <c r="F106" s="79" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -28890,7 +28902,7 @@
         <v>3</v>
       </c>
       <c r="B107" s="102" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C107" s="102" t="s">
         <v>434</v>
@@ -28902,7 +28914,7 @@
         <v>452</v>
       </c>
       <c r="F107" s="79" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -28910,7 +28922,7 @@
         <v>4</v>
       </c>
       <c r="B108" s="102" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C108" s="102" t="s">
         <v>434</v>
@@ -28922,7 +28934,7 @@
         <v>452</v>
       </c>
       <c r="F108" s="79" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -28930,17 +28942,17 @@
         <v>5</v>
       </c>
       <c r="B109" s="102" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C109" s="102" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D109" s="103"/>
       <c r="E109" s="102" t="s">
         <v>452</v>
       </c>
       <c r="F109" s="79" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -28987,10 +28999,12 @@
     <row r="113" spans="1:6">
       <c r="A113" s="57"/>
     </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="57" t="s">
-        <v>521</v>
-      </c>
+    <row r="114" spans="1:6" s="11" customFormat="1">
+      <c r="A114" s="119" t="s">
+        <v>520</v>
+      </c>
+      <c r="D114" s="120"/>
+      <c r="F114" s="121"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="53" t="s">
@@ -29037,7 +29051,7 @@
         <v>2</v>
       </c>
       <c r="B117" s="96" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C117" s="96" t="s">
         <v>434</v>
@@ -29049,7 +29063,7 @@
         <v>435</v>
       </c>
       <c r="F117" s="78" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -29057,7 +29071,7 @@
         <v>3</v>
       </c>
       <c r="B118" s="96" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C118" s="96" t="s">
         <v>434</v>
@@ -29069,7 +29083,7 @@
         <v>435</v>
       </c>
       <c r="F118" s="79" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -29173,10 +29187,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="57" t="s">
-        <v>522</v>
-      </c>
+    <row r="126" spans="1:6" s="11" customFormat="1">
+      <c r="A126" s="119" t="s">
+        <v>521</v>
+      </c>
+      <c r="D126" s="120"/>
+      <c r="F126" s="121"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="53" t="s">
@@ -29223,7 +29239,7 @@
         <v>2</v>
       </c>
       <c r="B129" s="96" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C129" s="96" t="s">
         <v>434</v>
@@ -29235,7 +29251,7 @@
         <v>435</v>
       </c>
       <c r="F129" s="78" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -29255,7 +29271,7 @@
         <v>435</v>
       </c>
       <c r="F130" s="78" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -29283,7 +29299,7 @@
         <v>5</v>
       </c>
       <c r="B132" s="96" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C132" s="96" t="s">
         <v>434</v>
@@ -29295,7 +29311,7 @@
         <v>435</v>
       </c>
       <c r="F132" s="79" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -29303,7 +29319,7 @@
         <v>6</v>
       </c>
       <c r="B133" s="96" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C133" s="99" t="s">
         <v>488</v>
@@ -29315,7 +29331,7 @@
         <v>452</v>
       </c>
       <c r="F133" s="78" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -29323,7 +29339,7 @@
         <v>7</v>
       </c>
       <c r="B134" s="99" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C134" s="99" t="s">
         <v>488</v>
@@ -29335,7 +29351,7 @@
         <v>435</v>
       </c>
       <c r="F134" s="78" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -29355,7 +29371,7 @@
         <v>435</v>
       </c>
       <c r="F135" s="78" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="31.5">
@@ -29363,7 +29379,7 @@
         <v>9</v>
       </c>
       <c r="B136" s="99" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C136" s="99" t="s">
         <v>438</v>
@@ -29375,7 +29391,7 @@
         <v>435</v>
       </c>
       <c r="F136" s="101" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -29383,7 +29399,7 @@
         <v>10</v>
       </c>
       <c r="B137" s="102" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C137" s="99" t="s">
         <v>438</v>
@@ -29395,7 +29411,7 @@
         <v>435</v>
       </c>
       <c r="F137" s="79" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="31.5">
@@ -29435,7 +29451,7 @@
         <v>435</v>
       </c>
       <c r="F139" s="101" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -29479,10 +29495,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="57" t="s">
-        <v>773</v>
-      </c>
+    <row r="144" spans="1:6" s="11" customFormat="1">
+      <c r="A144" s="119" t="s">
+        <v>772</v>
+      </c>
+      <c r="D144" s="120"/>
+      <c r="F144" s="121"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="53" t="s">
@@ -29521,10 +29539,10 @@
         <v>435</v>
       </c>
       <c r="F146" s="78" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G146" s="56" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -29532,7 +29550,7 @@
         <v>2</v>
       </c>
       <c r="B147" s="96" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C147" s="96" t="s">
         <v>434</v>
@@ -29544,7 +29562,7 @@
         <v>435</v>
       </c>
       <c r="F147" s="78" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="148" spans="1:7" hidden="1">
@@ -29564,7 +29582,7 @@
         <v>435</v>
       </c>
       <c r="F148" s="78" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -29572,7 +29590,7 @@
         <v>4</v>
       </c>
       <c r="B149" s="96" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C149" s="96" t="s">
         <v>434</v>
@@ -29584,7 +29602,7 @@
         <v>435</v>
       </c>
       <c r="F149" s="78" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -29592,7 +29610,7 @@
         <v>5</v>
       </c>
       <c r="B150" s="96" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C150" s="96" t="s">
         <v>434</v>
@@ -29604,7 +29622,7 @@
         <v>435</v>
       </c>
       <c r="F150" s="78" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -29612,17 +29630,17 @@
         <v>6</v>
       </c>
       <c r="B151" s="102" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C151" s="99" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D151" s="100"/>
       <c r="E151" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F151" s="78" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -29630,10 +29648,10 @@
         <v>7</v>
       </c>
       <c r="B152" s="96" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C152" s="96" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D152" s="97">
         <v>2</v>
@@ -29642,7 +29660,7 @@
         <v>435</v>
       </c>
       <c r="F152" s="78" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -29650,7 +29668,7 @@
         <v>8</v>
       </c>
       <c r="B153" s="102" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C153" s="99" t="s">
         <v>488</v>
@@ -29662,7 +29680,7 @@
         <v>435</v>
       </c>
       <c r="F153" s="79" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -29670,7 +29688,7 @@
         <v>9</v>
       </c>
       <c r="B154" s="96" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C154" s="96" t="s">
         <v>434</v>
@@ -29682,7 +29700,7 @@
         <v>435</v>
       </c>
       <c r="F154" s="78" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -29700,7 +29718,7 @@
         <v>435</v>
       </c>
       <c r="F155" s="78" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -29708,10 +29726,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="57" t="s">
-        <v>526</v>
-      </c>
+    <row r="158" spans="1:7" s="11" customFormat="1">
+      <c r="A158" s="119" t="s">
+        <v>525</v>
+      </c>
+      <c r="D158" s="120"/>
+      <c r="F158" s="121"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="53" t="s">
@@ -29750,10 +29770,10 @@
         <v>435</v>
       </c>
       <c r="F160" s="78" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G160" s="56" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -29761,7 +29781,7 @@
         <v>6</v>
       </c>
       <c r="B161" s="96" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C161" s="96" t="s">
         <v>434</v>
@@ -29773,7 +29793,7 @@
         <v>435</v>
       </c>
       <c r="F161" s="78" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -29781,7 +29801,7 @@
         <v>2</v>
       </c>
       <c r="B162" s="102" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C162" s="96" t="s">
         <v>434</v>
@@ -29793,7 +29813,7 @@
         <v>435</v>
       </c>
       <c r="F162" s="79" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -29801,7 +29821,7 @@
         <v>3</v>
       </c>
       <c r="B163" s="96" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C163" s="96" t="s">
         <v>434</v>
@@ -29813,7 +29833,7 @@
         <v>435</v>
       </c>
       <c r="F163" s="79" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -29821,7 +29841,7 @@
         <v>4</v>
       </c>
       <c r="B164" s="96" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C164" s="99" t="s">
         <v>488</v>
@@ -29833,7 +29853,7 @@
         <v>435</v>
       </c>
       <c r="F164" s="78" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -29841,7 +29861,7 @@
         <v>5</v>
       </c>
       <c r="B165" s="96" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C165" s="96" t="s">
         <v>434</v>
@@ -29853,7 +29873,7 @@
         <v>452</v>
       </c>
       <c r="F165" s="78" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -29861,7 +29881,7 @@
         <v>6</v>
       </c>
       <c r="B166" s="102" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C166" s="96" t="s">
         <v>434</v>
@@ -29871,7 +29891,7 @@
         <v>452</v>
       </c>
       <c r="F166" s="79" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -29879,7 +29899,7 @@
         <v>8</v>
       </c>
       <c r="B167" s="96" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C167" s="96" t="s">
         <v>434</v>
@@ -29891,7 +29911,7 @@
         <v>452</v>
       </c>
       <c r="F167" s="78" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -29899,7 +29919,7 @@
         <v>9</v>
       </c>
       <c r="B168" s="96" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C168" s="96" t="s">
         <v>434</v>
@@ -29911,7 +29931,7 @@
         <v>452</v>
       </c>
       <c r="F168" s="78" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -29931,7 +29951,7 @@
         <v>452</v>
       </c>
       <c r="F169" s="79" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -29939,10 +29959,10 @@
         <v>11</v>
       </c>
       <c r="B170" s="96" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C170" s="96" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D170" s="97">
         <v>2</v>
@@ -29951,7 +29971,7 @@
         <v>435</v>
       </c>
       <c r="F170" s="78" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -29959,7 +29979,7 @@
         <v>12</v>
       </c>
       <c r="B171" s="102" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C171" s="99" t="s">
         <v>488</v>
@@ -29971,7 +29991,7 @@
         <v>435</v>
       </c>
       <c r="F171" s="79" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -29979,7 +29999,7 @@
         <v>13</v>
       </c>
       <c r="B172" s="96" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C172" s="96" t="s">
         <v>434</v>
@@ -29991,7 +30011,7 @@
         <v>435</v>
       </c>
       <c r="F172" s="78" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -30009,7 +30029,7 @@
         <v>435</v>
       </c>
       <c r="F173" s="78" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -30017,10 +30037,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
-      <c r="A176" s="57" t="s">
-        <v>525</v>
-      </c>
+    <row r="176" spans="1:6" s="11" customFormat="1">
+      <c r="A176" s="119" t="s">
+        <v>524</v>
+      </c>
+      <c r="D176" s="120"/>
+      <c r="F176" s="121"/>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="53" t="s">
@@ -30067,7 +30089,7 @@
         <v>2</v>
       </c>
       <c r="B179" s="96" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C179" s="96" t="s">
         <v>434</v>
@@ -30079,7 +30101,7 @@
         <v>452</v>
       </c>
       <c r="F179" s="78" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -30087,7 +30109,7 @@
         <v>3</v>
       </c>
       <c r="B180" s="102" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C180" s="96" t="s">
         <v>434</v>
@@ -30099,7 +30121,7 @@
         <v>452</v>
       </c>
       <c r="F180" s="79" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -30107,7 +30129,7 @@
         <v>4</v>
       </c>
       <c r="B181" s="96" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C181" s="96" t="s">
         <v>434</v>
@@ -30119,7 +30141,7 @@
         <v>435</v>
       </c>
       <c r="F181" s="78" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -30127,7 +30149,7 @@
         <v>5</v>
       </c>
       <c r="B182" s="96" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C182" s="96" t="s">
         <v>434</v>
@@ -30139,7 +30161,7 @@
         <v>435</v>
       </c>
       <c r="F182" s="79" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -30147,7 +30169,7 @@
         <v>6</v>
       </c>
       <c r="B183" s="96" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C183" s="96" t="s">
         <v>434</v>
@@ -30159,7 +30181,7 @@
         <v>452</v>
       </c>
       <c r="F183" s="78" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -30179,7 +30201,7 @@
         <v>452</v>
       </c>
       <c r="F184" s="78" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -30199,7 +30221,7 @@
         <v>452</v>
       </c>
       <c r="F185" s="78" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -30207,7 +30229,7 @@
         <v>9</v>
       </c>
       <c r="B186" s="99" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C186" s="99" t="s">
         <v>488</v>
@@ -30219,7 +30241,7 @@
         <v>452</v>
       </c>
       <c r="F186" s="101" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -30227,7 +30249,7 @@
         <v>12</v>
       </c>
       <c r="B187" s="99" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C187" s="99" t="s">
         <v>488</v>
@@ -30239,7 +30261,7 @@
         <v>435</v>
       </c>
       <c r="F187" s="101" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -30247,10 +30269,10 @@
         <v>10</v>
       </c>
       <c r="B188" s="96" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C188" s="96" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D188" s="97">
         <v>2</v>
@@ -30259,7 +30281,7 @@
         <v>435</v>
       </c>
       <c r="F188" s="78" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -30267,7 +30289,7 @@
         <v>11</v>
       </c>
       <c r="B189" s="102" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C189" s="99" t="s">
         <v>488</v>
@@ -30279,7 +30301,7 @@
         <v>435</v>
       </c>
       <c r="F189" s="79" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -30299,7 +30321,7 @@
         <v>452</v>
       </c>
       <c r="F190" s="78" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -30307,7 +30329,7 @@
         <v>14</v>
       </c>
       <c r="B191" s="96" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C191" s="96" t="s">
         <v>434</v>
@@ -30319,7 +30341,7 @@
         <v>452</v>
       </c>
       <c r="F191" s="78" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -30327,7 +30349,7 @@
         <v>15</v>
       </c>
       <c r="B192" s="96" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C192" s="96" t="s">
         <v>434</v>
@@ -30359,7 +30381,7 @@
         <v>452</v>
       </c>
       <c r="F193" s="78" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -30379,7 +30401,7 @@
         <v>452</v>
       </c>
       <c r="F194" s="78" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -30387,7 +30409,7 @@
         <v>18</v>
       </c>
       <c r="B195" s="96" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C195" s="96" t="s">
         <v>434</v>
@@ -30399,7 +30421,7 @@
         <v>452</v>
       </c>
       <c r="F195" s="78" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -30407,7 +30429,7 @@
         <v>19</v>
       </c>
       <c r="B196" s="96" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C196" s="96" t="s">
         <v>436</v>
@@ -30419,7 +30441,7 @@
         <v>452</v>
       </c>
       <c r="F196" s="78" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -30437,7 +30459,7 @@
         <v>435</v>
       </c>
       <c r="F197" s="78" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -30446,8 +30468,8 @@
       </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="57" t="s">
-        <v>758</v>
+      <c r="A200" s="119" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -30487,7 +30509,7 @@
         <v>435</v>
       </c>
       <c r="F202" s="78" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -30495,7 +30517,7 @@
         <v>2</v>
       </c>
       <c r="B203" s="96" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C203" s="96" t="s">
         <v>434</v>
@@ -30507,7 +30529,7 @@
         <v>435</v>
       </c>
       <c r="F203" s="78" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -30515,7 +30537,7 @@
         <v>3</v>
       </c>
       <c r="B204" s="96" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C204" s="96" t="s">
         <v>434</v>
@@ -30527,7 +30549,7 @@
         <v>435</v>
       </c>
       <c r="F204" s="78" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -30535,7 +30557,7 @@
         <v>4</v>
       </c>
       <c r="B205" s="96" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C205" s="96" t="s">
         <v>434</v>
@@ -30547,7 +30569,7 @@
         <v>435</v>
       </c>
       <c r="F205" s="78" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -30555,7 +30577,7 @@
         <v>5</v>
       </c>
       <c r="B206" s="99" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C206" s="99" t="s">
         <v>488</v>
@@ -30567,7 +30589,7 @@
         <v>435</v>
       </c>
       <c r="F206" s="101" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -30575,7 +30597,7 @@
         <v>6</v>
       </c>
       <c r="B207" s="99" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C207" s="99" t="s">
         <v>488</v>
@@ -30587,7 +30609,7 @@
         <v>435</v>
       </c>
       <c r="F207" s="101" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -30595,7 +30617,7 @@
         <v>7</v>
       </c>
       <c r="B208" s="96" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C208" s="96" t="s">
         <v>434</v>
@@ -30607,7 +30629,7 @@
         <v>435</v>
       </c>
       <c r="F208" s="78" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -30615,7 +30637,7 @@
         <v>8</v>
       </c>
       <c r="B209" s="96" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C209" s="96" t="s">
         <v>434</v>
@@ -30647,7 +30669,7 @@
         <v>435</v>
       </c>
       <c r="F210" s="78" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -30667,7 +30689,7 @@
         <v>435</v>
       </c>
       <c r="F211" s="78" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -30685,7 +30707,7 @@
         <v>435</v>
       </c>
       <c r="F212" s="78" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -30720,10 +30742,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -30733,10 +30755,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -30746,10 +30768,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -30759,10 +30781,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -30772,10 +30794,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -30785,10 +30807,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C6" s="67" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -30798,10 +30820,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -30811,10 +30833,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -30824,10 +30846,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -30837,10 +30859,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -30850,10 +30872,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>

--- a/reque/SMS_Gateway_Requirements_20171115.xlsx
+++ b/reque/SMS_Gateway_Requirements_20171115.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="835">
   <si>
     <t>No.</t>
   </si>
@@ -1946,9 +1946,6 @@
   </si>
   <si>
     <t>Tên nhà mạng tương ứng  (0: Không xác định)</t>
-  </si>
-  <si>
-    <t>Supper admin</t>
   </si>
   <si>
     <t>Số lần gửi lỗi tối đa trong 1 lần kết nối tới COM</t>
@@ -2694,6 +2691,12 @@
   </si>
   <si>
     <t>TABLE "User_Account" =&gt; dang dung bảng Web_user</t>
+  </si>
+  <si>
+    <t>type = 1</t>
+  </si>
+  <si>
+    <t>type = 2</t>
   </si>
 </sst>
 </file>
@@ -18134,7 +18137,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -18411,6 +18414,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="259" fillId="3" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -18455,9 +18467,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5341">
@@ -24174,25 +24183,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33.75" customHeight="1">
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="111" t="s">
         <v>483</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="111" t="s">
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="114" t="s">
         <v>477</v>
       </c>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111" t="s">
+      <c r="G1" s="114"/>
+      <c r="H1" s="114" t="s">
         <v>476</v>
       </c>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111" t="s">
+      <c r="I1" s="114"/>
+      <c r="J1" s="114" t="s">
         <v>601</v>
       </c>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111" t="s">
+      <c r="K1" s="114"/>
+      <c r="L1" s="114" t="s">
         <v>427</v>
       </c>
     </row>
@@ -24228,14 +24237,14 @@
       <c r="K2" s="37" t="s">
         <v>455</v>
       </c>
-      <c r="L2" s="111"/>
+      <c r="L2" s="114"/>
     </row>
     <row r="3" spans="1:12" s="10" customFormat="1">
       <c r="A3" s="7"/>
       <c r="B3" s="41">
         <v>1</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="108" t="s">
         <v>590</v>
       </c>
       <c r="D3" s="73" t="s">
@@ -24267,9 +24276,9 @@
     <row r="4" spans="1:12" s="10" customFormat="1">
       <c r="A4" s="7"/>
       <c r="B4" s="46"/>
-      <c r="C4" s="106"/>
+      <c r="C4" s="109"/>
       <c r="D4" s="73" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E4" s="43">
         <v>0</v>
@@ -24297,9 +24306,9 @@
     <row r="5" spans="1:12" s="10" customFormat="1">
       <c r="A5" s="7"/>
       <c r="B5" s="46"/>
-      <c r="C5" s="107"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="73" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E5" s="43">
         <v>0</v>
@@ -24327,11 +24336,11 @@
     <row r="6" spans="1:12" s="10" customFormat="1">
       <c r="A6" s="7"/>
       <c r="B6" s="46"/>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="108" t="s">
         <v>425</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E6" s="40">
         <v>1</v>
@@ -24361,9 +24370,9 @@
       <c r="B7" s="41">
         <v>2</v>
       </c>
-      <c r="C7" s="106"/>
+      <c r="C7" s="109"/>
       <c r="D7" s="73" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E7" s="40">
         <v>1</v>
@@ -24393,9 +24402,9 @@
       <c r="B8" s="41">
         <v>3</v>
       </c>
-      <c r="C8" s="107"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="73" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E8" s="40">
         <v>1</v>
@@ -24425,11 +24434,11 @@
       <c r="B9" s="41">
         <v>4</v>
       </c>
-      <c r="C9" s="104" t="s">
-        <v>716</v>
+      <c r="C9" s="107" t="s">
+        <v>715</v>
       </c>
       <c r="D9" s="73" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E9" s="40">
         <v>2</v>
@@ -24455,9 +24464,9 @@
       <c r="B10" s="41">
         <v>5</v>
       </c>
-      <c r="C10" s="104"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="73" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E10" s="39">
         <v>2</v>
@@ -24483,9 +24492,9 @@
       <c r="B11" s="41">
         <v>6</v>
       </c>
-      <c r="C11" s="104"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="73" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E11" s="39">
         <v>2</v>
@@ -24541,11 +24550,11 @@
       <c r="B13" s="41">
         <v>8</v>
       </c>
-      <c r="C13" s="104" t="s">
-        <v>731</v>
+      <c r="C13" s="107" t="s">
+        <v>730</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E13" s="39">
         <v>2</v>
@@ -24571,9 +24580,9 @@
       <c r="B14" s="41">
         <v>9</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="107"/>
       <c r="D14" s="76" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E14" s="39">
         <v>2</v>
@@ -24599,9 +24608,9 @@
       <c r="B15" s="41">
         <v>10</v>
       </c>
-      <c r="C15" s="104"/>
+      <c r="C15" s="107"/>
       <c r="D15" s="76" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E15" s="39">
         <v>2</v>
@@ -24627,9 +24636,9 @@
       <c r="B16" s="41">
         <v>11</v>
       </c>
-      <c r="C16" s="104"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="84" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E16" s="39">
         <v>2</v>
@@ -24655,9 +24664,9 @@
       <c r="B17" s="41">
         <v>12</v>
       </c>
-      <c r="C17" s="104"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="84" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E17" s="39">
         <v>2</v>
@@ -24683,11 +24692,11 @@
       <c r="B18" s="41">
         <v>13</v>
       </c>
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="107" t="s">
+        <v>746</v>
+      </c>
+      <c r="D18" s="85" t="s">
         <v>747</v>
-      </c>
-      <c r="D18" s="85" t="s">
-        <v>748</v>
       </c>
       <c r="E18" s="39">
         <v>3</v>
@@ -24713,9 +24722,9 @@
       <c r="B19" s="41">
         <v>14</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="107"/>
       <c r="D19" s="84" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E19" s="39">
         <v>3</v>
@@ -24741,9 +24750,9 @@
       <c r="B20" s="41">
         <v>15</v>
       </c>
-      <c r="C20" s="104"/>
+      <c r="C20" s="107"/>
       <c r="D20" s="84" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E20" s="39">
         <v>3</v>
@@ -24768,11 +24777,11 @@
       <c r="B21" s="41">
         <v>16</v>
       </c>
-      <c r="C21" s="105" t="s">
-        <v>753</v>
+      <c r="C21" s="108" t="s">
+        <v>752</v>
       </c>
       <c r="D21" s="84" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E21" s="40">
         <v>4</v>
@@ -24797,9 +24806,9 @@
       <c r="B22" s="41">
         <v>17</v>
       </c>
-      <c r="C22" s="106"/>
+      <c r="C22" s="109"/>
       <c r="D22" s="84" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E22" s="40">
         <v>4</v>
@@ -24824,9 +24833,9 @@
       <c r="B23" s="41">
         <v>18</v>
       </c>
-      <c r="C23" s="106"/>
+      <c r="C23" s="109"/>
       <c r="D23" s="84" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E23" s="40">
         <v>4</v>
@@ -24851,9 +24860,9 @@
       <c r="B24" s="41">
         <v>19</v>
       </c>
-      <c r="C24" s="106"/>
+      <c r="C24" s="109"/>
       <c r="D24" s="70" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E24" s="40">
         <v>5</v>
@@ -24878,7 +24887,7 @@
       <c r="B25" s="41">
         <v>20</v>
       </c>
-      <c r="C25" s="106"/>
+      <c r="C25" s="109"/>
       <c r="D25" s="84" t="s">
         <v>612</v>
       </c>
@@ -24905,8 +24914,8 @@
       <c r="B26" s="41">
         <v>21</v>
       </c>
-      <c r="C26" s="105" t="s">
-        <v>823</v>
+      <c r="C26" s="108" t="s">
+        <v>822</v>
       </c>
       <c r="D26" s="84" t="s">
         <v>553</v>
@@ -24934,7 +24943,7 @@
       <c r="B27" s="41">
         <v>22</v>
       </c>
-      <c r="C27" s="106"/>
+      <c r="C27" s="109"/>
       <c r="D27" s="84" t="s">
         <v>554</v>
       </c>
@@ -24961,7 +24970,7 @@
       <c r="B28" s="41">
         <v>23</v>
       </c>
-      <c r="C28" s="106"/>
+      <c r="C28" s="109"/>
       <c r="D28" s="84" t="s">
         <v>555</v>
       </c>
@@ -24988,7 +24997,7 @@
       <c r="B29" s="41">
         <v>24</v>
       </c>
-      <c r="C29" s="106"/>
+      <c r="C29" s="109"/>
       <c r="D29" s="84" t="s">
         <v>556</v>
       </c>
@@ -25015,7 +25024,7 @@
       <c r="B30" s="41">
         <v>25</v>
       </c>
-      <c r="C30" s="106"/>
+      <c r="C30" s="109"/>
       <c r="D30" s="84" t="s">
         <v>557</v>
       </c>
@@ -25042,11 +25051,11 @@
       <c r="B31" s="41">
         <v>26</v>
       </c>
-      <c r="C31" s="104" t="s">
+      <c r="C31" s="107" t="s">
         <v>559</v>
       </c>
       <c r="D31" s="84" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E31" s="40">
         <v>1</v>
@@ -25075,9 +25084,9 @@
       <c r="B32" s="41">
         <v>27</v>
       </c>
-      <c r="C32" s="104"/>
+      <c r="C32" s="107"/>
       <c r="D32" s="84" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E32" s="40">
         <v>1</v>
@@ -25102,11 +25111,11 @@
       <c r="B33" s="41">
         <v>28</v>
       </c>
-      <c r="C33" s="104" t="s">
+      <c r="C33" s="107" t="s">
         <v>481</v>
       </c>
       <c r="D33" s="76" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E33" s="40">
         <v>1</v>
@@ -25135,9 +25144,9 @@
       <c r="B34" s="41">
         <v>29</v>
       </c>
-      <c r="C34" s="104"/>
+      <c r="C34" s="107"/>
       <c r="D34" s="85" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E34" s="40">
         <v>2</v>
@@ -25162,9 +25171,9 @@
       <c r="B35" s="41">
         <v>30</v>
       </c>
-      <c r="C35" s="104"/>
+      <c r="C35" s="107"/>
       <c r="D35" s="85" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E35" s="39">
         <v>3</v>
@@ -25189,9 +25198,9 @@
       <c r="B36" s="41">
         <v>31</v>
       </c>
-      <c r="C36" s="104"/>
+      <c r="C36" s="107"/>
       <c r="D36" s="85" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E36" s="39">
         <v>3</v>
@@ -25216,9 +25225,9 @@
       <c r="B37" s="41">
         <v>32</v>
       </c>
-      <c r="C37" s="104"/>
+      <c r="C37" s="107"/>
       <c r="D37" s="76" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E37" s="40">
         <v>4</v>
@@ -25243,9 +25252,9 @@
       <c r="B38" s="41">
         <v>33</v>
       </c>
-      <c r="C38" s="104"/>
+      <c r="C38" s="107"/>
       <c r="D38" s="85" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E38" s="40">
         <v>4</v>
@@ -25270,9 +25279,9 @@
       <c r="B39" s="41">
         <v>34</v>
       </c>
-      <c r="C39" s="104"/>
+      <c r="C39" s="107"/>
       <c r="D39" s="85" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E39" s="40">
         <v>4</v>
@@ -25297,9 +25306,9 @@
       <c r="B40" s="41">
         <v>35</v>
       </c>
-      <c r="C40" s="104"/>
+      <c r="C40" s="107"/>
       <c r="D40" s="76" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E40" s="40">
         <v>2</v>
@@ -25324,7 +25333,7 @@
       <c r="B41" s="41">
         <v>36</v>
       </c>
-      <c r="C41" s="104"/>
+      <c r="C41" s="107"/>
       <c r="D41" s="85" t="s">
         <v>487</v>
       </c>
@@ -25378,8 +25387,8 @@
     </row>
     <row r="43" spans="2:12">
       <c r="B43" s="41"/>
-      <c r="C43" s="105" t="s">
-        <v>820</v>
+      <c r="C43" s="108" t="s">
+        <v>819</v>
       </c>
       <c r="D43" s="84" t="s">
         <v>600</v>
@@ -25405,7 +25414,7 @@
     </row>
     <row r="44" spans="2:12">
       <c r="B44" s="41"/>
-      <c r="C44" s="106"/>
+      <c r="C44" s="109"/>
       <c r="D44" s="84" t="s">
         <v>598</v>
       </c>
@@ -25430,7 +25439,7 @@
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="41"/>
-      <c r="C45" s="107"/>
+      <c r="C45" s="110"/>
       <c r="D45" s="84" t="s">
         <v>599</v>
       </c>
@@ -25515,7 +25524,7 @@
         <v>419</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F1" s="45" t="s">
         <v>459</v>
@@ -25540,20 +25549,20 @@
       <c r="A2" s="74">
         <v>1</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="107" t="s">
         <v>425</v>
       </c>
       <c r="C2" s="73" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E2" s="88">
         <v>0.5</v>
       </c>
-      <c r="F2" s="115" t="s">
-        <v>715</v>
+      <c r="F2" s="118" t="s">
+        <v>714</v>
       </c>
       <c r="G2" s="92" t="s">
         <v>569</v>
@@ -25570,17 +25579,17 @@
       <c r="A3" s="74">
         <v>2</v>
       </c>
-      <c r="B3" s="104"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="73" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E3" s="88">
         <v>0.5</v>
       </c>
-      <c r="F3" s="115"/>
+      <c r="F3" s="118"/>
       <c r="G3" s="92" t="s">
         <v>569</v>
       </c>
@@ -25596,17 +25605,17 @@
       <c r="A4" s="74">
         <v>3</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="73" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E4" s="88">
         <v>0</v>
       </c>
-      <c r="F4" s="115"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="92" t="s">
         <v>569</v>
       </c>
@@ -25622,20 +25631,20 @@
       <c r="A5" s="74">
         <v>4</v>
       </c>
-      <c r="B5" s="104" t="s">
-        <v>716</v>
+      <c r="B5" s="107" t="s">
+        <v>715</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E5" s="88">
         <v>1</v>
       </c>
-      <c r="F5" s="116" t="s">
-        <v>715</v>
+      <c r="F5" s="119" t="s">
+        <v>714</v>
       </c>
       <c r="G5" s="92"/>
       <c r="H5" s="92"/>
@@ -25648,17 +25657,17 @@
       <c r="A6" s="74">
         <v>5</v>
       </c>
-      <c r="B6" s="104"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="73" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E6" s="88">
         <v>1</v>
       </c>
-      <c r="F6" s="117"/>
+      <c r="F6" s="120"/>
       <c r="G6" s="92"/>
       <c r="H6" s="92"/>
       <c r="I6" s="92"/>
@@ -25670,17 +25679,17 @@
       <c r="A7" s="74">
         <v>6</v>
       </c>
-      <c r="B7" s="104"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="73" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E7" s="88">
         <v>2</v>
       </c>
-      <c r="F7" s="118"/>
+      <c r="F7" s="121"/>
       <c r="G7" s="92"/>
       <c r="H7" s="92"/>
       <c r="I7" s="92"/>
@@ -25692,10 +25701,10 @@
       <c r="A8" s="74">
         <v>7</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="107" t="s">
         <v>485</v>
       </c>
-      <c r="C8" s="114" t="s">
+      <c r="C8" s="117" t="s">
         <v>485</v>
       </c>
       <c r="D8" s="77" t="s">
@@ -25704,8 +25713,8 @@
       <c r="E8" s="89">
         <v>0.5</v>
       </c>
-      <c r="F8" s="114" t="s">
-        <v>645</v>
+      <c r="F8" s="117" t="s">
+        <v>644</v>
       </c>
       <c r="G8" s="93" t="s">
         <v>569</v>
@@ -25722,15 +25731,15 @@
       <c r="A9" s="74">
         <v>8</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="114"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="77" t="s">
         <v>562</v>
       </c>
       <c r="E9" s="89">
         <v>0.5</v>
       </c>
-      <c r="F9" s="114"/>
+      <c r="F9" s="117"/>
       <c r="G9" s="93" t="s">
         <v>569</v>
       </c>
@@ -25742,11 +25751,11 @@
       <c r="A10" s="74">
         <v>9</v>
       </c>
-      <c r="B10" s="104" t="s">
-        <v>731</v>
-      </c>
-      <c r="C10" s="114" t="s">
-        <v>736</v>
+      <c r="B10" s="107" t="s">
+        <v>730</v>
+      </c>
+      <c r="C10" s="117" t="s">
+        <v>735</v>
       </c>
       <c r="D10" s="84" t="s">
         <v>607</v>
@@ -25754,8 +25763,8 @@
       <c r="E10" s="87">
         <v>0.2</v>
       </c>
-      <c r="F10" s="114" t="s">
-        <v>645</v>
+      <c r="F10" s="117" t="s">
+        <v>644</v>
       </c>
       <c r="G10" s="93" t="s">
         <v>569</v>
@@ -25768,15 +25777,15 @@
       <c r="A11" s="74">
         <v>10</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="114"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="117"/>
       <c r="D11" s="79" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E11" s="87">
         <v>0.5</v>
       </c>
-      <c r="F11" s="114"/>
+      <c r="F11" s="117"/>
       <c r="G11" s="93" t="s">
         <v>569</v>
       </c>
@@ -25788,15 +25797,15 @@
       <c r="A12" s="74">
         <v>11</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="114"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="117"/>
       <c r="D12" s="79" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E12" s="87">
         <v>0.2</v>
       </c>
-      <c r="F12" s="114"/>
+      <c r="F12" s="117"/>
       <c r="G12" s="93" t="s">
         <v>569</v>
       </c>
@@ -25808,18 +25817,18 @@
       <c r="A13" s="74">
         <v>12</v>
       </c>
-      <c r="B13" s="104"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="76" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D13" s="84" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E13" s="87">
         <v>1</v>
       </c>
       <c r="F13" s="76" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G13" s="93" t="s">
         <v>569</v>
@@ -25832,17 +25841,17 @@
       <c r="A14" s="74">
         <v>13</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="114" t="s">
-        <v>733</v>
+      <c r="B14" s="107"/>
+      <c r="C14" s="117" t="s">
+        <v>732</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E14" s="89">
         <v>0.5</v>
       </c>
-      <c r="F14" s="114" t="s">
+      <c r="F14" s="117" t="s">
         <v>594</v>
       </c>
       <c r="G14" s="93" t="s">
@@ -25856,15 +25865,15 @@
       <c r="A15" s="74">
         <v>14</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="114"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="117"/>
       <c r="D15" s="77" t="s">
         <v>560</v>
       </c>
       <c r="E15" s="89">
         <v>0.5</v>
       </c>
-      <c r="F15" s="114"/>
+      <c r="F15" s="117"/>
       <c r="G15" s="93" t="s">
         <v>569</v>
       </c>
@@ -25876,15 +25885,15 @@
       <c r="A16" s="74">
         <v>15</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="114"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="117"/>
       <c r="D16" s="77" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E16" s="89">
         <v>0.5</v>
       </c>
-      <c r="F16" s="114"/>
+      <c r="F16" s="117"/>
       <c r="G16" s="93" t="s">
         <v>569</v>
       </c>
@@ -25896,15 +25905,15 @@
       <c r="A17" s="74">
         <v>16</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="114"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="77" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E17" s="89">
         <v>0.5</v>
       </c>
-      <c r="F17" s="114"/>
+      <c r="F17" s="117"/>
       <c r="G17" s="93" t="s">
         <v>569</v>
       </c>
@@ -25916,18 +25925,18 @@
       <c r="A18" s="74">
         <v>17</v>
       </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="112" t="s">
-        <v>734</v>
+      <c r="B18" s="107"/>
+      <c r="C18" s="115" t="s">
+        <v>733</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E18" s="89">
         <v>1.5</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G18" s="93" t="s">
         <v>569</v>
@@ -25940,16 +25949,16 @@
       <c r="A19" s="74">
         <v>18</v>
       </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="112"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="77" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E19" s="89">
         <v>1.5</v>
       </c>
       <c r="F19" s="80" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G19" s="93" t="s">
         <v>569</v>
@@ -25962,18 +25971,18 @@
       <c r="A20" s="74">
         <v>19</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="112" t="s">
-        <v>735</v>
+      <c r="B20" s="107"/>
+      <c r="C20" s="115" t="s">
+        <v>734</v>
       </c>
       <c r="D20" s="77" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E20" s="89">
         <v>1.5</v>
       </c>
       <c r="F20" s="80" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G20" s="93" t="s">
         <v>569</v>
@@ -25986,16 +25995,16 @@
       <c r="A21" s="74">
         <v>20</v>
       </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="112"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="77" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E21" s="89">
         <v>1.5</v>
       </c>
       <c r="F21" s="80" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G21" s="93" t="s">
         <v>569</v>
@@ -26008,20 +26017,20 @@
       <c r="A22" s="74">
         <v>21</v>
       </c>
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="107" t="s">
+        <v>746</v>
+      </c>
+      <c r="C22" s="85" t="s">
         <v>747</v>
       </c>
-      <c r="C22" s="85" t="s">
-        <v>748</v>
-      </c>
       <c r="D22" s="84" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E22" s="87">
         <v>0.5</v>
       </c>
       <c r="F22" s="83" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G22" s="92"/>
       <c r="H22" s="92" t="s">
@@ -26034,9 +26043,9 @@
       <c r="A23" s="74">
         <v>22</v>
       </c>
-      <c r="B23" s="104"/>
+      <c r="B23" s="107"/>
       <c r="C23" s="84" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D23" s="82" t="s">
         <v>623</v>
@@ -26058,9 +26067,9 @@
       <c r="A24" s="74">
         <v>23</v>
       </c>
-      <c r="B24" s="104"/>
-      <c r="C24" s="112" t="s">
-        <v>750</v>
+      <c r="B24" s="107"/>
+      <c r="C24" s="115" t="s">
+        <v>749</v>
       </c>
       <c r="D24" s="82" t="s">
         <v>621</v>
@@ -26068,8 +26077,8 @@
       <c r="E24" s="87">
         <v>1</v>
       </c>
-      <c r="F24" s="113" t="s">
-        <v>705</v>
+      <c r="F24" s="116" t="s">
+        <v>704</v>
       </c>
       <c r="G24" s="93" t="s">
         <v>569</v>
@@ -26084,15 +26093,15 @@
       <c r="A25" s="74">
         <v>24</v>
       </c>
-      <c r="B25" s="104"/>
-      <c r="C25" s="112"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="82" t="s">
         <v>622</v>
       </c>
       <c r="E25" s="87">
         <v>2</v>
       </c>
-      <c r="F25" s="113"/>
+      <c r="F25" s="116"/>
       <c r="G25" s="93" t="s">
         <v>569</v>
       </c>
@@ -26106,11 +26115,11 @@
       <c r="A26" s="74">
         <v>25</v>
       </c>
-      <c r="B26" s="105" t="s">
-        <v>753</v>
-      </c>
-      <c r="C26" s="112" t="s">
-        <v>751</v>
+      <c r="B26" s="108" t="s">
+        <v>752</v>
+      </c>
+      <c r="C26" s="115" t="s">
+        <v>750</v>
       </c>
       <c r="D26" s="77" t="s">
         <v>620</v>
@@ -26118,8 +26127,8 @@
       <c r="E26" s="89">
         <v>0.5</v>
       </c>
-      <c r="F26" s="113" t="s">
-        <v>792</v>
+      <c r="F26" s="116" t="s">
+        <v>791</v>
       </c>
       <c r="G26" s="93" t="s">
         <v>569</v>
@@ -26132,15 +26141,15 @@
       <c r="A27" s="74">
         <v>26</v>
       </c>
-      <c r="B27" s="106"/>
-      <c r="C27" s="112"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="115"/>
       <c r="D27" s="77" t="s">
         <v>619</v>
       </c>
       <c r="E27" s="89">
         <v>1.5</v>
       </c>
-      <c r="F27" s="113"/>
+      <c r="F27" s="116"/>
       <c r="G27" s="93" t="s">
         <v>569</v>
       </c>
@@ -26152,15 +26161,15 @@
       <c r="A28" s="74">
         <v>27</v>
       </c>
-      <c r="B28" s="106"/>
-      <c r="C28" s="112"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="115"/>
       <c r="D28" s="77" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E28" s="89">
         <v>3</v>
       </c>
-      <c r="F28" s="113"/>
+      <c r="F28" s="116"/>
       <c r="G28" s="93" t="s">
         <v>569</v>
       </c>
@@ -26172,9 +26181,9 @@
       <c r="A29" s="74">
         <v>28</v>
       </c>
-      <c r="B29" s="106"/>
-      <c r="C29" s="112" t="s">
-        <v>752</v>
+      <c r="B29" s="109"/>
+      <c r="C29" s="115" t="s">
+        <v>751</v>
       </c>
       <c r="D29" s="77" t="s">
         <v>624</v>
@@ -26182,8 +26191,8 @@
       <c r="E29" s="89">
         <v>0.5</v>
       </c>
-      <c r="F29" s="113" t="s">
-        <v>793</v>
+      <c r="F29" s="116" t="s">
+        <v>792</v>
       </c>
       <c r="G29" s="93"/>
       <c r="H29" s="93" t="s">
@@ -26196,15 +26205,15 @@
       <c r="A30" s="74">
         <v>29</v>
       </c>
-      <c r="B30" s="106"/>
-      <c r="C30" s="112"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="115"/>
       <c r="D30" s="77" t="s">
         <v>627</v>
       </c>
       <c r="E30" s="89">
         <v>1.5</v>
       </c>
-      <c r="F30" s="113"/>
+      <c r="F30" s="116"/>
       <c r="G30" s="93"/>
       <c r="H30" s="93" t="s">
         <v>569</v>
@@ -26216,15 +26225,15 @@
       <c r="A31" s="74">
         <v>30</v>
       </c>
-      <c r="B31" s="106"/>
-      <c r="C31" s="112"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="115"/>
       <c r="D31" s="77" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E31" s="89">
         <v>3</v>
       </c>
-      <c r="F31" s="113"/>
+      <c r="F31" s="116"/>
       <c r="G31" s="93"/>
       <c r="H31" s="93" t="s">
         <v>569</v>
@@ -26236,18 +26245,18 @@
       <c r="A32" s="74">
         <v>31</v>
       </c>
-      <c r="B32" s="106"/>
-      <c r="C32" s="112" t="s">
-        <v>754</v>
+      <c r="B32" s="109"/>
+      <c r="C32" s="115" t="s">
+        <v>753</v>
       </c>
       <c r="D32" s="82" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E32" s="87">
         <v>2</v>
       </c>
-      <c r="F32" s="113" t="s">
-        <v>792</v>
+      <c r="F32" s="116" t="s">
+        <v>791</v>
       </c>
       <c r="G32" s="93" t="s">
         <v>569</v>
@@ -26262,15 +26271,15 @@
       <c r="A33" s="74">
         <v>32</v>
       </c>
-      <c r="B33" s="106"/>
-      <c r="C33" s="112"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="115"/>
       <c r="D33" s="82" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E33" s="87">
         <v>0.5</v>
       </c>
-      <c r="F33" s="113"/>
+      <c r="F33" s="116"/>
       <c r="G33" s="93" t="s">
         <v>569</v>
       </c>
@@ -26284,17 +26293,17 @@
       <c r="A34" s="74">
         <v>33</v>
       </c>
-      <c r="B34" s="106"/>
+      <c r="B34" s="109"/>
       <c r="C34" s="71" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D34" s="60" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E34" s="91">
         <v>5</v>
       </c>
-      <c r="F34" s="113"/>
+      <c r="F34" s="116"/>
       <c r="G34" s="93"/>
       <c r="H34" s="92"/>
       <c r="I34" s="92"/>
@@ -26306,8 +26315,8 @@
       <c r="A35" s="74">
         <v>34</v>
       </c>
-      <c r="B35" s="106"/>
-      <c r="C35" s="112" t="s">
+      <c r="B35" s="109"/>
+      <c r="C35" s="115" t="s">
         <v>612</v>
       </c>
       <c r="D35" s="82" t="s">
@@ -26316,8 +26325,8 @@
       <c r="E35" s="87">
         <v>0.5</v>
       </c>
-      <c r="F35" s="113" t="s">
-        <v>794</v>
+      <c r="F35" s="116" t="s">
+        <v>793</v>
       </c>
       <c r="G35" s="93" t="s">
         <v>569</v>
@@ -26332,15 +26341,15 @@
       <c r="A36" s="74">
         <v>35</v>
       </c>
-      <c r="B36" s="106"/>
-      <c r="C36" s="112"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="115"/>
       <c r="D36" s="82" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E36" s="87">
         <v>2</v>
       </c>
-      <c r="F36" s="113"/>
+      <c r="F36" s="116"/>
       <c r="G36" s="93" t="s">
         <v>569</v>
       </c>
@@ -26354,16 +26363,16 @@
       <c r="A37" s="74">
         <v>36</v>
       </c>
-      <c r="B37" s="107"/>
-      <c r="C37" s="112"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="115"/>
       <c r="D37" s="82" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E37" s="87">
         <v>2</v>
       </c>
       <c r="F37" s="80" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G37" s="93" t="s">
         <v>569</v>
@@ -26378,20 +26387,20 @@
       <c r="A38" s="74">
         <v>37</v>
       </c>
-      <c r="B38" s="105" t="s">
-        <v>823</v>
-      </c>
-      <c r="C38" s="112" t="s">
+      <c r="B38" s="108" t="s">
+        <v>822</v>
+      </c>
+      <c r="C38" s="115" t="s">
         <v>553</v>
       </c>
       <c r="D38" s="82" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E38" s="87">
         <v>0.5</v>
       </c>
-      <c r="F38" s="113" t="s">
-        <v>764</v>
+      <c r="F38" s="116" t="s">
+        <v>763</v>
       </c>
       <c r="G38" s="93" t="s">
         <v>569</v>
@@ -26406,15 +26415,15 @@
       <c r="A39" s="74">
         <v>38</v>
       </c>
-      <c r="B39" s="106"/>
-      <c r="C39" s="112"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="115"/>
       <c r="D39" s="82" t="s">
         <v>565</v>
       </c>
       <c r="E39" s="87">
         <v>2</v>
       </c>
-      <c r="F39" s="113"/>
+      <c r="F39" s="116"/>
       <c r="G39" s="93" t="s">
         <v>569</v>
       </c>
@@ -26428,18 +26437,18 @@
       <c r="A40" s="74">
         <v>39</v>
       </c>
-      <c r="B40" s="106"/>
-      <c r="C40" s="112" t="s">
+      <c r="B40" s="109"/>
+      <c r="C40" s="115" t="s">
         <v>554</v>
       </c>
       <c r="D40" s="82" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E40" s="87">
         <v>0.5</v>
       </c>
       <c r="F40" s="83" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G40" s="93" t="s">
         <v>569</v>
@@ -26454,16 +26463,16 @@
       <c r="A41" s="74">
         <v>40</v>
       </c>
-      <c r="B41" s="106"/>
-      <c r="C41" s="112"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="115"/>
       <c r="D41" s="82" t="s">
         <v>566</v>
       </c>
       <c r="E41" s="87">
         <v>1</v>
       </c>
-      <c r="F41" s="113" t="s">
-        <v>764</v>
+      <c r="F41" s="116" t="s">
+        <v>763</v>
       </c>
       <c r="G41" s="93" t="s">
         <v>569</v>
@@ -26478,17 +26487,17 @@
       <c r="A42" s="74">
         <v>41</v>
       </c>
-      <c r="B42" s="106"/>
-      <c r="C42" s="112" t="s">
+      <c r="B42" s="109"/>
+      <c r="C42" s="115" t="s">
         <v>555</v>
       </c>
       <c r="D42" s="82" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E42" s="87">
         <v>0.5</v>
       </c>
-      <c r="F42" s="113"/>
+      <c r="F42" s="116"/>
       <c r="G42" s="93" t="s">
         <v>569</v>
       </c>
@@ -26502,8 +26511,8 @@
       <c r="A43" s="74">
         <v>42</v>
       </c>
-      <c r="B43" s="106"/>
-      <c r="C43" s="112"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="115"/>
       <c r="D43" s="82" t="s">
         <v>567</v>
       </c>
@@ -26524,18 +26533,18 @@
       <c r="A44" s="74">
         <v>43</v>
       </c>
-      <c r="B44" s="106"/>
-      <c r="C44" s="112" t="s">
+      <c r="B44" s="109"/>
+      <c r="C44" s="115" t="s">
         <v>556</v>
       </c>
       <c r="D44" s="82" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E44" s="87">
         <v>0.5</v>
       </c>
-      <c r="F44" s="113" t="s">
-        <v>764</v>
+      <c r="F44" s="116" t="s">
+        <v>763</v>
       </c>
       <c r="G44" s="93" t="s">
         <v>569</v>
@@ -26550,15 +26559,15 @@
       <c r="A45" s="74">
         <v>44</v>
       </c>
-      <c r="B45" s="106"/>
-      <c r="C45" s="112"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="115"/>
       <c r="D45" s="82" t="s">
         <v>568</v>
       </c>
       <c r="E45" s="87">
         <v>1</v>
       </c>
-      <c r="F45" s="113"/>
+      <c r="F45" s="116"/>
       <c r="G45" s="93" t="s">
         <v>569</v>
       </c>
@@ -26572,8 +26581,8 @@
       <c r="A46" s="74">
         <v>45</v>
       </c>
-      <c r="B46" s="106"/>
-      <c r="C46" s="112" t="s">
+      <c r="B46" s="109"/>
+      <c r="C46" s="115" t="s">
         <v>557</v>
       </c>
       <c r="D46" s="82" t="s">
@@ -26582,8 +26591,8 @@
       <c r="E46" s="87">
         <v>0.5</v>
       </c>
-      <c r="F46" s="113" t="s">
-        <v>764</v>
+      <c r="F46" s="116" t="s">
+        <v>763</v>
       </c>
       <c r="G46" s="93" t="s">
         <v>569</v>
@@ -26598,15 +26607,15 @@
       <c r="A47" s="74">
         <v>46</v>
       </c>
-      <c r="B47" s="106"/>
-      <c r="C47" s="112"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="115"/>
       <c r="D47" s="82" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E47" s="87">
         <v>0.5</v>
       </c>
-      <c r="F47" s="113"/>
+      <c r="F47" s="116"/>
       <c r="G47" s="93" t="s">
         <v>569</v>
       </c>
@@ -26620,15 +26629,15 @@
       <c r="A48" s="74">
         <v>47</v>
       </c>
-      <c r="B48" s="107"/>
-      <c r="C48" s="112"/>
+      <c r="B48" s="110"/>
+      <c r="C48" s="115"/>
       <c r="D48" s="82" t="s">
         <v>558</v>
       </c>
       <c r="E48" s="87">
         <v>1</v>
       </c>
-      <c r="F48" s="113"/>
+      <c r="F48" s="116"/>
       <c r="G48" s="93" t="s">
         <v>569</v>
       </c>
@@ -26642,20 +26651,20 @@
       <c r="A49" s="74">
         <v>48</v>
       </c>
-      <c r="B49" s="104" t="s">
+      <c r="B49" s="107" t="s">
         <v>559</v>
       </c>
-      <c r="C49" s="112" t="s">
-        <v>765</v>
+      <c r="C49" s="115" t="s">
+        <v>764</v>
       </c>
       <c r="D49" s="82" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E49" s="87">
         <v>0.2</v>
       </c>
-      <c r="F49" s="113" t="s">
-        <v>645</v>
+      <c r="F49" s="116" t="s">
+        <v>644</v>
       </c>
       <c r="G49" s="93" t="s">
         <v>569</v>
@@ -26670,15 +26679,15 @@
       <c r="A50" s="74">
         <v>49</v>
       </c>
-      <c r="B50" s="104"/>
-      <c r="C50" s="112"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="115"/>
       <c r="D50" s="82" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E50" s="87">
         <v>0.2</v>
       </c>
-      <c r="F50" s="113"/>
+      <c r="F50" s="116"/>
       <c r="G50" s="93" t="s">
         <v>569</v>
       </c>
@@ -26690,17 +26699,17 @@
       <c r="A51" s="74">
         <v>50</v>
       </c>
-      <c r="B51" s="104"/>
-      <c r="C51" s="112" t="s">
-        <v>766</v>
+      <c r="B51" s="107"/>
+      <c r="C51" s="115" t="s">
+        <v>765</v>
       </c>
       <c r="D51" s="82" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E51" s="87">
         <v>0.2</v>
       </c>
-      <c r="F51" s="113"/>
+      <c r="F51" s="116"/>
       <c r="G51" s="93" t="s">
         <v>569</v>
       </c>
@@ -26714,15 +26723,15 @@
       <c r="A52" s="74">
         <v>51</v>
       </c>
-      <c r="B52" s="104"/>
-      <c r="C52" s="112"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="115"/>
       <c r="D52" s="82" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E52" s="87">
         <v>0.2</v>
       </c>
-      <c r="F52" s="113"/>
+      <c r="F52" s="116"/>
       <c r="G52" s="93" t="s">
         <v>569</v>
       </c>
@@ -26734,11 +26743,11 @@
       <c r="A53" s="74">
         <v>52</v>
       </c>
-      <c r="B53" s="104" t="s">
+      <c r="B53" s="107" t="s">
         <v>481</v>
       </c>
       <c r="C53" s="76" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D53" s="77" t="s">
         <v>606</v>
@@ -26765,9 +26774,9 @@
       <c r="A54" s="74">
         <v>53</v>
       </c>
-      <c r="B54" s="104"/>
+      <c r="B54" s="107"/>
       <c r="C54" s="85" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D54" s="77" t="s">
         <v>486</v>
@@ -26791,18 +26800,18 @@
       <c r="A55" s="74">
         <v>54</v>
       </c>
-      <c r="B55" s="104"/>
+      <c r="B55" s="107"/>
       <c r="C55" s="85" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D55" s="77" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E55" s="89">
         <v>2</v>
       </c>
       <c r="F55" s="85" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G55" s="93"/>
       <c r="H55" s="93"/>
@@ -26815,12 +26824,12 @@
       <c r="A56" s="74">
         <v>55</v>
       </c>
-      <c r="B56" s="104"/>
+      <c r="B56" s="107"/>
       <c r="C56" s="85" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D56" s="77" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E56" s="89">
         <v>1</v>
@@ -26839,18 +26848,18 @@
       <c r="A57" s="74">
         <v>56</v>
       </c>
-      <c r="B57" s="104"/>
-      <c r="C57" s="114" t="s">
-        <v>812</v>
+      <c r="B57" s="107"/>
+      <c r="C57" s="117" t="s">
+        <v>811</v>
       </c>
       <c r="D57" s="77" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E57" s="89">
         <v>1</v>
       </c>
       <c r="F57" s="85" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G57" s="93"/>
       <c r="H57" s="93" t="s">
@@ -26863,16 +26872,16 @@
       <c r="A58" s="74">
         <v>57</v>
       </c>
-      <c r="B58" s="104"/>
-      <c r="C58" s="114"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="117"/>
       <c r="D58" s="77" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E58" s="89">
         <v>3</v>
       </c>
       <c r="F58" s="85" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G58" s="93"/>
       <c r="H58" s="93"/>
@@ -26885,18 +26894,18 @@
       <c r="A59" s="74">
         <v>58</v>
       </c>
-      <c r="B59" s="104"/>
+      <c r="B59" s="107"/>
       <c r="C59" s="85" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D59" s="77" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E59" s="89">
         <v>2</v>
       </c>
       <c r="F59" s="85" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G59" s="93"/>
       <c r="H59" s="93"/>
@@ -26909,18 +26918,18 @@
       <c r="A60" s="74">
         <v>59</v>
       </c>
-      <c r="B60" s="104"/>
+      <c r="B60" s="107"/>
       <c r="C60" s="85" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D60" s="77" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E60" s="89">
         <v>2</v>
       </c>
       <c r="F60" s="85" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G60" s="93"/>
       <c r="H60" s="93"/>
@@ -26933,12 +26942,12 @@
       <c r="A61" s="74">
         <v>60</v>
       </c>
-      <c r="B61" s="104"/>
+      <c r="B61" s="107"/>
       <c r="C61" s="76" t="s">
+        <v>679</v>
+      </c>
+      <c r="D61" s="77" t="s">
         <v>680</v>
-      </c>
-      <c r="D61" s="77" t="s">
-        <v>681</v>
       </c>
       <c r="E61" s="89">
         <v>5</v>
@@ -26955,12 +26964,12 @@
       <c r="A62" s="74">
         <v>61</v>
       </c>
-      <c r="B62" s="104"/>
+      <c r="B62" s="107"/>
       <c r="C62" s="85" t="s">
         <v>487</v>
       </c>
       <c r="D62" s="77" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E62" s="89">
         <v>2</v>
@@ -26981,14 +26990,14 @@
       <c r="A63" s="74">
         <v>62</v>
       </c>
-      <c r="B63" s="104" t="s">
+      <c r="B63" s="107" t="s">
         <v>482</v>
       </c>
-      <c r="C63" s="112" t="s">
+      <c r="C63" s="115" t="s">
         <v>597</v>
       </c>
       <c r="D63" s="82" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E63" s="87">
         <v>1</v>
@@ -27005,10 +27014,10 @@
       <c r="A64" s="74">
         <v>63</v>
       </c>
-      <c r="B64" s="104"/>
-      <c r="C64" s="112"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="115"/>
       <c r="D64" s="82" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E64" s="87">
         <v>1</v>
@@ -27025,10 +27034,10 @@
       <c r="A65" s="74">
         <v>64</v>
       </c>
-      <c r="B65" s="104"/>
-      <c r="C65" s="112"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="115"/>
       <c r="D65" s="82" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E65" s="87">
         <v>1</v>
@@ -27043,14 +27052,14 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="F49:F52"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="F44:F45"/>
     <mergeCell ref="B26:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="F2:F4"/>
@@ -27062,22 +27071,18 @@
     <mergeCell ref="F14:F17"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="F5:F7"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="F32:F34"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C10:C12"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C14:C17"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="F29:F31"/>
     <mergeCell ref="C63:C65"/>
     <mergeCell ref="B63:B65"/>
     <mergeCell ref="C46:C48"/>
@@ -27087,6 +27092,10 @@
     <mergeCell ref="B53:B62"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="F38:F39"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="F49:F52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -27095,10 +27104,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G213"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -27262,10 +27271,12 @@
     <row r="10" spans="1:6">
       <c r="A10" s="57"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="57" t="s">
+    <row r="11" spans="1:6" s="11" customFormat="1">
+      <c r="A11" s="104" t="s">
         <v>571</v>
       </c>
+      <c r="D11" s="105"/>
+      <c r="F11" s="106"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="53" t="s">
@@ -27372,7 +27383,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="102" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C17" s="99" t="s">
         <v>488</v>
@@ -27384,7 +27395,7 @@
         <v>435</v>
       </c>
       <c r="F17" s="79" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -27448,10 +27459,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="57" t="s">
+    <row r="23" spans="1:7" s="11" customFormat="1">
+      <c r="A23" s="104" t="s">
         <v>595</v>
       </c>
+      <c r="D23" s="105"/>
+      <c r="F23" s="106"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="53" t="s">
@@ -27513,7 +27526,7 @@
         <v>608</v>
       </c>
       <c r="G26" s="56" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -27521,7 +27534,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="96" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C27" s="96" t="s">
         <v>572</v>
@@ -27531,10 +27544,10 @@
         <v>435</v>
       </c>
       <c r="F27" s="78" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G27" s="56" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -27542,7 +27555,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C28" s="96" t="s">
         <v>434</v>
@@ -27554,10 +27567,10 @@
         <v>435</v>
       </c>
       <c r="F28" s="79" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G28" s="56" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -27565,7 +27578,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="96" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C29" s="96" t="s">
         <v>572</v>
@@ -27575,10 +27588,10 @@
         <v>435</v>
       </c>
       <c r="F29" s="78" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G29" s="56" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -27586,7 +27599,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="96" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C30" s="96" t="s">
         <v>572</v>
@@ -27596,10 +27609,10 @@
         <v>435</v>
       </c>
       <c r="F30" s="78" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G30" s="56" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -27620,7 +27633,7 @@
         <v>604</v>
       </c>
       <c r="G31" s="56" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -27628,7 +27641,7 @@
         <v>8</v>
       </c>
       <c r="B32" s="96" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C32" s="96" t="s">
         <v>572</v>
@@ -27638,10 +27651,10 @@
         <v>435</v>
       </c>
       <c r="F32" s="78" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G32" s="56" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -27662,7 +27675,7 @@
         <v>573</v>
       </c>
       <c r="G33" s="56" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -27670,7 +27683,7 @@
         <v>10</v>
       </c>
       <c r="B34" s="96" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C34" s="96" t="s">
         <v>572</v>
@@ -27680,10 +27693,10 @@
         <v>435</v>
       </c>
       <c r="F34" s="78" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G34" s="56" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.25" customHeight="1">
@@ -27727,10 +27740,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="57" t="s">
+    <row r="39" spans="1:7" s="11" customFormat="1">
+      <c r="A39" s="104" t="s">
         <v>630</v>
       </c>
+      <c r="D39" s="105"/>
+      <c r="F39" s="106"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="53" t="s">
@@ -27769,7 +27784,7 @@
         <v>435</v>
       </c>
       <c r="F41" s="78" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -27789,7 +27804,7 @@
         <v>452</v>
       </c>
       <c r="F42" s="78" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -27829,7 +27844,7 @@
         <v>435</v>
       </c>
       <c r="F44" s="78" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -27837,7 +27852,7 @@
         <v>5</v>
       </c>
       <c r="B45" s="102" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C45" s="96" t="s">
         <v>434</v>
@@ -27849,7 +27864,7 @@
         <v>435</v>
       </c>
       <c r="F45" s="79" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -27857,7 +27872,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="102" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C46" s="96" t="s">
         <v>434</v>
@@ -27869,7 +27884,7 @@
         <v>435</v>
       </c>
       <c r="F46" s="79" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -27883,7 +27898,7 @@
       <c r="D47" s="103"/>
       <c r="E47" s="102"/>
       <c r="F47" s="79" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -27927,10 +27942,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="57" t="s">
-        <v>833</v>
-      </c>
+    <row r="52" spans="1:6" s="11" customFormat="1">
+      <c r="A52" s="104" t="s">
+        <v>832</v>
+      </c>
+      <c r="D52" s="105"/>
+      <c r="F52" s="106"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="53" t="s">
@@ -27989,7 +28006,7 @@
         <v>452</v>
       </c>
       <c r="F55" s="79" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -28009,7 +28026,7 @@
         <v>435</v>
       </c>
       <c r="F56" s="79" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -28167,10 +28184,10 @@
         <v>435</v>
       </c>
       <c r="F64" s="101" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="98">
         <v>10</v>
       </c>
@@ -28190,7 +28207,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:6">
       <c r="A66" s="95">
         <v>11</v>
       </c>
@@ -28210,7 +28227,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:6">
       <c r="A67" s="98">
         <v>12</v>
       </c>
@@ -28230,7 +28247,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:6">
       <c r="A68" s="98">
         <v>18</v>
       </c>
@@ -28248,7 +28265,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:6">
       <c r="A69" s="95">
         <v>19</v>
       </c>
@@ -28266,22 +28283,22 @@
         <v>439</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:6">
       <c r="A70" s="57" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:6">
       <c r="A71" s="56"/>
       <c r="D71" s="56"/>
       <c r="F71" s="56"/>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="119" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+    <row r="72" spans="1:6">
+      <c r="A72" s="104" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="53" t="s">
         <v>0</v>
       </c>
@@ -28301,7 +28318,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:6">
       <c r="A74" s="95">
         <v>1</v>
       </c>
@@ -28318,15 +28335,15 @@
         <v>435</v>
       </c>
       <c r="F74" s="78" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="64">
         <v>2</v>
       </c>
       <c r="B75" s="102" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C75" s="96" t="s">
         <v>434</v>
@@ -28338,84 +28355,75 @@
         <v>435</v>
       </c>
       <c r="F75" s="78" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="64">
-        <v>4</v>
-      </c>
-      <c r="B76" s="99" t="s">
-        <v>552</v>
+        <v>2</v>
+      </c>
+      <c r="B76" s="102" t="s">
+        <v>584</v>
       </c>
       <c r="C76" s="99" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="D76" s="100">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="E76" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="F76" s="101" t="s">
-        <v>638</v>
-      </c>
-      <c r="G76" s="56" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="95">
-        <v>5</v>
+      <c r="F76" s="79" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="64">
+        <v>3</v>
       </c>
       <c r="B77" s="102" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C77" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="D77" s="100">
+        <v>50</v>
+      </c>
+      <c r="E77" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F77" s="79" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="64">
+        <v>4</v>
+      </c>
+      <c r="B78" s="99" t="s">
+        <v>552</v>
+      </c>
+      <c r="C78" s="99" t="s">
         <v>438</v>
       </c>
-      <c r="D77" s="100">
+      <c r="D78" s="100">
         <v>2</v>
-      </c>
-      <c r="E77" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="F77" s="79" t="s">
-        <v>698</v>
-      </c>
-      <c r="G77" s="56" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="64">
-        <v>6</v>
-      </c>
-      <c r="B78" s="99" t="s">
-        <v>547</v>
-      </c>
-      <c r="C78" s="99" t="s">
-        <v>549</v>
-      </c>
-      <c r="D78" s="100">
-        <v>8</v>
       </c>
       <c r="E78" s="96" t="s">
         <v>452</v>
       </c>
       <c r="F78" s="101" t="s">
-        <v>548</v>
-      </c>
-      <c r="G78" s="56" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="95">
-        <v>7</v>
-      </c>
-      <c r="B79" s="99" t="s">
-        <v>499</v>
+        <v>5</v>
+      </c>
+      <c r="B79" s="102" t="s">
+        <v>587</v>
       </c>
       <c r="C79" s="99" t="s">
         <v>438</v>
@@ -28424,347 +28432,352 @@
         <v>2</v>
       </c>
       <c r="E79" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F79" s="101" t="s">
-        <v>500</v>
-      </c>
-      <c r="G79" s="56" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="31.5">
+        <v>452</v>
+      </c>
+      <c r="F79" s="79" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="64">
+        <v>6</v>
+      </c>
+      <c r="B80" s="99" t="s">
+        <v>547</v>
+      </c>
+      <c r="C80" s="99" t="s">
+        <v>549</v>
+      </c>
+      <c r="D80" s="100">
         <v>8</v>
       </c>
-      <c r="B80" s="99" t="s">
-        <v>702</v>
-      </c>
-      <c r="C80" s="99" t="s">
-        <v>438</v>
-      </c>
-      <c r="D80" s="100">
-        <v>2</v>
-      </c>
       <c r="E80" s="96" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="F80" s="101" t="s">
-        <v>703</v>
-      </c>
-      <c r="G80" s="56" t="s">
-        <v>636</v>
+        <v>548</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="95">
-        <v>9</v>
-      </c>
-      <c r="B81" s="96" t="s">
-        <v>501</v>
-      </c>
-      <c r="C81" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D81" s="97">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B81" s="99" t="s">
+        <v>499</v>
+      </c>
+      <c r="C81" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D81" s="100">
+        <v>2</v>
       </c>
       <c r="E81" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F81" s="81" t="s">
-        <v>677</v>
+      <c r="F81" s="101" t="s">
+        <v>500</v>
       </c>
       <c r="G81" s="56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="31.5">
       <c r="A82" s="64">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B82" s="99" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
       <c r="C82" s="99" t="s">
         <v>438</v>
       </c>
       <c r="D82" s="100">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E82" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F82" s="101" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="G82" s="56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="95">
-        <v>11</v>
-      </c>
-      <c r="B83" s="102" t="s">
-        <v>661</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="31.5">
+      <c r="A83" s="64">
+        <v>8</v>
+      </c>
+      <c r="B83" s="99" t="s">
+        <v>701</v>
       </c>
       <c r="C83" s="99" t="s">
         <v>438</v>
       </c>
       <c r="D83" s="100">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E83" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F83" s="79" t="s">
-        <v>663</v>
+      <c r="F83" s="101" t="s">
+        <v>702</v>
       </c>
       <c r="G83" s="56" t="s">
-        <v>2</v>
+        <v>833</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="64">
-        <v>12</v>
-      </c>
-      <c r="B84" s="102" t="s">
-        <v>662</v>
-      </c>
-      <c r="C84" s="99" t="s">
-        <v>438</v>
-      </c>
-      <c r="D84" s="100">
+      <c r="A84" s="95">
+        <v>9</v>
+      </c>
+      <c r="B84" s="96" t="s">
+        <v>501</v>
+      </c>
+      <c r="C84" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D84" s="97">
         <v>8</v>
       </c>
       <c r="E84" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F84" s="79" t="s">
-        <v>664</v>
+      <c r="F84" s="81" t="s">
+        <v>676</v>
       </c>
       <c r="G84" s="56" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="95">
-        <v>13</v>
-      </c>
-      <c r="B85" s="96" t="s">
-        <v>641</v>
-      </c>
-      <c r="C85" s="96" t="s">
-        <v>572</v>
-      </c>
-      <c r="D85" s="97"/>
+      <c r="A85" s="64">
+        <v>10</v>
+      </c>
+      <c r="B85" s="99" t="s">
+        <v>591</v>
+      </c>
+      <c r="C85" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D85" s="100">
+        <v>8</v>
+      </c>
       <c r="E85" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F85" s="78" t="s">
-        <v>642</v>
+      <c r="F85" s="101" t="s">
+        <v>636</v>
       </c>
       <c r="G85" s="56" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="31.5">
-      <c r="A86" s="64">
-        <v>14</v>
-      </c>
-      <c r="B86" s="96" t="s">
-        <v>649</v>
-      </c>
-      <c r="C86" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D86" s="97">
+    <row r="86" spans="1:7">
+      <c r="A86" s="95">
+        <v>11</v>
+      </c>
+      <c r="B86" s="102" t="s">
+        <v>660</v>
+      </c>
+      <c r="C86" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D86" s="100">
         <v>8</v>
       </c>
       <c r="E86" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F86" s="79" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="G86" s="56" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="95">
-        <v>15</v>
-      </c>
-      <c r="B87" s="96" t="s">
-        <v>518</v>
-      </c>
-      <c r="C87" s="96" t="s">
-        <v>436</v>
-      </c>
-      <c r="D87" s="97"/>
+      <c r="A87" s="64">
+        <v>12</v>
+      </c>
+      <c r="B87" s="102" t="s">
+        <v>661</v>
+      </c>
+      <c r="C87" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D87" s="100">
+        <v>8</v>
+      </c>
       <c r="E87" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F87" s="78" t="s">
-        <v>440</v>
+      <c r="F87" s="79" t="s">
+        <v>663</v>
+      </c>
+      <c r="G87" s="56" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="64">
-        <v>16</v>
+      <c r="A88" s="95">
+        <v>13</v>
       </c>
       <c r="B88" s="96" t="s">
-        <v>519</v>
+        <v>640</v>
       </c>
       <c r="C88" s="96" t="s">
-        <v>436</v>
+        <v>572</v>
       </c>
       <c r="D88" s="97"/>
       <c r="E88" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F88" s="78" t="s">
+        <v>641</v>
+      </c>
+      <c r="G88" s="56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="31.5">
+      <c r="A89" s="64">
+        <v>14</v>
+      </c>
+      <c r="B89" s="96" t="s">
+        <v>648</v>
+      </c>
+      <c r="C89" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D89" s="97">
+        <v>8</v>
+      </c>
+      <c r="E89" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F89" s="79" t="s">
+        <v>649</v>
+      </c>
+      <c r="G89" s="56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="95">
+        <v>15</v>
+      </c>
+      <c r="B90" s="96" t="s">
+        <v>518</v>
+      </c>
+      <c r="C90" s="96" t="s">
+        <v>436</v>
+      </c>
+      <c r="D90" s="97"/>
+      <c r="E90" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F90" s="78" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="64">
+        <v>16</v>
+      </c>
+      <c r="B91" s="96" t="s">
+        <v>519</v>
+      </c>
+      <c r="C91" s="96" t="s">
+        <v>436</v>
+      </c>
+      <c r="D91" s="97"/>
+      <c r="E91" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="F88" s="78" t="s">
+      <c r="F91" s="78" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="57" t="s">
+    <row r="92" spans="1:7">
+      <c r="A92" s="57" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="57"/>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="119" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="53" t="s">
+    <row r="93" spans="1:7">
+      <c r="A93" s="57"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="104" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="53" t="s">
+      <c r="B95" s="53" t="s">
         <v>429</v>
       </c>
-      <c r="C92" s="53" t="s">
+      <c r="C95" s="53" t="s">
         <v>430</v>
       </c>
-      <c r="D92" s="53" t="s">
+      <c r="D95" s="53" t="s">
         <v>496</v>
       </c>
-      <c r="E92" s="54" t="s">
+      <c r="E95" s="54" t="s">
         <v>431</v>
       </c>
-      <c r="F92" s="55" t="s">
+      <c r="F95" s="55" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="95">
+    <row r="96" spans="1:7">
+      <c r="A96" s="95">
         <v>1</v>
       </c>
-      <c r="B93" s="96" t="s">
+      <c r="B96" s="96" t="s">
         <v>432</v>
       </c>
-      <c r="C93" s="96" t="s">
+      <c r="C96" s="96" t="s">
         <v>434</v>
       </c>
-      <c r="D93" s="97">
+      <c r="D96" s="97">
         <v>8</v>
       </c>
-      <c r="E93" s="96" t="s">
+      <c r="E96" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F93" s="78" t="s">
+      <c r="F96" s="78" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="64">
+    <row r="97" spans="1:6">
+      <c r="A97" s="64">
         <v>2</v>
       </c>
-      <c r="B94" s="102" t="s">
-        <v>830</v>
-      </c>
-      <c r="C94" s="96" t="s">
+      <c r="B97" s="102" t="s">
+        <v>829</v>
+      </c>
+      <c r="C97" s="96" t="s">
         <v>434</v>
       </c>
-      <c r="D94" s="97">
+      <c r="D97" s="97">
         <v>8</v>
       </c>
-      <c r="E94" s="96" t="s">
+      <c r="E97" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F94" s="78" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="95">
+      <c r="F97" s="78" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="95">
         <v>3</v>
       </c>
-      <c r="B95" s="99" t="s">
+      <c r="B98" s="99" t="s">
         <v>552</v>
-      </c>
-      <c r="C95" s="99" t="s">
-        <v>438</v>
-      </c>
-      <c r="D95" s="100">
-        <v>2</v>
-      </c>
-      <c r="E95" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="F95" s="101" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="64">
-        <v>4</v>
-      </c>
-      <c r="B96" s="102" t="s">
-        <v>587</v>
-      </c>
-      <c r="C96" s="99" t="s">
-        <v>438</v>
-      </c>
-      <c r="D96" s="100">
-        <v>2</v>
-      </c>
-      <c r="E96" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="F96" s="79" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="95">
-        <v>5</v>
-      </c>
-      <c r="B97" s="99" t="s">
-        <v>547</v>
-      </c>
-      <c r="C97" s="99" t="s">
-        <v>549</v>
-      </c>
-      <c r="D97" s="100"/>
-      <c r="E97" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="F97" s="101" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="31.5">
-      <c r="A98" s="64">
-        <v>6</v>
-      </c>
-      <c r="B98" s="99" t="s">
-        <v>502</v>
       </c>
       <c r="C98" s="99" t="s">
         <v>438</v>
@@ -28773,144 +28786,142 @@
         <v>2</v>
       </c>
       <c r="E98" s="96" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="F98" s="101" t="s">
-        <v>653</v>
+        <v>551</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="95">
-        <v>7</v>
-      </c>
-      <c r="B99" s="96" t="s">
-        <v>518</v>
-      </c>
-      <c r="C99" s="96" t="s">
-        <v>436</v>
-      </c>
-      <c r="D99" s="97"/>
+      <c r="A99" s="64">
+        <v>4</v>
+      </c>
+      <c r="B99" s="102" t="s">
+        <v>587</v>
+      </c>
+      <c r="C99" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D99" s="100">
+        <v>2</v>
+      </c>
       <c r="E99" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F99" s="78" t="s">
-        <v>440</v>
+        <v>452</v>
+      </c>
+      <c r="F99" s="79" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="64">
-        <v>8</v>
-      </c>
-      <c r="B100" s="96" t="s">
-        <v>519</v>
-      </c>
-      <c r="C100" s="96" t="s">
-        <v>436</v>
-      </c>
-      <c r="D100" s="97"/>
+      <c r="A100" s="95">
+        <v>5</v>
+      </c>
+      <c r="B100" s="99" t="s">
+        <v>547</v>
+      </c>
+      <c r="C100" s="99" t="s">
+        <v>549</v>
+      </c>
+      <c r="D100" s="100"/>
       <c r="E100" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="F100" s="78" t="s">
+      <c r="F100" s="101" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="31.5">
+      <c r="A101" s="64">
+        <v>6</v>
+      </c>
+      <c r="B101" s="99" t="s">
+        <v>502</v>
+      </c>
+      <c r="C101" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D101" s="100">
+        <v>2</v>
+      </c>
+      <c r="E101" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F101" s="101" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="95">
+        <v>7</v>
+      </c>
+      <c r="B102" s="96" t="s">
+        <v>518</v>
+      </c>
+      <c r="C102" s="96" t="s">
+        <v>436</v>
+      </c>
+      <c r="D102" s="97"/>
+      <c r="E102" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F102" s="78" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="64">
+        <v>8</v>
+      </c>
+      <c r="B103" s="96" t="s">
+        <v>519</v>
+      </c>
+      <c r="C103" s="96" t="s">
+        <v>436</v>
+      </c>
+      <c r="D103" s="97"/>
+      <c r="E103" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="F103" s="78" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="57" t="s">
+    <row r="104" spans="1:6">
+      <c r="A104" s="57" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="119" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="53" t="s">
+    <row r="106" spans="1:6">
+      <c r="A106" s="104" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="53" t="s">
+      <c r="B107" s="53" t="s">
         <v>429</v>
       </c>
-      <c r="C104" s="53" t="s">
+      <c r="C107" s="53" t="s">
         <v>430</v>
       </c>
-      <c r="D104" s="53" t="s">
+      <c r="D107" s="53" t="s">
         <v>496</v>
       </c>
-      <c r="E104" s="54" t="s">
+      <c r="E107" s="54" t="s">
         <v>431</v>
       </c>
-      <c r="F104" s="55" t="s">
+      <c r="F107" s="55" t="s">
         <v>428</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="64">
-        <v>1</v>
-      </c>
-      <c r="B105" s="102" t="s">
-        <v>432</v>
-      </c>
-      <c r="C105" s="102" t="s">
-        <v>434</v>
-      </c>
-      <c r="D105" s="103">
-        <v>8</v>
-      </c>
-      <c r="E105" s="102" t="s">
-        <v>435</v>
-      </c>
-      <c r="F105" s="79" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="64">
-        <v>2</v>
-      </c>
-      <c r="B106" s="102" t="s">
-        <v>617</v>
-      </c>
-      <c r="C106" s="102" t="s">
-        <v>434</v>
-      </c>
-      <c r="D106" s="103">
-        <v>8</v>
-      </c>
-      <c r="E106" s="102" t="s">
-        <v>435</v>
-      </c>
-      <c r="F106" s="79" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="64">
-        <v>3</v>
-      </c>
-      <c r="B107" s="102" t="s">
-        <v>832</v>
-      </c>
-      <c r="C107" s="102" t="s">
-        <v>434</v>
-      </c>
-      <c r="D107" s="103">
-        <v>8</v>
-      </c>
-      <c r="E107" s="102" t="s">
-        <v>452</v>
-      </c>
-      <c r="F107" s="79" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B108" s="102" t="s">
-        <v>831</v>
+        <v>432</v>
       </c>
       <c r="C108" s="102" t="s">
         <v>434</v>
@@ -28919,371 +28930,375 @@
         <v>8</v>
       </c>
       <c r="E108" s="102" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="F108" s="79" t="s">
-        <v>722</v>
+        <v>638</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B109" s="102" t="s">
-        <v>720</v>
+        <v>617</v>
       </c>
       <c r="C109" s="102" t="s">
-        <v>549</v>
-      </c>
-      <c r="D109" s="103"/>
+        <v>434</v>
+      </c>
+      <c r="D109" s="103">
+        <v>8</v>
+      </c>
       <c r="E109" s="102" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="F109" s="79" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="64">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B110" s="102" t="s">
-        <v>518</v>
+        <v>831</v>
       </c>
       <c r="C110" s="102" t="s">
-        <v>436</v>
-      </c>
-      <c r="D110" s="103"/>
+        <v>434</v>
+      </c>
+      <c r="D110" s="103">
+        <v>8</v>
+      </c>
       <c r="E110" s="102" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="F110" s="79" t="s">
-        <v>440</v>
+        <v>720</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="64">
+        <v>4</v>
+      </c>
+      <c r="B111" s="102" t="s">
+        <v>830</v>
+      </c>
+      <c r="C111" s="102" t="s">
+        <v>434</v>
+      </c>
+      <c r="D111" s="103">
+        <v>8</v>
+      </c>
+      <c r="E111" s="102" t="s">
+        <v>452</v>
+      </c>
+      <c r="F111" s="79" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="64">
+        <v>5</v>
+      </c>
+      <c r="B112" s="102" t="s">
+        <v>719</v>
+      </c>
+      <c r="C112" s="102" t="s">
+        <v>549</v>
+      </c>
+      <c r="D112" s="103"/>
+      <c r="E112" s="102" t="s">
+        <v>452</v>
+      </c>
+      <c r="F112" s="79" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="64">
+        <v>6</v>
+      </c>
+      <c r="B113" s="102" t="s">
+        <v>518</v>
+      </c>
+      <c r="C113" s="102" t="s">
+        <v>436</v>
+      </c>
+      <c r="D113" s="103"/>
+      <c r="E113" s="102" t="s">
+        <v>435</v>
+      </c>
+      <c r="F113" s="79" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="64">
         <v>7</v>
       </c>
-      <c r="B111" s="96" t="s">
+      <c r="B114" s="96" t="s">
         <v>519</v>
       </c>
-      <c r="C111" s="96" t="s">
+      <c r="C114" s="96" t="s">
         <v>436</v>
       </c>
-      <c r="D111" s="97"/>
-      <c r="E111" s="96" t="s">
+      <c r="D114" s="97"/>
+      <c r="E114" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="F111" s="78" t="s">
+      <c r="F114" s="78" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="57" t="s">
+    <row r="115" spans="1:6">
+      <c r="A115" s="57" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="57"/>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="57" t="s">
+    <row r="116" spans="1:6">
+      <c r="A116" s="57"/>
+    </row>
+    <row r="117" spans="1:6" s="11" customFormat="1">
+      <c r="A117" s="104" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="53" t="s">
+      <c r="D117" s="105"/>
+      <c r="F117" s="106"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="53" t="s">
+      <c r="B118" s="53" t="s">
         <v>429</v>
       </c>
-      <c r="C115" s="53" t="s">
+      <c r="C118" s="53" t="s">
         <v>430</v>
       </c>
-      <c r="D115" s="53" t="s">
+      <c r="D118" s="53" t="s">
         <v>496</v>
       </c>
-      <c r="E115" s="54" t="s">
+      <c r="E118" s="54" t="s">
         <v>431</v>
       </c>
-      <c r="F115" s="55" t="s">
+      <c r="F118" s="55" t="s">
         <v>428</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="95">
-        <v>1</v>
-      </c>
-      <c r="B116" s="96" t="s">
-        <v>432</v>
-      </c>
-      <c r="C116" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D116" s="97">
-        <v>8</v>
-      </c>
-      <c r="E116" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F116" s="78" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="95">
-        <v>2</v>
-      </c>
-      <c r="B117" s="96" t="s">
-        <v>830</v>
-      </c>
-      <c r="C117" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D117" s="97">
-        <v>8</v>
-      </c>
-      <c r="E117" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F117" s="78" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="95">
-        <v>3</v>
-      </c>
-      <c r="B118" s="96" t="s">
-        <v>575</v>
-      </c>
-      <c r="C118" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D118" s="97">
-        <v>8</v>
-      </c>
-      <c r="E118" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F118" s="79" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B119" s="96" t="s">
-        <v>447</v>
-      </c>
-      <c r="C119" s="99" t="s">
-        <v>488</v>
-      </c>
-      <c r="D119" s="100">
-        <v>50</v>
+        <v>432</v>
+      </c>
+      <c r="C119" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D119" s="97">
+        <v>8</v>
       </c>
       <c r="E119" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F119" s="78" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="95">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B120" s="96" t="s">
-        <v>505</v>
-      </c>
-      <c r="C120" s="99" t="s">
-        <v>488</v>
-      </c>
-      <c r="D120" s="100">
-        <v>255</v>
+        <v>829</v>
+      </c>
+      <c r="C120" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D120" s="97">
+        <v>8</v>
       </c>
       <c r="E120" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F120" s="78" t="s">
-        <v>506</v>
+        <v>720</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="95">
-        <v>6</v>
-      </c>
-      <c r="B121" s="99" t="s">
-        <v>460</v>
-      </c>
-      <c r="C121" s="99" t="s">
-        <v>438</v>
-      </c>
-      <c r="D121" s="100">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B121" s="96" t="s">
+        <v>575</v>
+      </c>
+      <c r="C121" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D121" s="97">
+        <v>8</v>
       </c>
       <c r="E121" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F121" s="101" t="s">
-        <v>511</v>
+      <c r="F121" s="79" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="95">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B122" s="96" t="s">
-        <v>518</v>
-      </c>
-      <c r="C122" s="96" t="s">
-        <v>436</v>
-      </c>
-      <c r="D122" s="97"/>
+        <v>447</v>
+      </c>
+      <c r="C122" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="D122" s="100">
+        <v>50</v>
+      </c>
       <c r="E122" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F122" s="78" t="s">
-        <v>440</v>
+        <v>504</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="95">
+        <v>5</v>
+      </c>
+      <c r="B123" s="96" t="s">
+        <v>505</v>
+      </c>
+      <c r="C123" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="D123" s="100">
+        <v>255</v>
+      </c>
+      <c r="E123" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F123" s="78" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="95">
+        <v>6</v>
+      </c>
+      <c r="B124" s="99" t="s">
+        <v>460</v>
+      </c>
+      <c r="C124" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D124" s="100">
+        <v>2</v>
+      </c>
+      <c r="E124" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F124" s="101" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="95">
+        <v>7</v>
+      </c>
+      <c r="B125" s="96" t="s">
+        <v>518</v>
+      </c>
+      <c r="C125" s="96" t="s">
+        <v>436</v>
+      </c>
+      <c r="D125" s="97"/>
+      <c r="E125" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F125" s="78" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="95">
         <v>8</v>
       </c>
-      <c r="B123" s="96" t="s">
+      <c r="B126" s="96" t="s">
         <v>519</v>
       </c>
-      <c r="C123" s="96" t="s">
+      <c r="C126" s="96" t="s">
         <v>436</v>
       </c>
-      <c r="D123" s="97"/>
-      <c r="E123" s="96" t="s">
+      <c r="D126" s="97"/>
+      <c r="E126" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="F123" s="78" t="s">
+      <c r="F126" s="78" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="57" t="s">
+    <row r="127" spans="1:6">
+      <c r="A127" s="57" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="57" t="s">
+    <row r="129" spans="1:6" s="11" customFormat="1">
+      <c r="A129" s="104" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="53" t="s">
+      <c r="D129" s="105"/>
+      <c r="F129" s="106"/>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B127" s="53" t="s">
+      <c r="B130" s="53" t="s">
         <v>429</v>
       </c>
-      <c r="C127" s="53" t="s">
+      <c r="C130" s="53" t="s">
         <v>430</v>
       </c>
-      <c r="D127" s="53" t="s">
+      <c r="D130" s="53" t="s">
         <v>496</v>
       </c>
-      <c r="E127" s="54" t="s">
+      <c r="E130" s="54" t="s">
         <v>431</v>
       </c>
-      <c r="F127" s="55" t="s">
+      <c r="F130" s="55" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="95">
+    <row r="131" spans="1:6">
+      <c r="A131" s="95">
         <v>1</v>
       </c>
-      <c r="B128" s="96" t="s">
+      <c r="B131" s="96" t="s">
         <v>432</v>
       </c>
-      <c r="C128" s="96" t="s">
+      <c r="C131" s="96" t="s">
         <v>434</v>
       </c>
-      <c r="D128" s="97">
+      <c r="D131" s="97">
         <v>8</v>
-      </c>
-      <c r="E128" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F128" s="78" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="98">
-        <v>2</v>
-      </c>
-      <c r="B129" s="96" t="s">
-        <v>830</v>
-      </c>
-      <c r="C129" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D129" s="97">
-        <v>8</v>
-      </c>
-      <c r="E129" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F129" s="78" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="95">
-        <v>3</v>
-      </c>
-      <c r="B130" s="96" t="s">
-        <v>509</v>
-      </c>
-      <c r="C130" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D130" s="97">
-        <v>8</v>
-      </c>
-      <c r="E130" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F130" s="78" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="98">
-        <v>4</v>
-      </c>
-      <c r="B131" s="96" t="s">
-        <v>447</v>
-      </c>
-      <c r="C131" s="99" t="s">
-        <v>488</v>
-      </c>
-      <c r="D131" s="100">
-        <v>50</v>
       </c>
       <c r="E131" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F131" s="78" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="64">
-        <v>5</v>
+      <c r="A132" s="98">
+        <v>2</v>
       </c>
       <c r="B132" s="96" t="s">
-        <v>617</v>
+        <v>829</v>
       </c>
       <c r="C132" s="96" t="s">
         <v>434</v>
@@ -29294,36 +29309,36 @@
       <c r="E132" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F132" s="79" t="s">
-        <v>634</v>
+      <c r="F132" s="78" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="95">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B133" s="96" t="s">
-        <v>618</v>
-      </c>
-      <c r="C133" s="99" t="s">
-        <v>488</v>
-      </c>
-      <c r="D133" s="100">
-        <v>50</v>
+        <v>509</v>
+      </c>
+      <c r="C133" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D133" s="97">
+        <v>8</v>
       </c>
       <c r="E133" s="96" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="F133" s="78" t="s">
-        <v>635</v>
+        <v>523</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="98">
-        <v>7</v>
-      </c>
-      <c r="B134" s="99" t="s">
-        <v>539</v>
+        <v>4</v>
+      </c>
+      <c r="B134" s="96" t="s">
+        <v>447</v>
       </c>
       <c r="C134" s="99" t="s">
         <v>488</v>
@@ -29335,244 +29350,243 @@
         <v>435</v>
       </c>
       <c r="F134" s="78" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="95">
+      <c r="A135" s="64">
+        <v>5</v>
+      </c>
+      <c r="B135" s="96" t="s">
+        <v>617</v>
+      </c>
+      <c r="C135" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D135" s="97">
         <v>8</v>
-      </c>
-      <c r="B135" s="96" t="s">
-        <v>464</v>
-      </c>
-      <c r="C135" s="99" t="s">
-        <v>488</v>
-      </c>
-      <c r="D135" s="100">
-        <v>255</v>
       </c>
       <c r="E135" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F135" s="78" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="31.5">
-      <c r="A136" s="98">
-        <v>9</v>
-      </c>
-      <c r="B136" s="99" t="s">
-        <v>658</v>
+      <c r="F135" s="79" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="95">
+        <v>6</v>
+      </c>
+      <c r="B136" s="96" t="s">
+        <v>618</v>
       </c>
       <c r="C136" s="99" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="D136" s="100">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E136" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F136" s="101" t="s">
-        <v>659</v>
+        <v>452</v>
+      </c>
+      <c r="F136" s="78" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="95">
-        <v>10</v>
-      </c>
-      <c r="B137" s="102" t="s">
-        <v>657</v>
+      <c r="A137" s="98">
+        <v>7</v>
+      </c>
+      <c r="B137" s="99" t="s">
+        <v>539</v>
       </c>
       <c r="C137" s="99" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="D137" s="100">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E137" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F137" s="79" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="31.5">
-      <c r="A138" s="98">
-        <v>11</v>
-      </c>
-      <c r="B138" s="99" t="s">
-        <v>515</v>
+      <c r="F137" s="78" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="95">
+        <v>8</v>
+      </c>
+      <c r="B138" s="96" t="s">
+        <v>464</v>
       </c>
       <c r="C138" s="99" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="D138" s="100">
-        <v>2</v>
+        <v>255</v>
       </c>
       <c r="E138" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F138" s="101" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="47.25">
-      <c r="A139" s="95">
-        <v>12</v>
+      <c r="F138" s="78" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="31.5">
+      <c r="A139" s="98">
+        <v>9</v>
       </c>
       <c r="B139" s="99" t="s">
-        <v>460</v>
+        <v>657</v>
       </c>
       <c r="C139" s="99" t="s">
         <v>438</v>
       </c>
       <c r="D139" s="100">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E139" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F139" s="101" t="s">
-        <v>824</v>
+        <v>658</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="98">
-        <v>13</v>
-      </c>
-      <c r="B140" s="96" t="s">
-        <v>518</v>
-      </c>
-      <c r="C140" s="96" t="s">
-        <v>436</v>
-      </c>
-      <c r="D140" s="97"/>
+      <c r="A140" s="95">
+        <v>10</v>
+      </c>
+      <c r="B140" s="102" t="s">
+        <v>656</v>
+      </c>
+      <c r="C140" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D140" s="100">
+        <v>2</v>
+      </c>
       <c r="E140" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F140" s="78" t="s">
+      <c r="F140" s="79" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="31.5">
+      <c r="A141" s="98">
+        <v>11</v>
+      </c>
+      <c r="B141" s="99" t="s">
+        <v>515</v>
+      </c>
+      <c r="C141" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D141" s="100">
+        <v>2</v>
+      </c>
+      <c r="E141" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F141" s="101" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="47.25">
+      <c r="A142" s="95">
+        <v>12</v>
+      </c>
+      <c r="B142" s="99" t="s">
+        <v>460</v>
+      </c>
+      <c r="C142" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D142" s="100">
+        <v>2</v>
+      </c>
+      <c r="E142" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F142" s="101" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="98">
+        <v>13</v>
+      </c>
+      <c r="B143" s="96" t="s">
+        <v>518</v>
+      </c>
+      <c r="C143" s="96" t="s">
+        <v>436</v>
+      </c>
+      <c r="D143" s="97"/>
+      <c r="E143" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F143" s="78" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="95">
+    <row r="144" spans="1:6">
+      <c r="A144" s="95">
         <v>14</v>
       </c>
-      <c r="B141" s="96" t="s">
+      <c r="B144" s="96" t="s">
         <v>519</v>
       </c>
-      <c r="C141" s="96" t="s">
+      <c r="C144" s="96" t="s">
         <v>436</v>
       </c>
-      <c r="D141" s="97"/>
-      <c r="E141" s="96" t="s">
+      <c r="D144" s="97"/>
+      <c r="E144" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="F141" s="78" t="s">
+      <c r="F144" s="78" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="57" t="s">
+    <row r="145" spans="1:7">
+      <c r="A145" s="57" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="57" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="53" t="s">
+    <row r="147" spans="1:7" s="11" customFormat="1">
+      <c r="A147" s="104" t="s">
+        <v>772</v>
+      </c>
+      <c r="D147" s="105"/>
+      <c r="F147" s="106"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B145" s="53" t="s">
+      <c r="B148" s="53" t="s">
         <v>429</v>
       </c>
-      <c r="C145" s="53" t="s">
+      <c r="C148" s="53" t="s">
         <v>430</v>
       </c>
-      <c r="D145" s="53" t="s">
+      <c r="D148" s="53" t="s">
         <v>496</v>
       </c>
-      <c r="E145" s="54" t="s">
+      <c r="E148" s="54" t="s">
         <v>431</v>
       </c>
-      <c r="F145" s="55" t="s">
+      <c r="F148" s="55" t="s">
         <v>428</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="95">
-        <v>1</v>
-      </c>
-      <c r="B146" s="96" t="s">
-        <v>432</v>
-      </c>
-      <c r="C146" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D146" s="97">
-        <v>8</v>
-      </c>
-      <c r="E146" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F146" s="78" t="s">
-        <v>527</v>
-      </c>
-      <c r="G146" s="56" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="95">
-        <v>2</v>
-      </c>
-      <c r="B147" s="96" t="s">
-        <v>830</v>
-      </c>
-      <c r="C147" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D147" s="97">
-        <v>8</v>
-      </c>
-      <c r="E147" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F147" s="78" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" hidden="1">
-      <c r="A148" s="95">
-        <v>3</v>
-      </c>
-      <c r="B148" s="96" t="s">
-        <v>514</v>
-      </c>
-      <c r="C148" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D148" s="97">
-        <v>8</v>
-      </c>
-      <c r="E148" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F148" s="78" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B149" s="96" t="s">
-        <v>774</v>
+        <v>432</v>
       </c>
       <c r="C149" s="96" t="s">
         <v>434</v>
@@ -29584,15 +29598,18 @@
         <v>435</v>
       </c>
       <c r="F149" s="78" t="s">
-        <v>790</v>
+        <v>527</v>
+      </c>
+      <c r="G149" s="56" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="95">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B150" s="96" t="s">
-        <v>775</v>
+        <v>829</v>
       </c>
       <c r="C150" s="96" t="s">
         <v>434</v>
@@ -29604,204 +29621,203 @@
         <v>435</v>
       </c>
       <c r="F150" s="78" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" hidden="1">
       <c r="A151" s="95">
-        <v>6</v>
-      </c>
-      <c r="B151" s="102" t="s">
-        <v>776</v>
-      </c>
-      <c r="C151" s="99" t="s">
-        <v>572</v>
-      </c>
-      <c r="D151" s="100"/>
+        <v>3</v>
+      </c>
+      <c r="B151" s="96" t="s">
+        <v>514</v>
+      </c>
+      <c r="C151" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D151" s="97">
+        <v>8</v>
+      </c>
       <c r="E151" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F151" s="78" t="s">
-        <v>791</v>
+        <v>524</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="95">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B152" s="96" t="s">
-        <v>550</v>
+        <v>773</v>
       </c>
       <c r="C152" s="96" t="s">
-        <v>581</v>
+        <v>434</v>
       </c>
       <c r="D152" s="97">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E152" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F152" s="78" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="95">
+        <v>5</v>
+      </c>
+      <c r="B153" s="96" t="s">
+        <v>774</v>
+      </c>
+      <c r="C153" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D153" s="97">
         <v>8</v>
-      </c>
-      <c r="B153" s="102" t="s">
-        <v>613</v>
-      </c>
-      <c r="C153" s="99" t="s">
-        <v>488</v>
-      </c>
-      <c r="D153" s="100">
-        <v>10</v>
       </c>
       <c r="E153" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F153" s="79" t="s">
-        <v>771</v>
+      <c r="F153" s="78" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="95">
-        <v>9</v>
-      </c>
-      <c r="B154" s="96" t="s">
-        <v>532</v>
-      </c>
-      <c r="C154" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D154" s="97">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B154" s="102" t="s">
+        <v>775</v>
+      </c>
+      <c r="C154" s="99" t="s">
+        <v>572</v>
+      </c>
+      <c r="D154" s="100"/>
       <c r="E154" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F154" s="78" t="s">
-        <v>534</v>
+        <v>790</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="95">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B155" s="96" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="C155" s="96" t="s">
-        <v>436</v>
-      </c>
-      <c r="D155" s="97"/>
+        <v>581</v>
+      </c>
+      <c r="D155" s="97">
+        <v>2</v>
+      </c>
       <c r="E155" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F155" s="78" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="95">
+        <v>8</v>
+      </c>
+      <c r="B156" s="102" t="s">
+        <v>613</v>
+      </c>
+      <c r="C156" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="D156" s="100">
+        <v>10</v>
+      </c>
+      <c r="E156" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F156" s="79" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="95">
+        <v>9</v>
+      </c>
+      <c r="B157" s="96" t="s">
+        <v>532</v>
+      </c>
+      <c r="C157" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D157" s="97">
+        <v>8</v>
+      </c>
+      <c r="E157" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F157" s="78" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="95">
+        <v>10</v>
+      </c>
+      <c r="B158" s="96" t="s">
+        <v>518</v>
+      </c>
+      <c r="C158" s="96" t="s">
+        <v>436</v>
+      </c>
+      <c r="D158" s="97"/>
+      <c r="E158" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F158" s="78" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="57" t="s">
+    <row r="159" spans="1:7">
+      <c r="A159" s="57" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="57" t="s">
+    <row r="161" spans="1:7" s="11" customFormat="1">
+      <c r="A161" s="104" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="53" t="s">
+      <c r="D161" s="105"/>
+      <c r="F161" s="106"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B159" s="53" t="s">
+      <c r="B162" s="53" t="s">
         <v>429</v>
       </c>
-      <c r="C159" s="53" t="s">
+      <c r="C162" s="53" t="s">
         <v>430</v>
       </c>
-      <c r="D159" s="53" t="s">
+      <c r="D162" s="53" t="s">
         <v>496</v>
       </c>
-      <c r="E159" s="54" t="s">
+      <c r="E162" s="54" t="s">
         <v>431</v>
       </c>
-      <c r="F159" s="55" t="s">
+      <c r="F162" s="55" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="95">
+    <row r="163" spans="1:7">
+      <c r="A163" s="95">
         <v>1</v>
       </c>
-      <c r="B160" s="96" t="s">
+      <c r="B163" s="96" t="s">
         <v>432</v>
-      </c>
-      <c r="C160" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D160" s="97">
-        <v>8</v>
-      </c>
-      <c r="E160" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F160" s="78" t="s">
-        <v>527</v>
-      </c>
-      <c r="G160" s="56" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="64">
-        <v>6</v>
-      </c>
-      <c r="B161" s="96" t="s">
-        <v>831</v>
-      </c>
-      <c r="C161" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D161" s="97">
-        <v>8</v>
-      </c>
-      <c r="E161" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F161" s="78" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="64">
-        <v>2</v>
-      </c>
-      <c r="B162" s="102" t="s">
-        <v>777</v>
-      </c>
-      <c r="C162" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D162" s="97">
-        <v>8</v>
-      </c>
-      <c r="E162" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F162" s="79" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="95">
-        <v>3</v>
-      </c>
-      <c r="B163" s="96" t="s">
-        <v>617</v>
       </c>
       <c r="C163" s="96" t="s">
         <v>434</v>
@@ -29812,36 +29828,39 @@
       <c r="E163" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F163" s="79" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="F163" s="78" t="s">
+        <v>527</v>
+      </c>
+      <c r="G163" s="56" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="64">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B164" s="96" t="s">
-        <v>618</v>
-      </c>
-      <c r="C164" s="99" t="s">
-        <v>488</v>
-      </c>
-      <c r="D164" s="100">
-        <v>50</v>
+        <v>830</v>
+      </c>
+      <c r="C164" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D164" s="97">
+        <v>8</v>
       </c>
       <c r="E164" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F164" s="78" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="95">
-        <v>5</v>
-      </c>
-      <c r="B165" s="96" t="s">
-        <v>832</v>
+        <v>721</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="64">
+        <v>2</v>
+      </c>
+      <c r="B165" s="102" t="s">
+        <v>776</v>
       </c>
       <c r="C165" s="96" t="s">
         <v>434</v>
@@ -29850,56 +29869,58 @@
         <v>8</v>
       </c>
       <c r="E165" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="F165" s="78" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="64">
-        <v>6</v>
-      </c>
-      <c r="B166" s="102" t="s">
-        <v>782</v>
+        <v>435</v>
+      </c>
+      <c r="F165" s="79" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="95">
+        <v>3</v>
+      </c>
+      <c r="B166" s="96" t="s">
+        <v>617</v>
       </c>
       <c r="C166" s="96" t="s">
         <v>434</v>
       </c>
-      <c r="D166" s="103"/>
-      <c r="E166" s="102" t="s">
-        <v>452</v>
+      <c r="D166" s="97">
+        <v>8</v>
+      </c>
+      <c r="E166" s="96" t="s">
+        <v>435</v>
       </c>
       <c r="F166" s="79" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" s="64">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B167" s="96" t="s">
-        <v>528</v>
-      </c>
-      <c r="C167" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D167" s="97">
-        <v>8</v>
+        <v>618</v>
+      </c>
+      <c r="C167" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="D167" s="100">
+        <v>50</v>
       </c>
       <c r="E167" s="96" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="F167" s="78" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" s="95">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B168" s="96" t="s">
-        <v>529</v>
+        <v>831</v>
       </c>
       <c r="C168" s="96" t="s">
         <v>434</v>
@@ -29911,75 +29932,73 @@
         <v>452</v>
       </c>
       <c r="F168" s="78" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" s="64">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B169" s="102" t="s">
-        <v>501</v>
+        <v>781</v>
       </c>
       <c r="C169" s="96" t="s">
         <v>434</v>
       </c>
-      <c r="D169" s="97">
+      <c r="D169" s="103"/>
+      <c r="E169" s="102" t="s">
+        <v>452</v>
+      </c>
+      <c r="F169" s="79" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="64">
         <v>8</v>
       </c>
-      <c r="E169" s="96" t="s">
+      <c r="B170" s="96" t="s">
+        <v>528</v>
+      </c>
+      <c r="C170" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D170" s="97">
+        <v>8</v>
+      </c>
+      <c r="E170" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="F169" s="79" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="95">
-        <v>11</v>
-      </c>
-      <c r="B170" s="96" t="s">
-        <v>550</v>
-      </c>
-      <c r="C170" s="96" t="s">
-        <v>581</v>
-      </c>
-      <c r="D170" s="97">
-        <v>2</v>
-      </c>
-      <c r="E170" s="96" t="s">
-        <v>435</v>
-      </c>
       <c r="F170" s="78" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="64">
-        <v>12</v>
-      </c>
-      <c r="B171" s="102" t="s">
-        <v>613</v>
-      </c>
-      <c r="C171" s="99" t="s">
-        <v>488</v>
-      </c>
-      <c r="D171" s="100">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="95">
+        <v>9</v>
+      </c>
+      <c r="B171" s="96" t="s">
+        <v>529</v>
+      </c>
+      <c r="C171" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D171" s="97">
+        <v>8</v>
+      </c>
+      <c r="E171" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="F171" s="78" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="64">
         <v>10</v>
       </c>
-      <c r="E171" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F171" s="79" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172" s="95">
-        <v>13</v>
-      </c>
-      <c r="B172" s="96" t="s">
-        <v>532</v>
+      <c r="B172" s="102" t="s">
+        <v>501</v>
       </c>
       <c r="C172" s="96" t="s">
         <v>434</v>
@@ -29988,126 +30007,128 @@
         <v>8</v>
       </c>
       <c r="E172" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F172" s="78" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="64">
-        <v>14</v>
+        <v>452</v>
+      </c>
+      <c r="F172" s="79" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="95">
+        <v>11</v>
       </c>
       <c r="B173" s="96" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="C173" s="96" t="s">
-        <v>436</v>
-      </c>
-      <c r="D173" s="97"/>
+        <v>581</v>
+      </c>
+      <c r="D173" s="97">
+        <v>2</v>
+      </c>
       <c r="E173" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F173" s="78" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="64">
+        <v>12</v>
+      </c>
+      <c r="B174" s="102" t="s">
+        <v>613</v>
+      </c>
+      <c r="C174" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="D174" s="100">
+        <v>10</v>
+      </c>
+      <c r="E174" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F174" s="79" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="95">
+        <v>13</v>
+      </c>
+      <c r="B175" s="96" t="s">
+        <v>532</v>
+      </c>
+      <c r="C175" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D175" s="97">
+        <v>8</v>
+      </c>
+      <c r="E175" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F175" s="78" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="64">
+        <v>14</v>
+      </c>
+      <c r="B176" s="96" t="s">
+        <v>518</v>
+      </c>
+      <c r="C176" s="96" t="s">
+        <v>436</v>
+      </c>
+      <c r="D176" s="97"/>
+      <c r="E176" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F176" s="78" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
-      <c r="A174" s="57" t="s">
+    <row r="177" spans="1:6">
+      <c r="A177" s="57" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
-      <c r="A176" s="57" t="s">
+    <row r="179" spans="1:6" s="11" customFormat="1">
+      <c r="A179" s="104" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="53" t="s">
+      <c r="D179" s="105"/>
+      <c r="F179" s="106"/>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B177" s="53" t="s">
+      <c r="B180" s="53" t="s">
         <v>429</v>
       </c>
-      <c r="C177" s="53" t="s">
+      <c r="C180" s="53" t="s">
         <v>430</v>
       </c>
-      <c r="D177" s="53" t="s">
+      <c r="D180" s="53" t="s">
         <v>496</v>
       </c>
-      <c r="E177" s="54" t="s">
+      <c r="E180" s="54" t="s">
         <v>431</v>
       </c>
-      <c r="F177" s="55" t="s">
+      <c r="F180" s="55" t="s">
         <v>428</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="95">
-        <v>1</v>
-      </c>
-      <c r="B178" s="96" t="s">
-        <v>432</v>
-      </c>
-      <c r="C178" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D178" s="97">
-        <v>8</v>
-      </c>
-      <c r="E178" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F178" s="78" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="95">
-        <v>2</v>
-      </c>
-      <c r="B179" s="96" t="s">
-        <v>538</v>
-      </c>
-      <c r="C179" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D179" s="97">
-        <v>8</v>
-      </c>
-      <c r="E179" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="F179" s="78" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180" s="95">
-        <v>3</v>
-      </c>
-      <c r="B180" s="102" t="s">
-        <v>777</v>
-      </c>
-      <c r="C180" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D180" s="97">
-        <v>8</v>
-      </c>
-      <c r="E180" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="F180" s="79" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B181" s="96" t="s">
-        <v>831</v>
+        <v>432</v>
       </c>
       <c r="C181" s="96" t="s">
         <v>434</v>
@@ -30119,15 +30140,15 @@
         <v>435</v>
       </c>
       <c r="F181" s="78" t="s">
-        <v>721</v>
+        <v>508</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="95">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B182" s="96" t="s">
-        <v>617</v>
+        <v>538</v>
       </c>
       <c r="C182" s="96" t="s">
         <v>434</v>
@@ -30136,18 +30157,18 @@
         <v>8</v>
       </c>
       <c r="E182" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F182" s="79" t="s">
-        <v>634</v>
+        <v>452</v>
+      </c>
+      <c r="F182" s="78" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="95">
-        <v>6</v>
-      </c>
-      <c r="B183" s="96" t="s">
-        <v>832</v>
+        <v>3</v>
+      </c>
+      <c r="B183" s="102" t="s">
+        <v>776</v>
       </c>
       <c r="C183" s="96" t="s">
         <v>434</v>
@@ -30158,16 +30179,16 @@
       <c r="E183" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="F183" s="78" t="s">
-        <v>722</v>
+      <c r="F183" s="79" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="95">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B184" s="96" t="s">
-        <v>509</v>
+        <v>830</v>
       </c>
       <c r="C184" s="96" t="s">
         <v>434</v>
@@ -30176,18 +30197,18 @@
         <v>8</v>
       </c>
       <c r="E184" s="96" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="F184" s="78" t="s">
-        <v>523</v>
+        <v>720</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="95">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B185" s="96" t="s">
-        <v>514</v>
+        <v>617</v>
       </c>
       <c r="C185" s="96" t="s">
         <v>434</v>
@@ -30196,178 +30217,178 @@
         <v>8</v>
       </c>
       <c r="E185" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="F185" s="78" t="s">
-        <v>524</v>
+        <v>435</v>
+      </c>
+      <c r="F185" s="79" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="95">
-        <v>9</v>
-      </c>
-      <c r="B186" s="99" t="s">
-        <v>787</v>
-      </c>
-      <c r="C186" s="99" t="s">
-        <v>488</v>
-      </c>
-      <c r="D186" s="100">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="B186" s="96" t="s">
+        <v>831</v>
+      </c>
+      <c r="C186" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D186" s="97">
+        <v>8</v>
       </c>
       <c r="E186" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="F186" s="101" t="s">
-        <v>784</v>
+      <c r="F186" s="78" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="95">
-        <v>12</v>
-      </c>
-      <c r="B187" s="99" t="s">
-        <v>788</v>
-      </c>
-      <c r="C187" s="99" t="s">
-        <v>488</v>
-      </c>
-      <c r="D187" s="100">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="B187" s="96" t="s">
+        <v>509</v>
+      </c>
+      <c r="C187" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D187" s="97">
+        <v>8</v>
       </c>
       <c r="E187" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F187" s="101" t="s">
-        <v>785</v>
+        <v>452</v>
+      </c>
+      <c r="F187" s="78" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="95">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B188" s="96" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="C188" s="96" t="s">
-        <v>581</v>
+        <v>434</v>
       </c>
       <c r="D188" s="97">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E188" s="96" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="F188" s="78" t="s">
-        <v>614</v>
+        <v>524</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="95">
-        <v>11</v>
-      </c>
-      <c r="B189" s="102" t="s">
-        <v>613</v>
+        <v>9</v>
+      </c>
+      <c r="B189" s="99" t="s">
+        <v>786</v>
       </c>
       <c r="C189" s="99" t="s">
         <v>488</v>
       </c>
       <c r="D189" s="100">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E189" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F189" s="79" t="s">
-        <v>615</v>
+        <v>452</v>
+      </c>
+      <c r="F189" s="101" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="95">
-        <v>13</v>
-      </c>
-      <c r="B190" s="96" t="s">
-        <v>464</v>
+        <v>12</v>
+      </c>
+      <c r="B190" s="99" t="s">
+        <v>787</v>
       </c>
       <c r="C190" s="99" t="s">
         <v>488</v>
       </c>
       <c r="D190" s="100">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="E190" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="F190" s="78" t="s">
-        <v>537</v>
+        <v>435</v>
+      </c>
+      <c r="F190" s="101" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="95">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B191" s="96" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="C191" s="96" t="s">
-        <v>434</v>
+        <v>581</v>
       </c>
       <c r="D191" s="97">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E191" s="96" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="F191" s="78" t="s">
-        <v>544</v>
+        <v>614</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="95">
-        <v>15</v>
-      </c>
-      <c r="B192" s="96" t="s">
-        <v>543</v>
-      </c>
-      <c r="C192" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D192" s="97">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="B192" s="102" t="s">
+        <v>613</v>
+      </c>
+      <c r="C192" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="D192" s="100">
+        <v>10</v>
       </c>
       <c r="E192" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="F192" s="78" t="s">
-        <v>463</v>
+        <v>435</v>
+      </c>
+      <c r="F192" s="79" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="95">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B193" s="96" t="s">
-        <v>454</v>
-      </c>
-      <c r="C193" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D193" s="97">
-        <v>8</v>
+        <v>464</v>
+      </c>
+      <c r="C193" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="D193" s="100">
+        <v>160</v>
       </c>
       <c r="E193" s="96" t="s">
         <v>452</v>
       </c>
       <c r="F193" s="78" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="95">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B194" s="96" t="s">
-        <v>453</v>
+        <v>542</v>
       </c>
       <c r="C194" s="96" t="s">
         <v>434</v>
@@ -30379,15 +30400,15 @@
         <v>452</v>
       </c>
       <c r="F194" s="78" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="95">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B195" s="96" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="C195" s="96" t="s">
         <v>434</v>
@@ -30399,18 +30420,18 @@
         <v>452</v>
       </c>
       <c r="F195" s="78" t="s">
-        <v>535</v>
+        <v>463</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="95">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B196" s="96" t="s">
-        <v>804</v>
+        <v>454</v>
       </c>
       <c r="C196" s="96" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D196" s="97">
         <v>8</v>
@@ -30419,123 +30440,125 @@
         <v>452</v>
       </c>
       <c r="F196" s="78" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="95">
+        <v>17</v>
+      </c>
+      <c r="B197" s="96" t="s">
+        <v>453</v>
+      </c>
+      <c r="C197" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D197" s="97">
+        <v>8</v>
+      </c>
+      <c r="E197" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="F197" s="78" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="95">
+        <v>18</v>
+      </c>
+      <c r="B198" s="96" t="s">
+        <v>532</v>
+      </c>
+      <c r="C198" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D198" s="97">
+        <v>8</v>
+      </c>
+      <c r="E198" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="F198" s="78" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="95">
+        <v>19</v>
+      </c>
+      <c r="B199" s="96" t="s">
+        <v>803</v>
+      </c>
+      <c r="C199" s="96" t="s">
+        <v>436</v>
+      </c>
+      <c r="D199" s="97">
+        <v>8</v>
+      </c>
+      <c r="E199" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="F199" s="78" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="95">
         <v>20</v>
       </c>
-      <c r="B197" s="96" t="s">
+      <c r="B200" s="96" t="s">
         <v>518</v>
       </c>
-      <c r="C197" s="96" t="s">
+      <c r="C200" s="96" t="s">
         <v>436</v>
       </c>
-      <c r="D197" s="97"/>
-      <c r="E197" s="96" t="s">
+      <c r="D200" s="97"/>
+      <c r="E200" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F197" s="78" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198" s="57" t="s">
+      <c r="F200" s="78" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="57" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
-      <c r="A200" s="57" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201" s="53" t="s">
+    <row r="203" spans="1:6" s="11" customFormat="1">
+      <c r="A203" s="104" t="s">
+        <v>757</v>
+      </c>
+      <c r="D203" s="105"/>
+      <c r="F203" s="106"/>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B201" s="53" t="s">
+      <c r="B204" s="53" t="s">
         <v>429</v>
       </c>
-      <c r="C201" s="53" t="s">
+      <c r="C204" s="53" t="s">
         <v>430</v>
       </c>
-      <c r="D201" s="53" t="s">
+      <c r="D204" s="53" t="s">
         <v>496</v>
       </c>
-      <c r="E201" s="54" t="s">
+      <c r="E204" s="54" t="s">
         <v>431</v>
       </c>
-      <c r="F201" s="55" t="s">
+      <c r="F204" s="55" t="s">
         <v>428</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202" s="95">
-        <v>1</v>
-      </c>
-      <c r="B202" s="96" t="s">
-        <v>432</v>
-      </c>
-      <c r="C202" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D202" s="97">
-        <v>8</v>
-      </c>
-      <c r="E202" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F202" s="78" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203" s="95">
-        <v>2</v>
-      </c>
-      <c r="B203" s="96" t="s">
-        <v>831</v>
-      </c>
-      <c r="C203" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D203" s="97">
-        <v>8</v>
-      </c>
-      <c r="E203" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F203" s="78" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204" s="95">
-        <v>3</v>
-      </c>
-      <c r="B204" s="96" t="s">
-        <v>832</v>
-      </c>
-      <c r="C204" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D204" s="97">
-        <v>8</v>
-      </c>
-      <c r="E204" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F204" s="78" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B205" s="96" t="s">
-        <v>617</v>
+        <v>432</v>
       </c>
       <c r="C205" s="96" t="s">
         <v>434</v>
@@ -30547,55 +30570,55 @@
         <v>435</v>
       </c>
       <c r="F205" s="78" t="s">
-        <v>762</v>
+        <v>785</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="95">
-        <v>5</v>
-      </c>
-      <c r="B206" s="99" t="s">
-        <v>657</v>
-      </c>
-      <c r="C206" s="99" t="s">
-        <v>488</v>
-      </c>
-      <c r="D206" s="100">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="B206" s="96" t="s">
+        <v>830</v>
+      </c>
+      <c r="C206" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D206" s="97">
+        <v>8</v>
       </c>
       <c r="E206" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F206" s="101" t="s">
-        <v>760</v>
+      <c r="F206" s="78" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="95">
-        <v>6</v>
-      </c>
-      <c r="B207" s="99" t="s">
-        <v>759</v>
-      </c>
-      <c r="C207" s="99" t="s">
-        <v>488</v>
-      </c>
-      <c r="D207" s="100">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="B207" s="96" t="s">
+        <v>831</v>
+      </c>
+      <c r="C207" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D207" s="97">
+        <v>8</v>
       </c>
       <c r="E207" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F207" s="101" t="s">
-        <v>761</v>
+      <c r="F207" s="78" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="95">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B208" s="96" t="s">
-        <v>542</v>
+        <v>617</v>
       </c>
       <c r="C208" s="96" t="s">
         <v>434</v>
@@ -30607,55 +30630,55 @@
         <v>435</v>
       </c>
       <c r="F208" s="78" t="s">
-        <v>544</v>
+        <v>761</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="95">
-        <v>8</v>
-      </c>
-      <c r="B209" s="96" t="s">
-        <v>543</v>
-      </c>
-      <c r="C209" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D209" s="97">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B209" s="99" t="s">
+        <v>656</v>
+      </c>
+      <c r="C209" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="D209" s="100">
+        <v>20</v>
       </c>
       <c r="E209" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F209" s="78" t="s">
-        <v>463</v>
+      <c r="F209" s="101" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="95">
-        <v>9</v>
-      </c>
-      <c r="B210" s="96" t="s">
-        <v>454</v>
-      </c>
-      <c r="C210" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D210" s="97">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B210" s="99" t="s">
+        <v>758</v>
+      </c>
+      <c r="C210" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="D210" s="100">
+        <v>20</v>
       </c>
       <c r="E210" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F210" s="78" t="s">
-        <v>545</v>
+      <c r="F210" s="101" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="95">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B211" s="96" t="s">
-        <v>453</v>
+        <v>542</v>
       </c>
       <c r="C211" s="96" t="s">
         <v>434</v>
@@ -30667,29 +30690,89 @@
         <v>435</v>
       </c>
       <c r="F211" s="78" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="95">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B212" s="96" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="C212" s="96" t="s">
-        <v>436</v>
-      </c>
-      <c r="D212" s="97"/>
+        <v>434</v>
+      </c>
+      <c r="D212" s="97">
+        <v>8</v>
+      </c>
       <c r="E212" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F212" s="78" t="s">
-        <v>763</v>
+        <v>463</v>
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="A213" s="57" t="s">
+      <c r="A213" s="95">
+        <v>9</v>
+      </c>
+      <c r="B213" s="96" t="s">
+        <v>454</v>
+      </c>
+      <c r="C213" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D213" s="97">
+        <v>8</v>
+      </c>
+      <c r="E213" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F213" s="78" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="95">
+        <v>10</v>
+      </c>
+      <c r="B214" s="96" t="s">
+        <v>453</v>
+      </c>
+      <c r="C214" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D214" s="97">
+        <v>8</v>
+      </c>
+      <c r="E214" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F214" s="78" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="95">
+        <v>11</v>
+      </c>
+      <c r="B215" s="96" t="s">
+        <v>518</v>
+      </c>
+      <c r="C215" s="96" t="s">
+        <v>436</v>
+      </c>
+      <c r="D215" s="97"/>
+      <c r="E215" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F215" s="78" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="57" t="s">
         <v>15</v>
       </c>
     </row>
@@ -30720,10 +30803,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -30736,7 +30819,7 @@
         <v>610</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -30749,7 +30832,7 @@
         <v>611</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -30762,7 +30845,7 @@
         <v>616</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -30775,7 +30858,7 @@
         <v>626</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -30788,7 +30871,7 @@
         <v>625</v>
       </c>
       <c r="C6" s="67" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -30801,7 +30884,7 @@
         <v>628</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -30814,7 +30897,7 @@
         <v>629</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -30824,10 +30907,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -30837,10 +30920,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -30850,10 +30933,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>

--- a/reque/SMS_Gateway_Requirements_20171115.xlsx
+++ b/reque/SMS_Gateway_Requirements_20171115.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="836">
   <si>
     <t>No.</t>
   </si>
@@ -2228,13 +2228,7 @@
     <t>Chi phí cho 1 tin cài đặt theo từng admin hoặc customer</t>
   </si>
   <si>
-    <t>TABLE "Manager_Setting"</t>
-  </si>
-  <si>
     <t>TABLE "User_Carrier_Setting"</t>
-  </si>
-  <si>
-    <t>TABLE "Customer_Setting"</t>
   </si>
   <si>
     <t>- Thêm mới tài khoản quản lý (SuperAdmin, Admin, Customer)</t>
@@ -2697,6 +2691,15 @@
   </si>
   <si>
     <t>type = 2</t>
+  </si>
+  <si>
+    <t>TABLE "web_user_setting"</t>
+  </si>
+  <si>
+    <t>TABLE "Customer_Setting"=&gt;không dùng</t>
+  </si>
+  <si>
+    <t>TABLE "Manager_Setting"=&gt; không dùng</t>
   </si>
 </sst>
 </file>
@@ -18423,40 +18426,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="259" fillId="3" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="259" fillId="3" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="3" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="96" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="259" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="259" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="96" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="0" borderId="96" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="96" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -23845,7 +23848,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1AB13FB-E9FE-4C12-86A9-7360E72E51C9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1AB13FB-E9FE-4C12-86A9-7360E72E51C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24183,25 +24186,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33.75" customHeight="1">
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="110" t="s">
         <v>483</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114" t="s">
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="113" t="s">
         <v>477</v>
       </c>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="113" t="s">
         <v>476</v>
       </c>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114" t="s">
+      <c r="I1" s="113"/>
+      <c r="J1" s="113" t="s">
         <v>601</v>
       </c>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114" t="s">
+      <c r="K1" s="113"/>
+      <c r="L1" s="113" t="s">
         <v>427</v>
       </c>
     </row>
@@ -24237,14 +24240,14 @@
       <c r="K2" s="37" t="s">
         <v>455</v>
       </c>
-      <c r="L2" s="114"/>
+      <c r="L2" s="113"/>
     </row>
     <row r="3" spans="1:12" s="10" customFormat="1">
       <c r="A3" s="7"/>
       <c r="B3" s="41">
         <v>1</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="107" t="s">
         <v>590</v>
       </c>
       <c r="D3" s="73" t="s">
@@ -24276,9 +24279,9 @@
     <row r="4" spans="1:12" s="10" customFormat="1">
       <c r="A4" s="7"/>
       <c r="B4" s="46"/>
-      <c r="C4" s="109"/>
+      <c r="C4" s="108"/>
       <c r="D4" s="73" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E4" s="43">
         <v>0</v>
@@ -24306,9 +24309,9 @@
     <row r="5" spans="1:12" s="10" customFormat="1">
       <c r="A5" s="7"/>
       <c r="B5" s="46"/>
-      <c r="C5" s="110"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="73" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E5" s="43">
         <v>0</v>
@@ -24336,7 +24339,7 @@
     <row r="6" spans="1:12" s="10" customFormat="1">
       <c r="A6" s="7"/>
       <c r="B6" s="46"/>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="107" t="s">
         <v>425</v>
       </c>
       <c r="D6" s="73" t="s">
@@ -24370,7 +24373,7 @@
       <c r="B7" s="41">
         <v>2</v>
       </c>
-      <c r="C7" s="109"/>
+      <c r="C7" s="108"/>
       <c r="D7" s="73" t="s">
         <v>706</v>
       </c>
@@ -24402,7 +24405,7 @@
       <c r="B8" s="41">
         <v>3</v>
       </c>
-      <c r="C8" s="110"/>
+      <c r="C8" s="109"/>
       <c r="D8" s="73" t="s">
         <v>707</v>
       </c>
@@ -24434,7 +24437,7 @@
       <c r="B9" s="41">
         <v>4</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="114" t="s">
         <v>715</v>
       </c>
       <c r="D9" s="73" t="s">
@@ -24464,7 +24467,7 @@
       <c r="B10" s="41">
         <v>5</v>
       </c>
-      <c r="C10" s="107"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="73" t="s">
         <v>709</v>
       </c>
@@ -24492,7 +24495,7 @@
       <c r="B11" s="41">
         <v>6</v>
       </c>
-      <c r="C11" s="107"/>
+      <c r="C11" s="114"/>
       <c r="D11" s="73" t="s">
         <v>710</v>
       </c>
@@ -24550,11 +24553,11 @@
       <c r="B13" s="41">
         <v>8</v>
       </c>
-      <c r="C13" s="107" t="s">
-        <v>730</v>
+      <c r="C13" s="114" t="s">
+        <v>728</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E13" s="39">
         <v>2</v>
@@ -24580,9 +24583,9 @@
       <c r="B14" s="41">
         <v>9</v>
       </c>
-      <c r="C14" s="107"/>
+      <c r="C14" s="114"/>
       <c r="D14" s="76" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E14" s="39">
         <v>2</v>
@@ -24608,9 +24611,9 @@
       <c r="B15" s="41">
         <v>10</v>
       </c>
-      <c r="C15" s="107"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="76" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E15" s="39">
         <v>2</v>
@@ -24636,9 +24639,9 @@
       <c r="B16" s="41">
         <v>11</v>
       </c>
-      <c r="C16" s="107"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="84" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E16" s="39">
         <v>2</v>
@@ -24664,9 +24667,9 @@
       <c r="B17" s="41">
         <v>12</v>
       </c>
-      <c r="C17" s="107"/>
+      <c r="C17" s="114"/>
       <c r="D17" s="84" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E17" s="39">
         <v>2</v>
@@ -24692,11 +24695,11 @@
       <c r="B18" s="41">
         <v>13</v>
       </c>
-      <c r="C18" s="107" t="s">
-        <v>746</v>
+      <c r="C18" s="114" t="s">
+        <v>744</v>
       </c>
       <c r="D18" s="85" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E18" s="39">
         <v>3</v>
@@ -24722,9 +24725,9 @@
       <c r="B19" s="41">
         <v>14</v>
       </c>
-      <c r="C19" s="107"/>
+      <c r="C19" s="114"/>
       <c r="D19" s="84" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E19" s="39">
         <v>3</v>
@@ -24750,9 +24753,9 @@
       <c r="B20" s="41">
         <v>15</v>
       </c>
-      <c r="C20" s="107"/>
+      <c r="C20" s="114"/>
       <c r="D20" s="84" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E20" s="39">
         <v>3</v>
@@ -24777,11 +24780,11 @@
       <c r="B21" s="41">
         <v>16</v>
       </c>
-      <c r="C21" s="108" t="s">
-        <v>752</v>
+      <c r="C21" s="107" t="s">
+        <v>750</v>
       </c>
       <c r="D21" s="84" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E21" s="40">
         <v>4</v>
@@ -24806,9 +24809,9 @@
       <c r="B22" s="41">
         <v>17</v>
       </c>
-      <c r="C22" s="109"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="84" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E22" s="40">
         <v>4</v>
@@ -24833,9 +24836,9 @@
       <c r="B23" s="41">
         <v>18</v>
       </c>
-      <c r="C23" s="109"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="84" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E23" s="40">
         <v>4</v>
@@ -24860,9 +24863,9 @@
       <c r="B24" s="41">
         <v>19</v>
       </c>
-      <c r="C24" s="109"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="70" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E24" s="40">
         <v>5</v>
@@ -24887,7 +24890,7 @@
       <c r="B25" s="41">
         <v>20</v>
       </c>
-      <c r="C25" s="109"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="84" t="s">
         <v>612</v>
       </c>
@@ -24914,8 +24917,8 @@
       <c r="B26" s="41">
         <v>21</v>
       </c>
-      <c r="C26" s="108" t="s">
-        <v>822</v>
+      <c r="C26" s="107" t="s">
+        <v>820</v>
       </c>
       <c r="D26" s="84" t="s">
         <v>553</v>
@@ -24943,7 +24946,7 @@
       <c r="B27" s="41">
         <v>22</v>
       </c>
-      <c r="C27" s="109"/>
+      <c r="C27" s="108"/>
       <c r="D27" s="84" t="s">
         <v>554</v>
       </c>
@@ -24970,7 +24973,7 @@
       <c r="B28" s="41">
         <v>23</v>
       </c>
-      <c r="C28" s="109"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="84" t="s">
         <v>555</v>
       </c>
@@ -24997,7 +25000,7 @@
       <c r="B29" s="41">
         <v>24</v>
       </c>
-      <c r="C29" s="109"/>
+      <c r="C29" s="108"/>
       <c r="D29" s="84" t="s">
         <v>556</v>
       </c>
@@ -25024,7 +25027,7 @@
       <c r="B30" s="41">
         <v>25</v>
       </c>
-      <c r="C30" s="109"/>
+      <c r="C30" s="108"/>
       <c r="D30" s="84" t="s">
         <v>557</v>
       </c>
@@ -25051,11 +25054,11 @@
       <c r="B31" s="41">
         <v>26</v>
       </c>
-      <c r="C31" s="107" t="s">
+      <c r="C31" s="114" t="s">
         <v>559</v>
       </c>
       <c r="D31" s="84" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E31" s="40">
         <v>1</v>
@@ -25084,9 +25087,9 @@
       <c r="B32" s="41">
         <v>27</v>
       </c>
-      <c r="C32" s="107"/>
+      <c r="C32" s="114"/>
       <c r="D32" s="84" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E32" s="40">
         <v>1</v>
@@ -25111,11 +25114,11 @@
       <c r="B33" s="41">
         <v>28</v>
       </c>
-      <c r="C33" s="107" t="s">
+      <c r="C33" s="114" t="s">
         <v>481</v>
       </c>
       <c r="D33" s="76" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E33" s="40">
         <v>1</v>
@@ -25144,9 +25147,9 @@
       <c r="B34" s="41">
         <v>29</v>
       </c>
-      <c r="C34" s="107"/>
+      <c r="C34" s="114"/>
       <c r="D34" s="85" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E34" s="40">
         <v>2</v>
@@ -25171,9 +25174,9 @@
       <c r="B35" s="41">
         <v>30</v>
       </c>
-      <c r="C35" s="107"/>
+      <c r="C35" s="114"/>
       <c r="D35" s="85" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E35" s="39">
         <v>3</v>
@@ -25198,9 +25201,9 @@
       <c r="B36" s="41">
         <v>31</v>
       </c>
-      <c r="C36" s="107"/>
+      <c r="C36" s="114"/>
       <c r="D36" s="85" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E36" s="39">
         <v>3</v>
@@ -25225,9 +25228,9 @@
       <c r="B37" s="41">
         <v>32</v>
       </c>
-      <c r="C37" s="107"/>
+      <c r="C37" s="114"/>
       <c r="D37" s="76" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E37" s="40">
         <v>4</v>
@@ -25252,9 +25255,9 @@
       <c r="B38" s="41">
         <v>33</v>
       </c>
-      <c r="C38" s="107"/>
+      <c r="C38" s="114"/>
       <c r="D38" s="85" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E38" s="40">
         <v>4</v>
@@ -25279,9 +25282,9 @@
       <c r="B39" s="41">
         <v>34</v>
       </c>
-      <c r="C39" s="107"/>
+      <c r="C39" s="114"/>
       <c r="D39" s="85" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E39" s="40">
         <v>4</v>
@@ -25306,7 +25309,7 @@
       <c r="B40" s="41">
         <v>35</v>
       </c>
-      <c r="C40" s="107"/>
+      <c r="C40" s="114"/>
       <c r="D40" s="76" t="s">
         <v>679</v>
       </c>
@@ -25333,7 +25336,7 @@
       <c r="B41" s="41">
         <v>36</v>
       </c>
-      <c r="C41" s="107"/>
+      <c r="C41" s="114"/>
       <c r="D41" s="85" t="s">
         <v>487</v>
       </c>
@@ -25387,8 +25390,8 @@
     </row>
     <row r="43" spans="2:12">
       <c r="B43" s="41"/>
-      <c r="C43" s="108" t="s">
-        <v>819</v>
+      <c r="C43" s="107" t="s">
+        <v>817</v>
       </c>
       <c r="D43" s="84" t="s">
         <v>600</v>
@@ -25414,7 +25417,7 @@
     </row>
     <row r="44" spans="2:12">
       <c r="B44" s="41"/>
-      <c r="C44" s="109"/>
+      <c r="C44" s="108"/>
       <c r="D44" s="84" t="s">
         <v>598</v>
       </c>
@@ -25439,7 +25442,7 @@
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="41"/>
-      <c r="C45" s="110"/>
+      <c r="C45" s="109"/>
       <c r="D45" s="84" t="s">
         <v>599</v>
       </c>
@@ -25464,12 +25467,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="C33:C41"/>
     <mergeCell ref="C43:C45"/>
     <mergeCell ref="C9:C11"/>
@@ -25479,6 +25476,12 @@
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C26:C30"/>
     <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25549,7 +25552,7 @@
       <c r="A2" s="74">
         <v>1</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="114" t="s">
         <v>425</v>
       </c>
       <c r="C2" s="73" t="s">
@@ -25561,7 +25564,7 @@
       <c r="E2" s="88">
         <v>0.5</v>
       </c>
-      <c r="F2" s="118" t="s">
+      <c r="F2" s="117" t="s">
         <v>714</v>
       </c>
       <c r="G2" s="92" t="s">
@@ -25579,7 +25582,7 @@
       <c r="A3" s="74">
         <v>2</v>
       </c>
-      <c r="B3" s="107"/>
+      <c r="B3" s="114"/>
       <c r="C3" s="73" t="s">
         <v>706</v>
       </c>
@@ -25589,7 +25592,7 @@
       <c r="E3" s="88">
         <v>0.5</v>
       </c>
-      <c r="F3" s="118"/>
+      <c r="F3" s="117"/>
       <c r="G3" s="92" t="s">
         <v>569</v>
       </c>
@@ -25605,7 +25608,7 @@
       <c r="A4" s="74">
         <v>3</v>
       </c>
-      <c r="B4" s="107"/>
+      <c r="B4" s="114"/>
       <c r="C4" s="73" t="s">
         <v>707</v>
       </c>
@@ -25615,7 +25618,7 @@
       <c r="E4" s="88">
         <v>0</v>
       </c>
-      <c r="F4" s="118"/>
+      <c r="F4" s="117"/>
       <c r="G4" s="92" t="s">
         <v>569</v>
       </c>
@@ -25631,7 +25634,7 @@
       <c r="A5" s="74">
         <v>4</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="114" t="s">
         <v>715</v>
       </c>
       <c r="C5" s="73" t="s">
@@ -25657,7 +25660,7 @@
       <c r="A6" s="74">
         <v>5</v>
       </c>
-      <c r="B6" s="107"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="73" t="s">
         <v>709</v>
       </c>
@@ -25679,7 +25682,7 @@
       <c r="A7" s="74">
         <v>6</v>
       </c>
-      <c r="B7" s="107"/>
+      <c r="B7" s="114"/>
       <c r="C7" s="73" t="s">
         <v>710</v>
       </c>
@@ -25701,10 +25704,10 @@
       <c r="A8" s="74">
         <v>7</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="114" t="s">
         <v>485</v>
       </c>
-      <c r="C8" s="117" t="s">
+      <c r="C8" s="118" t="s">
         <v>485</v>
       </c>
       <c r="D8" s="77" t="s">
@@ -25713,7 +25716,7 @@
       <c r="E8" s="89">
         <v>0.5</v>
       </c>
-      <c r="F8" s="117" t="s">
+      <c r="F8" s="118" t="s">
         <v>644</v>
       </c>
       <c r="G8" s="93" t="s">
@@ -25731,15 +25734,15 @@
       <c r="A9" s="74">
         <v>8</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="118"/>
       <c r="D9" s="77" t="s">
         <v>562</v>
       </c>
       <c r="E9" s="89">
         <v>0.5</v>
       </c>
-      <c r="F9" s="117"/>
+      <c r="F9" s="118"/>
       <c r="G9" s="93" t="s">
         <v>569</v>
       </c>
@@ -25751,11 +25754,11 @@
       <c r="A10" s="74">
         <v>9</v>
       </c>
-      <c r="B10" s="107" t="s">
-        <v>730</v>
-      </c>
-      <c r="C10" s="117" t="s">
-        <v>735</v>
+      <c r="B10" s="114" t="s">
+        <v>728</v>
+      </c>
+      <c r="C10" s="118" t="s">
+        <v>733</v>
       </c>
       <c r="D10" s="84" t="s">
         <v>607</v>
@@ -25763,7 +25766,7 @@
       <c r="E10" s="87">
         <v>0.2</v>
       </c>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="118" t="s">
         <v>644</v>
       </c>
       <c r="G10" s="93" t="s">
@@ -25777,15 +25780,15 @@
       <c r="A11" s="74">
         <v>10</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="117"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="79" t="s">
         <v>641</v>
       </c>
       <c r="E11" s="87">
         <v>0.5</v>
       </c>
-      <c r="F11" s="117"/>
+      <c r="F11" s="118"/>
       <c r="G11" s="93" t="s">
         <v>569</v>
       </c>
@@ -25797,15 +25800,15 @@
       <c r="A12" s="74">
         <v>11</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="117"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="79" t="s">
         <v>651</v>
       </c>
       <c r="E12" s="87">
         <v>0.2</v>
       </c>
-      <c r="F12" s="117"/>
+      <c r="F12" s="118"/>
       <c r="G12" s="93" t="s">
         <v>569</v>
       </c>
@@ -25817,12 +25820,12 @@
       <c r="A13" s="74">
         <v>12</v>
       </c>
-      <c r="B13" s="107"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="76" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D13" s="84" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E13" s="87">
         <v>1</v>
@@ -25841,17 +25844,17 @@
       <c r="A14" s="74">
         <v>13</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="117" t="s">
-        <v>732</v>
+      <c r="B14" s="114"/>
+      <c r="C14" s="118" t="s">
+        <v>730</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E14" s="89">
         <v>0.5</v>
       </c>
-      <c r="F14" s="117" t="s">
+      <c r="F14" s="118" t="s">
         <v>594</v>
       </c>
       <c r="G14" s="93" t="s">
@@ -25865,15 +25868,15 @@
       <c r="A15" s="74">
         <v>14</v>
       </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="117"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="77" t="s">
         <v>560</v>
       </c>
       <c r="E15" s="89">
         <v>0.5</v>
       </c>
-      <c r="F15" s="117"/>
+      <c r="F15" s="118"/>
       <c r="G15" s="93" t="s">
         <v>569</v>
       </c>
@@ -25885,15 +25888,15 @@
       <c r="A16" s="74">
         <v>15</v>
       </c>
-      <c r="B16" s="107"/>
-      <c r="C16" s="117"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="118"/>
       <c r="D16" s="77" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E16" s="89">
         <v>0.5</v>
       </c>
-      <c r="F16" s="117"/>
+      <c r="F16" s="118"/>
       <c r="G16" s="93" t="s">
         <v>569</v>
       </c>
@@ -25905,15 +25908,15 @@
       <c r="A17" s="74">
         <v>16</v>
       </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="117"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="118"/>
       <c r="D17" s="77" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E17" s="89">
         <v>0.5</v>
       </c>
-      <c r="F17" s="117"/>
+      <c r="F17" s="118"/>
       <c r="G17" s="93" t="s">
         <v>569</v>
       </c>
@@ -25925,18 +25928,18 @@
       <c r="A18" s="74">
         <v>17</v>
       </c>
-      <c r="B18" s="107"/>
-      <c r="C18" s="115" t="s">
-        <v>733</v>
+      <c r="B18" s="114"/>
+      <c r="C18" s="116" t="s">
+        <v>731</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E18" s="89">
         <v>1.5</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G18" s="93" t="s">
         <v>569</v>
@@ -25949,16 +25952,16 @@
       <c r="A19" s="74">
         <v>18</v>
       </c>
-      <c r="B19" s="107"/>
-      <c r="C19" s="115"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="116"/>
       <c r="D19" s="77" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E19" s="89">
         <v>1.5</v>
       </c>
       <c r="F19" s="80" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G19" s="93" t="s">
         <v>569</v>
@@ -25971,18 +25974,18 @@
       <c r="A20" s="74">
         <v>19</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="115" t="s">
-        <v>734</v>
+      <c r="B20" s="114"/>
+      <c r="C20" s="116" t="s">
+        <v>732</v>
       </c>
       <c r="D20" s="77" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E20" s="89">
         <v>1.5</v>
       </c>
       <c r="F20" s="80" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G20" s="93" t="s">
         <v>569</v>
@@ -25995,16 +25998,16 @@
       <c r="A21" s="74">
         <v>20</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="115"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="116"/>
       <c r="D21" s="77" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E21" s="89">
         <v>1.5</v>
       </c>
       <c r="F21" s="80" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G21" s="93" t="s">
         <v>569</v>
@@ -26017,20 +26020,20 @@
       <c r="A22" s="74">
         <v>21</v>
       </c>
-      <c r="B22" s="107" t="s">
-        <v>746</v>
+      <c r="B22" s="114" t="s">
+        <v>744</v>
       </c>
       <c r="C22" s="85" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D22" s="84" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E22" s="87">
         <v>0.5</v>
       </c>
       <c r="F22" s="83" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G22" s="92"/>
       <c r="H22" s="92" t="s">
@@ -26043,9 +26046,9 @@
       <c r="A23" s="74">
         <v>22</v>
       </c>
-      <c r="B23" s="107"/>
+      <c r="B23" s="114"/>
       <c r="C23" s="84" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D23" s="82" t="s">
         <v>623</v>
@@ -26067,9 +26070,9 @@
       <c r="A24" s="74">
         <v>23</v>
       </c>
-      <c r="B24" s="107"/>
-      <c r="C24" s="115" t="s">
-        <v>749</v>
+      <c r="B24" s="114"/>
+      <c r="C24" s="116" t="s">
+        <v>747</v>
       </c>
       <c r="D24" s="82" t="s">
         <v>621</v>
@@ -26077,7 +26080,7 @@
       <c r="E24" s="87">
         <v>1</v>
       </c>
-      <c r="F24" s="116" t="s">
+      <c r="F24" s="115" t="s">
         <v>704</v>
       </c>
       <c r="G24" s="93" t="s">
@@ -26093,15 +26096,15 @@
       <c r="A25" s="74">
         <v>24</v>
       </c>
-      <c r="B25" s="107"/>
-      <c r="C25" s="115"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="116"/>
       <c r="D25" s="82" t="s">
         <v>622</v>
       </c>
       <c r="E25" s="87">
         <v>2</v>
       </c>
-      <c r="F25" s="116"/>
+      <c r="F25" s="115"/>
       <c r="G25" s="93" t="s">
         <v>569</v>
       </c>
@@ -26115,11 +26118,11 @@
       <c r="A26" s="74">
         <v>25</v>
       </c>
-      <c r="B26" s="108" t="s">
-        <v>752</v>
-      </c>
-      <c r="C26" s="115" t="s">
+      <c r="B26" s="107" t="s">
         <v>750</v>
+      </c>
+      <c r="C26" s="116" t="s">
+        <v>748</v>
       </c>
       <c r="D26" s="77" t="s">
         <v>620</v>
@@ -26127,8 +26130,8 @@
       <c r="E26" s="89">
         <v>0.5</v>
       </c>
-      <c r="F26" s="116" t="s">
-        <v>791</v>
+      <c r="F26" s="115" t="s">
+        <v>789</v>
       </c>
       <c r="G26" s="93" t="s">
         <v>569</v>
@@ -26141,15 +26144,15 @@
       <c r="A27" s="74">
         <v>26</v>
       </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="115"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="116"/>
       <c r="D27" s="77" t="s">
         <v>619</v>
       </c>
       <c r="E27" s="89">
         <v>1.5</v>
       </c>
-      <c r="F27" s="116"/>
+      <c r="F27" s="115"/>
       <c r="G27" s="93" t="s">
         <v>569</v>
       </c>
@@ -26161,15 +26164,15 @@
       <c r="A28" s="74">
         <v>27</v>
       </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="115"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="116"/>
       <c r="D28" s="77" t="s">
         <v>699</v>
       </c>
       <c r="E28" s="89">
         <v>3</v>
       </c>
-      <c r="F28" s="116"/>
+      <c r="F28" s="115"/>
       <c r="G28" s="93" t="s">
         <v>569</v>
       </c>
@@ -26181,9 +26184,9 @@
       <c r="A29" s="74">
         <v>28</v>
       </c>
-      <c r="B29" s="109"/>
-      <c r="C29" s="115" t="s">
-        <v>751</v>
+      <c r="B29" s="108"/>
+      <c r="C29" s="116" t="s">
+        <v>749</v>
       </c>
       <c r="D29" s="77" t="s">
         <v>624</v>
@@ -26191,8 +26194,8 @@
       <c r="E29" s="89">
         <v>0.5</v>
       </c>
-      <c r="F29" s="116" t="s">
-        <v>792</v>
+      <c r="F29" s="115" t="s">
+        <v>790</v>
       </c>
       <c r="G29" s="93"/>
       <c r="H29" s="93" t="s">
@@ -26205,15 +26208,15 @@
       <c r="A30" s="74">
         <v>29</v>
       </c>
-      <c r="B30" s="109"/>
-      <c r="C30" s="115"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="116"/>
       <c r="D30" s="77" t="s">
         <v>627</v>
       </c>
       <c r="E30" s="89">
         <v>1.5</v>
       </c>
-      <c r="F30" s="116"/>
+      <c r="F30" s="115"/>
       <c r="G30" s="93"/>
       <c r="H30" s="93" t="s">
         <v>569</v>
@@ -26225,15 +26228,15 @@
       <c r="A31" s="74">
         <v>30</v>
       </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="115"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="116"/>
       <c r="D31" s="77" t="s">
         <v>700</v>
       </c>
       <c r="E31" s="89">
         <v>3</v>
       </c>
-      <c r="F31" s="116"/>
+      <c r="F31" s="115"/>
       <c r="G31" s="93"/>
       <c r="H31" s="93" t="s">
         <v>569</v>
@@ -26245,18 +26248,18 @@
       <c r="A32" s="74">
         <v>31</v>
       </c>
-      <c r="B32" s="109"/>
-      <c r="C32" s="115" t="s">
+      <c r="B32" s="108"/>
+      <c r="C32" s="116" t="s">
+        <v>751</v>
+      </c>
+      <c r="D32" s="82" t="s">
         <v>753</v>
-      </c>
-      <c r="D32" s="82" t="s">
-        <v>755</v>
       </c>
       <c r="E32" s="87">
         <v>2</v>
       </c>
-      <c r="F32" s="116" t="s">
-        <v>791</v>
+      <c r="F32" s="115" t="s">
+        <v>789</v>
       </c>
       <c r="G32" s="93" t="s">
         <v>569</v>
@@ -26271,15 +26274,15 @@
       <c r="A33" s="74">
         <v>32</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="115"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="116"/>
       <c r="D33" s="82" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E33" s="87">
         <v>0.5</v>
       </c>
-      <c r="F33" s="116"/>
+      <c r="F33" s="115"/>
       <c r="G33" s="93" t="s">
         <v>569</v>
       </c>
@@ -26293,9 +26296,9 @@
       <c r="A34" s="74">
         <v>33</v>
       </c>
-      <c r="B34" s="109"/>
+      <c r="B34" s="108"/>
       <c r="C34" s="71" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D34" s="60" t="s">
         <v>647</v>
@@ -26303,7 +26306,7 @@
       <c r="E34" s="91">
         <v>5</v>
       </c>
-      <c r="F34" s="116"/>
+      <c r="F34" s="115"/>
       <c r="G34" s="93"/>
       <c r="H34" s="92"/>
       <c r="I34" s="92"/>
@@ -26315,8 +26318,8 @@
       <c r="A35" s="74">
         <v>34</v>
       </c>
-      <c r="B35" s="109"/>
-      <c r="C35" s="115" t="s">
+      <c r="B35" s="108"/>
+      <c r="C35" s="116" t="s">
         <v>612</v>
       </c>
       <c r="D35" s="82" t="s">
@@ -26325,8 +26328,8 @@
       <c r="E35" s="87">
         <v>0.5</v>
       </c>
-      <c r="F35" s="116" t="s">
-        <v>793</v>
+      <c r="F35" s="115" t="s">
+        <v>791</v>
       </c>
       <c r="G35" s="93" t="s">
         <v>569</v>
@@ -26341,15 +26344,15 @@
       <c r="A36" s="74">
         <v>35</v>
       </c>
-      <c r="B36" s="109"/>
-      <c r="C36" s="115"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="116"/>
       <c r="D36" s="82" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E36" s="87">
         <v>2</v>
       </c>
-      <c r="F36" s="116"/>
+      <c r="F36" s="115"/>
       <c r="G36" s="93" t="s">
         <v>569</v>
       </c>
@@ -26363,16 +26366,16 @@
       <c r="A37" s="74">
         <v>36</v>
       </c>
-      <c r="B37" s="110"/>
-      <c r="C37" s="115"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="116"/>
       <c r="D37" s="82" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E37" s="87">
         <v>2</v>
       </c>
       <c r="F37" s="80" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G37" s="93" t="s">
         <v>569</v>
@@ -26387,20 +26390,20 @@
       <c r="A38" s="74">
         <v>37</v>
       </c>
-      <c r="B38" s="108" t="s">
-        <v>822</v>
-      </c>
-      <c r="C38" s="115" t="s">
+      <c r="B38" s="107" t="s">
+        <v>820</v>
+      </c>
+      <c r="C38" s="116" t="s">
         <v>553</v>
       </c>
       <c r="D38" s="82" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E38" s="87">
         <v>0.5</v>
       </c>
-      <c r="F38" s="116" t="s">
-        <v>763</v>
+      <c r="F38" s="115" t="s">
+        <v>761</v>
       </c>
       <c r="G38" s="93" t="s">
         <v>569</v>
@@ -26415,15 +26418,15 @@
       <c r="A39" s="74">
         <v>38</v>
       </c>
-      <c r="B39" s="109"/>
-      <c r="C39" s="115"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="116"/>
       <c r="D39" s="82" t="s">
         <v>565</v>
       </c>
       <c r="E39" s="87">
         <v>2</v>
       </c>
-      <c r="F39" s="116"/>
+      <c r="F39" s="115"/>
       <c r="G39" s="93" t="s">
         <v>569</v>
       </c>
@@ -26437,18 +26440,18 @@
       <c r="A40" s="74">
         <v>39</v>
       </c>
-      <c r="B40" s="109"/>
-      <c r="C40" s="115" t="s">
+      <c r="B40" s="108"/>
+      <c r="C40" s="116" t="s">
         <v>554</v>
       </c>
       <c r="D40" s="82" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E40" s="87">
         <v>0.5</v>
       </c>
       <c r="F40" s="83" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G40" s="93" t="s">
         <v>569</v>
@@ -26463,16 +26466,16 @@
       <c r="A41" s="74">
         <v>40</v>
       </c>
-      <c r="B41" s="109"/>
-      <c r="C41" s="115"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="116"/>
       <c r="D41" s="82" t="s">
         <v>566</v>
       </c>
       <c r="E41" s="87">
         <v>1</v>
       </c>
-      <c r="F41" s="116" t="s">
-        <v>763</v>
+      <c r="F41" s="115" t="s">
+        <v>761</v>
       </c>
       <c r="G41" s="93" t="s">
         <v>569</v>
@@ -26487,17 +26490,17 @@
       <c r="A42" s="74">
         <v>41</v>
       </c>
-      <c r="B42" s="109"/>
-      <c r="C42" s="115" t="s">
+      <c r="B42" s="108"/>
+      <c r="C42" s="116" t="s">
         <v>555</v>
       </c>
       <c r="D42" s="82" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E42" s="87">
         <v>0.5</v>
       </c>
-      <c r="F42" s="116"/>
+      <c r="F42" s="115"/>
       <c r="G42" s="93" t="s">
         <v>569</v>
       </c>
@@ -26511,8 +26514,8 @@
       <c r="A43" s="74">
         <v>42</v>
       </c>
-      <c r="B43" s="109"/>
-      <c r="C43" s="115"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="116"/>
       <c r="D43" s="82" t="s">
         <v>567</v>
       </c>
@@ -26533,18 +26536,18 @@
       <c r="A44" s="74">
         <v>43</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="115" t="s">
+      <c r="B44" s="108"/>
+      <c r="C44" s="116" t="s">
         <v>556</v>
       </c>
       <c r="D44" s="82" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E44" s="87">
         <v>0.5</v>
       </c>
-      <c r="F44" s="116" t="s">
-        <v>763</v>
+      <c r="F44" s="115" t="s">
+        <v>761</v>
       </c>
       <c r="G44" s="93" t="s">
         <v>569</v>
@@ -26559,15 +26562,15 @@
       <c r="A45" s="74">
         <v>44</v>
       </c>
-      <c r="B45" s="109"/>
-      <c r="C45" s="115"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="116"/>
       <c r="D45" s="82" t="s">
         <v>568</v>
       </c>
       <c r="E45" s="87">
         <v>1</v>
       </c>
-      <c r="F45" s="116"/>
+      <c r="F45" s="115"/>
       <c r="G45" s="93" t="s">
         <v>569</v>
       </c>
@@ -26581,8 +26584,8 @@
       <c r="A46" s="74">
         <v>45</v>
       </c>
-      <c r="B46" s="109"/>
-      <c r="C46" s="115" t="s">
+      <c r="B46" s="108"/>
+      <c r="C46" s="116" t="s">
         <v>557</v>
       </c>
       <c r="D46" s="82" t="s">
@@ -26591,8 +26594,8 @@
       <c r="E46" s="87">
         <v>0.5</v>
       </c>
-      <c r="F46" s="116" t="s">
-        <v>763</v>
+      <c r="F46" s="115" t="s">
+        <v>761</v>
       </c>
       <c r="G46" s="93" t="s">
         <v>569</v>
@@ -26607,15 +26610,15 @@
       <c r="A47" s="74">
         <v>46</v>
       </c>
-      <c r="B47" s="109"/>
-      <c r="C47" s="115"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="116"/>
       <c r="D47" s="82" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E47" s="87">
         <v>0.5</v>
       </c>
-      <c r="F47" s="116"/>
+      <c r="F47" s="115"/>
       <c r="G47" s="93" t="s">
         <v>569</v>
       </c>
@@ -26629,15 +26632,15 @@
       <c r="A48" s="74">
         <v>47</v>
       </c>
-      <c r="B48" s="110"/>
-      <c r="C48" s="115"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="116"/>
       <c r="D48" s="82" t="s">
         <v>558</v>
       </c>
       <c r="E48" s="87">
         <v>1</v>
       </c>
-      <c r="F48" s="116"/>
+      <c r="F48" s="115"/>
       <c r="G48" s="93" t="s">
         <v>569</v>
       </c>
@@ -26651,19 +26654,19 @@
       <c r="A49" s="74">
         <v>48</v>
       </c>
-      <c r="B49" s="107" t="s">
+      <c r="B49" s="114" t="s">
         <v>559</v>
       </c>
-      <c r="C49" s="115" t="s">
+      <c r="C49" s="116" t="s">
+        <v>762</v>
+      </c>
+      <c r="D49" s="82" t="s">
         <v>764</v>
-      </c>
-      <c r="D49" s="82" t="s">
-        <v>766</v>
       </c>
       <c r="E49" s="87">
         <v>0.2</v>
       </c>
-      <c r="F49" s="116" t="s">
+      <c r="F49" s="115" t="s">
         <v>644</v>
       </c>
       <c r="G49" s="93" t="s">
@@ -26679,15 +26682,15 @@
       <c r="A50" s="74">
         <v>49</v>
       </c>
-      <c r="B50" s="107"/>
-      <c r="C50" s="115"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="116"/>
       <c r="D50" s="82" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E50" s="87">
         <v>0.2</v>
       </c>
-      <c r="F50" s="116"/>
+      <c r="F50" s="115"/>
       <c r="G50" s="93" t="s">
         <v>569</v>
       </c>
@@ -26699,17 +26702,17 @@
       <c r="A51" s="74">
         <v>50</v>
       </c>
-      <c r="B51" s="107"/>
-      <c r="C51" s="115" t="s">
-        <v>765</v>
+      <c r="B51" s="114"/>
+      <c r="C51" s="116" t="s">
+        <v>763</v>
       </c>
       <c r="D51" s="82" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E51" s="87">
         <v>0.2</v>
       </c>
-      <c r="F51" s="116"/>
+      <c r="F51" s="115"/>
       <c r="G51" s="93" t="s">
         <v>569</v>
       </c>
@@ -26723,15 +26726,15 @@
       <c r="A52" s="74">
         <v>51</v>
       </c>
-      <c r="B52" s="107"/>
-      <c r="C52" s="115"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="116"/>
       <c r="D52" s="82" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E52" s="87">
         <v>0.2</v>
       </c>
-      <c r="F52" s="116"/>
+      <c r="F52" s="115"/>
       <c r="G52" s="93" t="s">
         <v>569</v>
       </c>
@@ -26743,11 +26746,11 @@
       <c r="A53" s="74">
         <v>52</v>
       </c>
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="114" t="s">
         <v>481</v>
       </c>
       <c r="C53" s="76" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D53" s="77" t="s">
         <v>606</v>
@@ -26774,9 +26777,9 @@
       <c r="A54" s="74">
         <v>53</v>
       </c>
-      <c r="B54" s="107"/>
+      <c r="B54" s="114"/>
       <c r="C54" s="85" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D54" s="77" t="s">
         <v>486</v>
@@ -26800,18 +26803,18 @@
       <c r="A55" s="74">
         <v>54</v>
       </c>
-      <c r="B55" s="107"/>
+      <c r="B55" s="114"/>
       <c r="C55" s="85" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D55" s="77" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E55" s="89">
         <v>2</v>
       </c>
       <c r="F55" s="85" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G55" s="93"/>
       <c r="H55" s="93"/>
@@ -26824,12 +26827,12 @@
       <c r="A56" s="74">
         <v>55</v>
       </c>
-      <c r="B56" s="107"/>
+      <c r="B56" s="114"/>
       <c r="C56" s="85" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D56" s="77" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E56" s="89">
         <v>1</v>
@@ -26848,18 +26851,18 @@
       <c r="A57" s="74">
         <v>56</v>
       </c>
-      <c r="B57" s="107"/>
-      <c r="C57" s="117" t="s">
-        <v>811</v>
+      <c r="B57" s="114"/>
+      <c r="C57" s="118" t="s">
+        <v>809</v>
       </c>
       <c r="D57" s="77" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E57" s="89">
         <v>1</v>
       </c>
       <c r="F57" s="85" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G57" s="93"/>
       <c r="H57" s="93" t="s">
@@ -26872,16 +26875,16 @@
       <c r="A58" s="74">
         <v>57</v>
       </c>
-      <c r="B58" s="107"/>
-      <c r="C58" s="117"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="118"/>
       <c r="D58" s="77" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E58" s="89">
         <v>3</v>
       </c>
       <c r="F58" s="85" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G58" s="93"/>
       <c r="H58" s="93"/>
@@ -26894,18 +26897,18 @@
       <c r="A59" s="74">
         <v>58</v>
       </c>
-      <c r="B59" s="107"/>
+      <c r="B59" s="114"/>
       <c r="C59" s="85" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D59" s="77" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E59" s="89">
         <v>2</v>
       </c>
       <c r="F59" s="85" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G59" s="93"/>
       <c r="H59" s="93"/>
@@ -26918,18 +26921,18 @@
       <c r="A60" s="74">
         <v>59</v>
       </c>
-      <c r="B60" s="107"/>
+      <c r="B60" s="114"/>
       <c r="C60" s="85" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D60" s="77" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E60" s="89">
         <v>2</v>
       </c>
       <c r="F60" s="85" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G60" s="93"/>
       <c r="H60" s="93"/>
@@ -26942,7 +26945,7 @@
       <c r="A61" s="74">
         <v>60</v>
       </c>
-      <c r="B61" s="107"/>
+      <c r="B61" s="114"/>
       <c r="C61" s="76" t="s">
         <v>679</v>
       </c>
@@ -26964,12 +26967,12 @@
       <c r="A62" s="74">
         <v>61</v>
       </c>
-      <c r="B62" s="107"/>
+      <c r="B62" s="114"/>
       <c r="C62" s="85" t="s">
         <v>487</v>
       </c>
       <c r="D62" s="77" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E62" s="89">
         <v>2</v>
@@ -26990,10 +26993,10 @@
       <c r="A63" s="74">
         <v>62</v>
       </c>
-      <c r="B63" s="107" t="s">
+      <c r="B63" s="114" t="s">
         <v>482</v>
       </c>
-      <c r="C63" s="115" t="s">
+      <c r="C63" s="116" t="s">
         <v>597</v>
       </c>
       <c r="D63" s="82" t="s">
@@ -27014,8 +27017,8 @@
       <c r="A64" s="74">
         <v>63</v>
       </c>
-      <c r="B64" s="107"/>
-      <c r="C64" s="115"/>
+      <c r="B64" s="114"/>
+      <c r="C64" s="116"/>
       <c r="D64" s="82" t="s">
         <v>655</v>
       </c>
@@ -27034,8 +27037,8 @@
       <c r="A65" s="74">
         <v>64</v>
       </c>
-      <c r="B65" s="107"/>
-      <c r="C65" s="115"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="116"/>
       <c r="D65" s="82" t="s">
         <v>654</v>
       </c>
@@ -27052,14 +27055,28 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B38:B48"/>
+    <mergeCell ref="B53:B62"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="F29:F31"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="F2:F4"/>
@@ -27074,28 +27091,14 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B38:B48"/>
-    <mergeCell ref="B53:B62"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -27104,10 +27107,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G216"/>
+  <dimension ref="A1:G238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -27591,7 +27594,7 @@
         <v>639</v>
       </c>
       <c r="G29" s="56" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -27612,7 +27615,7 @@
         <v>694</v>
       </c>
       <c r="G30" s="56" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -27633,7 +27636,7 @@
         <v>604</v>
       </c>
       <c r="G31" s="56" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -27654,7 +27657,7 @@
         <v>693</v>
       </c>
       <c r="G32" s="56" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -27944,7 +27947,7 @@
     </row>
     <row r="52" spans="1:6" s="11" customFormat="1">
       <c r="A52" s="104" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D52" s="105"/>
       <c r="F52" s="106"/>
@@ -28187,7 +28190,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:7">
       <c r="A65" s="98">
         <v>10</v>
       </c>
@@ -28207,7 +28210,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:7">
       <c r="A66" s="95">
         <v>11</v>
       </c>
@@ -28227,7 +28230,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:7">
       <c r="A67" s="98">
         <v>12</v>
       </c>
@@ -28247,7 +28250,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:7">
       <c r="A68" s="98">
         <v>18</v>
       </c>
@@ -28265,7 +28268,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:7">
       <c r="A69" s="95">
         <v>19</v>
       </c>
@@ -28283,47 +28286,62 @@
         <v>439</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:7">
       <c r="A70" s="57" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="56"/>
-      <c r="D71" s="56"/>
-      <c r="F71" s="56"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="104" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="53" t="s">
+    <row r="71" spans="1:7">
+      <c r="A71" s="104" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B72" s="53" t="s">
         <v>429</v>
       </c>
-      <c r="C73" s="53" t="s">
+      <c r="C72" s="53" t="s">
         <v>430</v>
       </c>
-      <c r="D73" s="53" t="s">
+      <c r="D72" s="53" t="s">
         <v>496</v>
       </c>
-      <c r="E73" s="54" t="s">
+      <c r="E72" s="54" t="s">
         <v>431</v>
       </c>
-      <c r="F73" s="55" t="s">
+      <c r="F72" s="55" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="95">
+    <row r="73" spans="1:7">
+      <c r="A73" s="95">
         <v>1</v>
       </c>
-      <c r="B74" s="96" t="s">
+      <c r="B73" s="96" t="s">
         <v>432</v>
+      </c>
+      <c r="C73" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D73" s="97">
+        <v>8</v>
+      </c>
+      <c r="E73" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F73" s="78" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="64">
+        <v>2</v>
+      </c>
+      <c r="B74" s="102" t="s">
+        <v>827</v>
       </c>
       <c r="C74" s="96" t="s">
         <v>434</v>
@@ -28335,75 +28353,75 @@
         <v>435</v>
       </c>
       <c r="F74" s="78" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="64">
         <v>2</v>
       </c>
       <c r="B75" s="102" t="s">
-        <v>829</v>
-      </c>
-      <c r="C75" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D75" s="97">
-        <v>8</v>
+        <v>584</v>
+      </c>
+      <c r="C75" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="D75" s="100">
+        <v>200</v>
       </c>
       <c r="E75" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F75" s="78" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>452</v>
+      </c>
+      <c r="F75" s="79" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B76" s="102" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C76" s="99" t="s">
         <v>488</v>
       </c>
       <c r="D76" s="100">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E76" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F76" s="79" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="64">
+        <v>4</v>
+      </c>
+      <c r="B77" s="99" t="s">
+        <v>552</v>
+      </c>
+      <c r="C77" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D77" s="100">
+        <v>2</v>
+      </c>
+      <c r="E77" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="F76" s="79" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="64">
-        <v>3</v>
-      </c>
-      <c r="B77" s="102" t="s">
-        <v>585</v>
-      </c>
-      <c r="C77" s="99" t="s">
-        <v>488</v>
-      </c>
-      <c r="D77" s="100">
-        <v>50</v>
-      </c>
-      <c r="E77" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F77" s="79" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="64">
-        <v>4</v>
-      </c>
-      <c r="B78" s="99" t="s">
-        <v>552</v>
+      <c r="F77" s="101" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="95">
+        <v>5</v>
+      </c>
+      <c r="B78" s="102" t="s">
+        <v>587</v>
       </c>
       <c r="C78" s="99" t="s">
         <v>438</v>
@@ -28414,56 +28432,59 @@
       <c r="E78" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="F78" s="101" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="95">
-        <v>5</v>
-      </c>
-      <c r="B79" s="102" t="s">
-        <v>587</v>
+      <c r="F78" s="79" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="64">
+        <v>6</v>
+      </c>
+      <c r="B79" s="99" t="s">
+        <v>547</v>
       </c>
       <c r="C79" s="99" t="s">
-        <v>438</v>
+        <v>549</v>
       </c>
       <c r="D79" s="100">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E79" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="F79" s="79" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="64">
+      <c r="F79" s="101" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="95">
+        <v>7</v>
+      </c>
+      <c r="B80" s="99" t="s">
+        <v>499</v>
+      </c>
+      <c r="C80" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D80" s="100">
+        <v>2</v>
+      </c>
+      <c r="E80" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F80" s="101" t="s">
+        <v>500</v>
+      </c>
+      <c r="G80" s="56" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="31.5">
+      <c r="A81" s="64">
         <v>6</v>
       </c>
-      <c r="B80" s="99" t="s">
-        <v>547</v>
-      </c>
-      <c r="C80" s="99" t="s">
-        <v>549</v>
-      </c>
-      <c r="D80" s="100">
-        <v>8</v>
-      </c>
-      <c r="E80" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="F80" s="101" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="95">
-        <v>7</v>
-      </c>
       <c r="B81" s="99" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C81" s="99" t="s">
         <v>438</v>
@@ -28475,18 +28496,18 @@
         <v>435</v>
       </c>
       <c r="F81" s="101" t="s">
-        <v>500</v>
+        <v>652</v>
       </c>
       <c r="G81" s="56" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="31.5">
       <c r="A82" s="64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B82" s="99" t="s">
-        <v>502</v>
+        <v>701</v>
       </c>
       <c r="C82" s="99" t="s">
         <v>438</v>
@@ -28498,64 +28519,64 @@
         <v>435</v>
       </c>
       <c r="F82" s="101" t="s">
-        <v>652</v>
+        <v>702</v>
       </c>
       <c r="G82" s="56" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="31.5">
-      <c r="A83" s="64">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="95">
+        <v>9</v>
+      </c>
+      <c r="B83" s="96" t="s">
+        <v>501</v>
+      </c>
+      <c r="C83" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D83" s="97">
         <v>8</v>
-      </c>
-      <c r="B83" s="99" t="s">
-        <v>701</v>
-      </c>
-      <c r="C83" s="99" t="s">
-        <v>438</v>
-      </c>
-      <c r="D83" s="100">
-        <v>2</v>
       </c>
       <c r="E83" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F83" s="101" t="s">
-        <v>702</v>
+      <c r="F83" s="81" t="s">
+        <v>676</v>
       </c>
       <c r="G83" s="56" t="s">
-        <v>833</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="95">
-        <v>9</v>
-      </c>
-      <c r="B84" s="96" t="s">
-        <v>501</v>
-      </c>
-      <c r="C84" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D84" s="97">
+      <c r="A84" s="64">
+        <v>10</v>
+      </c>
+      <c r="B84" s="99" t="s">
+        <v>591</v>
+      </c>
+      <c r="C84" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D84" s="100">
         <v>8</v>
       </c>
       <c r="E84" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F84" s="81" t="s">
-        <v>676</v>
+      <c r="F84" s="101" t="s">
+        <v>636</v>
       </c>
       <c r="G84" s="56" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="64">
-        <v>10</v>
-      </c>
-      <c r="B85" s="99" t="s">
-        <v>591</v>
+      <c r="A85" s="95">
+        <v>11</v>
+      </c>
+      <c r="B85" s="102" t="s">
+        <v>660</v>
       </c>
       <c r="C85" s="99" t="s">
         <v>438</v>
@@ -28566,19 +28587,19 @@
       <c r="E85" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F85" s="101" t="s">
-        <v>636</v>
+      <c r="F85" s="79" t="s">
+        <v>662</v>
       </c>
       <c r="G85" s="56" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="95">
-        <v>11</v>
+      <c r="A86" s="64">
+        <v>12</v>
       </c>
       <c r="B86" s="102" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C86" s="99" t="s">
         <v>438</v>
@@ -28590,95 +28611,90 @@
         <v>435</v>
       </c>
       <c r="F86" s="79" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G86" s="56" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="64">
-        <v>12</v>
-      </c>
-      <c r="B87" s="102" t="s">
-        <v>661</v>
-      </c>
-      <c r="C87" s="99" t="s">
-        <v>438</v>
-      </c>
-      <c r="D87" s="100">
-        <v>8</v>
-      </c>
+      <c r="A87" s="95">
+        <v>13</v>
+      </c>
+      <c r="B87" s="96" t="s">
+        <v>640</v>
+      </c>
+      <c r="C87" s="96" t="s">
+        <v>572</v>
+      </c>
+      <c r="D87" s="97"/>
       <c r="E87" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F87" s="79" t="s">
-        <v>663</v>
+      <c r="F87" s="78" t="s">
+        <v>641</v>
       </c>
       <c r="G87" s="56" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="95">
-        <v>13</v>
+    <row r="88" spans="1:7" ht="31.5">
+      <c r="A88" s="64">
+        <v>14</v>
       </c>
       <c r="B88" s="96" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C88" s="96" t="s">
-        <v>572</v>
-      </c>
-      <c r="D88" s="97"/>
+        <v>434</v>
+      </c>
+      <c r="D88" s="97">
+        <v>8</v>
+      </c>
       <c r="E88" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F88" s="78" t="s">
-        <v>641</v>
+      <c r="F88" s="79" t="s">
+        <v>649</v>
       </c>
       <c r="G88" s="56" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="31.5">
-      <c r="A89" s="64">
-        <v>14</v>
+    <row r="89" spans="1:7">
+      <c r="A89" s="95">
+        <v>15</v>
       </c>
       <c r="B89" s="96" t="s">
-        <v>648</v>
+        <v>518</v>
       </c>
       <c r="C89" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D89" s="97">
-        <v>8</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="D89" s="97"/>
       <c r="E89" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F89" s="79" t="s">
-        <v>649</v>
-      </c>
-      <c r="G89" s="56" t="s">
-        <v>2</v>
+      <c r="F89" s="78" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="95">
-        <v>15</v>
+      <c r="A90" s="64">
+        <v>16</v>
       </c>
       <c r="B90" s="96" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C90" s="96" t="s">
         <v>436</v>
       </c>
       <c r="D90" s="97"/>
       <c r="E90" s="96" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="F90" s="78" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -28709,7 +28725,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="104" t="s">
-        <v>726</v>
+        <v>834</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -28757,7 +28773,7 @@
         <v>2</v>
       </c>
       <c r="B97" s="102" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C97" s="96" t="s">
         <v>434</v>
@@ -28893,7 +28909,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="104" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -28961,7 +28977,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="102" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C110" s="102" t="s">
         <v>434</v>
@@ -28981,7 +28997,7 @@
         <v>4</v>
       </c>
       <c r="B111" s="102" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C111" s="102" t="s">
         <v>434</v>
@@ -29110,7 +29126,7 @@
         <v>2</v>
       </c>
       <c r="B120" s="96" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C120" s="96" t="s">
         <v>434</v>
@@ -29298,7 +29314,7 @@
         <v>2</v>
       </c>
       <c r="B132" s="96" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C132" s="96" t="s">
         <v>434</v>
@@ -29510,7 +29526,7 @@
         <v>435</v>
       </c>
       <c r="F142" s="101" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -29556,7 +29572,7 @@
     </row>
     <row r="147" spans="1:7" s="11" customFormat="1">
       <c r="A147" s="104" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D147" s="105"/>
       <c r="F147" s="106"/>
@@ -29601,7 +29617,7 @@
         <v>527</v>
       </c>
       <c r="G149" s="56" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -29609,7 +29625,7 @@
         <v>2</v>
       </c>
       <c r="B150" s="96" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C150" s="96" t="s">
         <v>434</v>
@@ -29649,7 +29665,7 @@
         <v>4</v>
       </c>
       <c r="B152" s="96" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C152" s="96" t="s">
         <v>434</v>
@@ -29661,7 +29677,7 @@
         <v>435</v>
       </c>
       <c r="F152" s="78" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -29669,7 +29685,7 @@
         <v>5</v>
       </c>
       <c r="B153" s="96" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C153" s="96" t="s">
         <v>434</v>
@@ -29681,7 +29697,7 @@
         <v>435</v>
       </c>
       <c r="F153" s="78" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -29689,7 +29705,7 @@
         <v>6</v>
       </c>
       <c r="B154" s="102" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C154" s="99" t="s">
         <v>572</v>
@@ -29699,7 +29715,7 @@
         <v>435</v>
       </c>
       <c r="F154" s="78" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -29719,7 +29735,7 @@
         <v>435</v>
       </c>
       <c r="F155" s="78" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -29739,7 +29755,7 @@
         <v>435</v>
       </c>
       <c r="F156" s="79" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -29832,7 +29848,7 @@
         <v>527</v>
       </c>
       <c r="G163" s="56" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -29840,7 +29856,7 @@
         <v>6</v>
       </c>
       <c r="B164" s="96" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C164" s="96" t="s">
         <v>434</v>
@@ -29860,7 +29876,7 @@
         <v>2</v>
       </c>
       <c r="B165" s="102" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C165" s="96" t="s">
         <v>434</v>
@@ -29872,7 +29888,7 @@
         <v>435</v>
       </c>
       <c r="F165" s="79" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -29920,7 +29936,7 @@
         <v>5</v>
       </c>
       <c r="B168" s="96" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C168" s="96" t="s">
         <v>434</v>
@@ -29940,7 +29956,7 @@
         <v>6</v>
       </c>
       <c r="B169" s="102" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C169" s="96" t="s">
         <v>434</v>
@@ -29950,7 +29966,7 @@
         <v>452</v>
       </c>
       <c r="F169" s="79" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -30030,7 +30046,7 @@
         <v>435</v>
       </c>
       <c r="F173" s="78" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -30050,7 +30066,7 @@
         <v>435</v>
       </c>
       <c r="F174" s="79" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -30160,7 +30176,7 @@
         <v>452</v>
       </c>
       <c r="F182" s="78" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -30168,7 +30184,7 @@
         <v>3</v>
       </c>
       <c r="B183" s="102" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C183" s="96" t="s">
         <v>434</v>
@@ -30180,7 +30196,7 @@
         <v>452</v>
       </c>
       <c r="F183" s="79" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -30188,7 +30204,7 @@
         <v>4</v>
       </c>
       <c r="B184" s="96" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C184" s="96" t="s">
         <v>434</v>
@@ -30228,7 +30244,7 @@
         <v>6</v>
       </c>
       <c r="B186" s="96" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C186" s="96" t="s">
         <v>434</v>
@@ -30288,7 +30304,7 @@
         <v>9</v>
       </c>
       <c r="B189" s="99" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C189" s="99" t="s">
         <v>488</v>
@@ -30300,7 +30316,7 @@
         <v>452</v>
       </c>
       <c r="F189" s="101" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -30308,7 +30324,7 @@
         <v>12</v>
       </c>
       <c r="B190" s="99" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C190" s="99" t="s">
         <v>488</v>
@@ -30320,7 +30336,7 @@
         <v>435</v>
       </c>
       <c r="F190" s="101" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -30488,7 +30504,7 @@
         <v>19</v>
       </c>
       <c r="B199" s="96" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C199" s="96" t="s">
         <v>436</v>
@@ -30518,7 +30534,7 @@
         <v>435</v>
       </c>
       <c r="F200" s="78" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -30528,7 +30544,7 @@
     </row>
     <row r="203" spans="1:6" s="11" customFormat="1">
       <c r="A203" s="104" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D203" s="105"/>
       <c r="F203" s="106"/>
@@ -30570,7 +30586,7 @@
         <v>435</v>
       </c>
       <c r="F205" s="78" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -30578,7 +30594,7 @@
         <v>2</v>
       </c>
       <c r="B206" s="96" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C206" s="96" t="s">
         <v>434</v>
@@ -30598,7 +30614,7 @@
         <v>3</v>
       </c>
       <c r="B207" s="96" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C207" s="96" t="s">
         <v>434</v>
@@ -30630,7 +30646,7 @@
         <v>435</v>
       </c>
       <c r="F208" s="78" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -30650,7 +30666,7 @@
         <v>435</v>
       </c>
       <c r="F209" s="101" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -30658,7 +30674,7 @@
         <v>6</v>
       </c>
       <c r="B210" s="99" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C210" s="99" t="s">
         <v>488</v>
@@ -30670,7 +30686,7 @@
         <v>435</v>
       </c>
       <c r="F210" s="101" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -30768,12 +30784,436 @@
         <v>435</v>
       </c>
       <c r="F215" s="78" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="57" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="104" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B219" s="53" t="s">
+        <v>429</v>
+      </c>
+      <c r="C219" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="D219" s="53" t="s">
+        <v>496</v>
+      </c>
+      <c r="E219" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="F219" s="55" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="95">
+        <v>1</v>
+      </c>
+      <c r="B220" s="96" t="s">
+        <v>432</v>
+      </c>
+      <c r="C220" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D220" s="97">
+        <v>8</v>
+      </c>
+      <c r="E220" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F220" s="78" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="64">
+        <v>2</v>
+      </c>
+      <c r="B221" s="102" t="s">
+        <v>827</v>
+      </c>
+      <c r="C221" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D221" s="97">
+        <v>8</v>
+      </c>
+      <c r="E221" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F221" s="78" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="64">
+        <v>2</v>
+      </c>
+      <c r="B222" s="102" t="s">
+        <v>584</v>
+      </c>
+      <c r="C222" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="D222" s="100">
+        <v>200</v>
+      </c>
+      <c r="E222" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="F222" s="79" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="64">
+        <v>3</v>
+      </c>
+      <c r="B223" s="102" t="s">
+        <v>585</v>
+      </c>
+      <c r="C223" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="D223" s="100">
+        <v>50</v>
+      </c>
+      <c r="E223" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F223" s="79" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="64">
+        <v>4</v>
+      </c>
+      <c r="B224" s="99" t="s">
+        <v>552</v>
+      </c>
+      <c r="C224" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D224" s="100">
+        <v>2</v>
+      </c>
+      <c r="E224" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="F224" s="101" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="95">
+        <v>5</v>
+      </c>
+      <c r="B225" s="102" t="s">
+        <v>587</v>
+      </c>
+      <c r="C225" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D225" s="100">
+        <v>2</v>
+      </c>
+      <c r="E225" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="F225" s="79" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="64">
+        <v>6</v>
+      </c>
+      <c r="B226" s="99" t="s">
+        <v>547</v>
+      </c>
+      <c r="C226" s="99" t="s">
+        <v>549</v>
+      </c>
+      <c r="D226" s="100">
+        <v>8</v>
+      </c>
+      <c r="E226" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="F226" s="101" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="95">
+        <v>7</v>
+      </c>
+      <c r="B227" s="99" t="s">
+        <v>499</v>
+      </c>
+      <c r="C227" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D227" s="100">
+        <v>2</v>
+      </c>
+      <c r="E227" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F227" s="101" t="s">
+        <v>500</v>
+      </c>
+      <c r="G227" s="56" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="31.5">
+      <c r="A228" s="64">
+        <v>6</v>
+      </c>
+      <c r="B228" s="99" t="s">
+        <v>502</v>
+      </c>
+      <c r="C228" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D228" s="100">
+        <v>2</v>
+      </c>
+      <c r="E228" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F228" s="101" t="s">
+        <v>652</v>
+      </c>
+      <c r="G228" s="56" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="31.5">
+      <c r="A229" s="64">
+        <v>8</v>
+      </c>
+      <c r="B229" s="99" t="s">
+        <v>701</v>
+      </c>
+      <c r="C229" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D229" s="100">
+        <v>2</v>
+      </c>
+      <c r="E229" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F229" s="101" t="s">
+        <v>702</v>
+      </c>
+      <c r="G229" s="56" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="95">
+        <v>9</v>
+      </c>
+      <c r="B230" s="96" t="s">
+        <v>501</v>
+      </c>
+      <c r="C230" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D230" s="97">
+        <v>8</v>
+      </c>
+      <c r="E230" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F230" s="81" t="s">
+        <v>676</v>
+      </c>
+      <c r="G230" s="56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="64">
+        <v>10</v>
+      </c>
+      <c r="B231" s="99" t="s">
+        <v>591</v>
+      </c>
+      <c r="C231" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D231" s="100">
+        <v>8</v>
+      </c>
+      <c r="E231" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F231" s="101" t="s">
+        <v>636</v>
+      </c>
+      <c r="G231" s="56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="95">
+        <v>11</v>
+      </c>
+      <c r="B232" s="102" t="s">
+        <v>660</v>
+      </c>
+      <c r="C232" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D232" s="100">
+        <v>8</v>
+      </c>
+      <c r="E232" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F232" s="79" t="s">
+        <v>662</v>
+      </c>
+      <c r="G232" s="56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="64">
+        <v>12</v>
+      </c>
+      <c r="B233" s="102" t="s">
+        <v>661</v>
+      </c>
+      <c r="C233" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D233" s="100">
+        <v>8</v>
+      </c>
+      <c r="E233" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F233" s="79" t="s">
+        <v>663</v>
+      </c>
+      <c r="G233" s="56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="95">
+        <v>13</v>
+      </c>
+      <c r="B234" s="96" t="s">
+        <v>640</v>
+      </c>
+      <c r="C234" s="96" t="s">
+        <v>572</v>
+      </c>
+      <c r="D234" s="97"/>
+      <c r="E234" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F234" s="78" t="s">
+        <v>641</v>
+      </c>
+      <c r="G234" s="56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="31.5">
+      <c r="A235" s="64">
+        <v>14</v>
+      </c>
+      <c r="B235" s="96" t="s">
+        <v>648</v>
+      </c>
+      <c r="C235" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D235" s="97">
+        <v>8</v>
+      </c>
+      <c r="E235" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F235" s="79" t="s">
+        <v>649</v>
+      </c>
+      <c r="G235" s="56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="95">
+        <v>15</v>
+      </c>
+      <c r="B236" s="96" t="s">
+        <v>518</v>
+      </c>
+      <c r="C236" s="96" t="s">
+        <v>436</v>
+      </c>
+      <c r="D236" s="97"/>
+      <c r="E236" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F236" s="78" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="64">
+        <v>16</v>
+      </c>
+      <c r="B237" s="96" t="s">
+        <v>519</v>
+      </c>
+      <c r="C237" s="96" t="s">
+        <v>436</v>
+      </c>
+      <c r="D237" s="97"/>
+      <c r="E237" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="F237" s="78" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="64">
+        <v>16</v>
+      </c>
+      <c r="B238" s="96" t="s">
+        <v>519</v>
+      </c>
+      <c r="C238" s="96" t="s">
+        <v>436</v>
+      </c>
+      <c r="D238" s="97"/>
+      <c r="E238" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="F238" s="78" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/reque/SMS_Gateway_Requirements_20171115.xlsx
+++ b/reque/SMS_Gateway_Requirements_20171115.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="835">
   <si>
     <t>No.</t>
   </si>
@@ -1532,9 +1532,6 @@
   </si>
   <si>
     <t>sms_send_auto</t>
-  </si>
-  <si>
-    <t>manager_id</t>
   </si>
   <si>
     <t>Ký danh của modem</t>
@@ -18426,6 +18423,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="259" fillId="3" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="259" fillId="3" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -18447,19 +18447,16 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="3" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="96" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="96" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="96" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="96" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="96" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -23848,7 +23845,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1AB13FB-E9FE-4C12-86A9-7360E72E51C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D1AB13FB-E9FE-4C12-86A9-7360E72E51C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24186,25 +24183,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33.75" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="111" t="s">
         <v>483</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113" t="s">
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="114" t="s">
         <v>477</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113" t="s">
+      <c r="G1" s="114"/>
+      <c r="H1" s="114" t="s">
         <v>476</v>
       </c>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113" t="s">
-        <v>601</v>
-      </c>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113" t="s">
+      <c r="I1" s="114"/>
+      <c r="J1" s="114" t="s">
+        <v>600</v>
+      </c>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114" t="s">
         <v>427</v>
       </c>
     </row>
@@ -24240,18 +24237,18 @@
       <c r="K2" s="37" t="s">
         <v>455</v>
       </c>
-      <c r="L2" s="113"/>
+      <c r="L2" s="114"/>
     </row>
     <row r="3" spans="1:12" s="10" customFormat="1">
       <c r="A3" s="7"/>
       <c r="B3" s="41">
         <v>1</v>
       </c>
-      <c r="C3" s="107" t="s">
-        <v>590</v>
+      <c r="C3" s="108" t="s">
+        <v>589</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E3" s="40">
         <v>0</v>
@@ -24279,9 +24276,9 @@
     <row r="4" spans="1:12" s="10" customFormat="1">
       <c r="A4" s="7"/>
       <c r="B4" s="46"/>
-      <c r="C4" s="108"/>
+      <c r="C4" s="109"/>
       <c r="D4" s="73" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E4" s="43">
         <v>0</v>
@@ -24309,9 +24306,9 @@
     <row r="5" spans="1:12" s="10" customFormat="1">
       <c r="A5" s="7"/>
       <c r="B5" s="46"/>
-      <c r="C5" s="109"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="73" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E5" s="43">
         <v>0</v>
@@ -24339,11 +24336,11 @@
     <row r="6" spans="1:12" s="10" customFormat="1">
       <c r="A6" s="7"/>
       <c r="B6" s="46"/>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="108" t="s">
         <v>425</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E6" s="40">
         <v>1</v>
@@ -24373,9 +24370,9 @@
       <c r="B7" s="41">
         <v>2</v>
       </c>
-      <c r="C7" s="108"/>
+      <c r="C7" s="109"/>
       <c r="D7" s="73" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E7" s="40">
         <v>1</v>
@@ -24405,9 +24402,9 @@
       <c r="B8" s="41">
         <v>3</v>
       </c>
-      <c r="C8" s="109"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="73" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E8" s="40">
         <v>1</v>
@@ -24437,11 +24434,11 @@
       <c r="B9" s="41">
         <v>4</v>
       </c>
-      <c r="C9" s="114" t="s">
-        <v>715</v>
+      <c r="C9" s="107" t="s">
+        <v>714</v>
       </c>
       <c r="D9" s="73" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E9" s="40">
         <v>2</v>
@@ -24467,9 +24464,9 @@
       <c r="B10" s="41">
         <v>5</v>
       </c>
-      <c r="C10" s="114"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="73" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E10" s="39">
         <v>2</v>
@@ -24495,9 +24492,9 @@
       <c r="B11" s="41">
         <v>6</v>
       </c>
-      <c r="C11" s="114"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="73" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E11" s="39">
         <v>2</v>
@@ -24553,11 +24550,11 @@
       <c r="B13" s="41">
         <v>8</v>
       </c>
-      <c r="C13" s="114" t="s">
-        <v>728</v>
+      <c r="C13" s="107" t="s">
+        <v>727</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E13" s="39">
         <v>2</v>
@@ -24583,9 +24580,9 @@
       <c r="B14" s="41">
         <v>9</v>
       </c>
-      <c r="C14" s="114"/>
+      <c r="C14" s="107"/>
       <c r="D14" s="76" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E14" s="39">
         <v>2</v>
@@ -24611,9 +24608,9 @@
       <c r="B15" s="41">
         <v>10</v>
       </c>
-      <c r="C15" s="114"/>
+      <c r="C15" s="107"/>
       <c r="D15" s="76" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E15" s="39">
         <v>2</v>
@@ -24639,9 +24636,9 @@
       <c r="B16" s="41">
         <v>11</v>
       </c>
-      <c r="C16" s="114"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="84" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E16" s="39">
         <v>2</v>
@@ -24667,9 +24664,9 @@
       <c r="B17" s="41">
         <v>12</v>
       </c>
-      <c r="C17" s="114"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="84" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E17" s="39">
         <v>2</v>
@@ -24695,11 +24692,11 @@
       <c r="B18" s="41">
         <v>13</v>
       </c>
-      <c r="C18" s="114" t="s">
+      <c r="C18" s="107" t="s">
+        <v>743</v>
+      </c>
+      <c r="D18" s="85" t="s">
         <v>744</v>
-      </c>
-      <c r="D18" s="85" t="s">
-        <v>745</v>
       </c>
       <c r="E18" s="39">
         <v>3</v>
@@ -24725,9 +24722,9 @@
       <c r="B19" s="41">
         <v>14</v>
       </c>
-      <c r="C19" s="114"/>
+      <c r="C19" s="107"/>
       <c r="D19" s="84" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E19" s="39">
         <v>3</v>
@@ -24753,9 +24750,9 @@
       <c r="B20" s="41">
         <v>15</v>
       </c>
-      <c r="C20" s="114"/>
+      <c r="C20" s="107"/>
       <c r="D20" s="84" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E20" s="39">
         <v>3</v>
@@ -24780,11 +24777,11 @@
       <c r="B21" s="41">
         <v>16</v>
       </c>
-      <c r="C21" s="107" t="s">
-        <v>750</v>
+      <c r="C21" s="108" t="s">
+        <v>749</v>
       </c>
       <c r="D21" s="84" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E21" s="40">
         <v>4</v>
@@ -24809,9 +24806,9 @@
       <c r="B22" s="41">
         <v>17</v>
       </c>
-      <c r="C22" s="108"/>
+      <c r="C22" s="109"/>
       <c r="D22" s="84" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E22" s="40">
         <v>4</v>
@@ -24836,9 +24833,9 @@
       <c r="B23" s="41">
         <v>18</v>
       </c>
-      <c r="C23" s="108"/>
+      <c r="C23" s="109"/>
       <c r="D23" s="84" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E23" s="40">
         <v>4</v>
@@ -24863,9 +24860,9 @@
       <c r="B24" s="41">
         <v>19</v>
       </c>
-      <c r="C24" s="108"/>
+      <c r="C24" s="109"/>
       <c r="D24" s="70" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E24" s="40">
         <v>5</v>
@@ -24890,9 +24887,9 @@
       <c r="B25" s="41">
         <v>20</v>
       </c>
-      <c r="C25" s="108"/>
+      <c r="C25" s="109"/>
       <c r="D25" s="84" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E25" s="40">
         <v>4</v>
@@ -24917,11 +24914,11 @@
       <c r="B26" s="41">
         <v>21</v>
       </c>
-      <c r="C26" s="107" t="s">
-        <v>820</v>
+      <c r="C26" s="108" t="s">
+        <v>819</v>
       </c>
       <c r="D26" s="84" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E26" s="40">
         <v>5</v>
@@ -24946,9 +24943,9 @@
       <c r="B27" s="41">
         <v>22</v>
       </c>
-      <c r="C27" s="108"/>
+      <c r="C27" s="109"/>
       <c r="D27" s="84" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E27" s="40">
         <v>5</v>
@@ -24973,9 +24970,9 @@
       <c r="B28" s="41">
         <v>23</v>
       </c>
-      <c r="C28" s="108"/>
+      <c r="C28" s="109"/>
       <c r="D28" s="84" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E28" s="40">
         <v>5</v>
@@ -25000,9 +24997,9 @@
       <c r="B29" s="41">
         <v>24</v>
       </c>
-      <c r="C29" s="108"/>
+      <c r="C29" s="109"/>
       <c r="D29" s="84" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E29" s="40">
         <v>5</v>
@@ -25027,9 +25024,9 @@
       <c r="B30" s="41">
         <v>25</v>
       </c>
-      <c r="C30" s="108"/>
+      <c r="C30" s="109"/>
       <c r="D30" s="84" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E30" s="40">
         <v>5</v>
@@ -25054,11 +25051,11 @@
       <c r="B31" s="41">
         <v>26</v>
       </c>
-      <c r="C31" s="114" t="s">
-        <v>559</v>
+      <c r="C31" s="107" t="s">
+        <v>558</v>
       </c>
       <c r="D31" s="84" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E31" s="40">
         <v>1</v>
@@ -25087,9 +25084,9 @@
       <c r="B32" s="41">
         <v>27</v>
       </c>
-      <c r="C32" s="114"/>
+      <c r="C32" s="107"/>
       <c r="D32" s="84" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E32" s="40">
         <v>1</v>
@@ -25114,11 +25111,11 @@
       <c r="B33" s="41">
         <v>28</v>
       </c>
-      <c r="C33" s="114" t="s">
+      <c r="C33" s="107" t="s">
         <v>481</v>
       </c>
       <c r="D33" s="76" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E33" s="40">
         <v>1</v>
@@ -25147,9 +25144,9 @@
       <c r="B34" s="41">
         <v>29</v>
       </c>
-      <c r="C34" s="114"/>
+      <c r="C34" s="107"/>
       <c r="D34" s="85" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E34" s="40">
         <v>2</v>
@@ -25174,9 +25171,9 @@
       <c r="B35" s="41">
         <v>30</v>
       </c>
-      <c r="C35" s="114"/>
+      <c r="C35" s="107"/>
       <c r="D35" s="85" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E35" s="39">
         <v>3</v>
@@ -25201,9 +25198,9 @@
       <c r="B36" s="41">
         <v>31</v>
       </c>
-      <c r="C36" s="114"/>
+      <c r="C36" s="107"/>
       <c r="D36" s="85" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E36" s="39">
         <v>3</v>
@@ -25228,9 +25225,9 @@
       <c r="B37" s="41">
         <v>32</v>
       </c>
-      <c r="C37" s="114"/>
+      <c r="C37" s="107"/>
       <c r="D37" s="76" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E37" s="40">
         <v>4</v>
@@ -25255,9 +25252,9 @@
       <c r="B38" s="41">
         <v>33</v>
       </c>
-      <c r="C38" s="114"/>
+      <c r="C38" s="107"/>
       <c r="D38" s="85" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E38" s="40">
         <v>4</v>
@@ -25282,9 +25279,9 @@
       <c r="B39" s="41">
         <v>34</v>
       </c>
-      <c r="C39" s="114"/>
+      <c r="C39" s="107"/>
       <c r="D39" s="85" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E39" s="40">
         <v>4</v>
@@ -25309,9 +25306,9 @@
       <c r="B40" s="41">
         <v>35</v>
       </c>
-      <c r="C40" s="114"/>
+      <c r="C40" s="107"/>
       <c r="D40" s="76" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E40" s="40">
         <v>2</v>
@@ -25336,7 +25333,7 @@
       <c r="B41" s="41">
         <v>36</v>
       </c>
-      <c r="C41" s="114"/>
+      <c r="C41" s="107"/>
       <c r="D41" s="85" t="s">
         <v>487</v>
       </c>
@@ -25367,7 +25364,7 @@
         <v>482</v>
       </c>
       <c r="D42" s="84" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E42" s="40">
         <v>5</v>
@@ -25390,11 +25387,11 @@
     </row>
     <row r="43" spans="2:12">
       <c r="B43" s="41"/>
-      <c r="C43" s="107" t="s">
-        <v>817</v>
+      <c r="C43" s="108" t="s">
+        <v>816</v>
       </c>
       <c r="D43" s="84" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E43" s="40">
         <v>6</v>
@@ -25417,9 +25414,9 @@
     </row>
     <row r="44" spans="2:12">
       <c r="B44" s="41"/>
-      <c r="C44" s="108"/>
+      <c r="C44" s="109"/>
       <c r="D44" s="84" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E44" s="40">
         <v>7</v>
@@ -25442,9 +25439,9 @@
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="41"/>
-      <c r="C45" s="109"/>
+      <c r="C45" s="110"/>
       <c r="D45" s="84" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E45" s="40">
         <v>8</v>
@@ -25453,13 +25450,13 @@
         <v>1</v>
       </c>
       <c r="G45" s="51" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H45" s="9">
         <v>1</v>
       </c>
       <c r="I45" s="52" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J45" s="38"/>
       <c r="K45" s="38"/>
@@ -25467,6 +25464,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="C33:C41"/>
     <mergeCell ref="C43:C45"/>
     <mergeCell ref="C9:C11"/>
@@ -25476,12 +25479,6 @@
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C26:C30"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25527,7 +25524,7 @@
         <v>419</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F1" s="45" t="s">
         <v>459</v>
@@ -25552,29 +25549,29 @@
       <c r="A2" s="74">
         <v>1</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="107" t="s">
         <v>425</v>
       </c>
       <c r="C2" s="73" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E2" s="88">
         <v>0.5</v>
       </c>
-      <c r="F2" s="117" t="s">
-        <v>714</v>
+      <c r="F2" s="118" t="s">
+        <v>713</v>
       </c>
       <c r="G2" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H2" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I2" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J2" s="92"/>
     </row>
@@ -25582,25 +25579,25 @@
       <c r="A3" s="74">
         <v>2</v>
       </c>
-      <c r="B3" s="114"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="73" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E3" s="88">
         <v>0.5</v>
       </c>
-      <c r="F3" s="117"/>
+      <c r="F3" s="118"/>
       <c r="G3" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H3" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I3" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J3" s="92"/>
     </row>
@@ -25608,25 +25605,25 @@
       <c r="A4" s="74">
         <v>3</v>
       </c>
-      <c r="B4" s="114"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="73" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E4" s="88">
         <v>0</v>
       </c>
-      <c r="F4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H4" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I4" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J4" s="92"/>
     </row>
@@ -25634,38 +25631,38 @@
       <c r="A5" s="74">
         <v>4</v>
       </c>
-      <c r="B5" s="114" t="s">
-        <v>715</v>
+      <c r="B5" s="107" t="s">
+        <v>714</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E5" s="88">
         <v>1</v>
       </c>
       <c r="F5" s="119" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G5" s="92"/>
       <c r="H5" s="92"/>
       <c r="I5" s="92"/>
       <c r="J5" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="74">
         <v>5</v>
       </c>
-      <c r="B6" s="114"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="73" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E6" s="88">
         <v>1</v>
@@ -25675,19 +25672,19 @@
       <c r="H6" s="92"/>
       <c r="I6" s="92"/>
       <c r="J6" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="47.25">
       <c r="A7" s="74">
         <v>6</v>
       </c>
-      <c r="B7" s="114"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="73" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E7" s="88">
         <v>2</v>
@@ -25697,36 +25694,36 @@
       <c r="H7" s="92"/>
       <c r="I7" s="92"/>
       <c r="J7" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="74">
         <v>7</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="107" t="s">
         <v>485</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="117" t="s">
         <v>485</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E8" s="89">
         <v>0.5</v>
       </c>
-      <c r="F8" s="118" t="s">
-        <v>644</v>
+      <c r="F8" s="117" t="s">
+        <v>643</v>
       </c>
       <c r="G8" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H8" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I8" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J8" s="92"/>
     </row>
@@ -25734,17 +25731,17 @@
       <c r="A9" s="74">
         <v>8</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="118"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="77" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E9" s="89">
         <v>0.5</v>
       </c>
-      <c r="F9" s="118"/>
+      <c r="F9" s="117"/>
       <c r="G9" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H9" s="93"/>
       <c r="I9" s="92"/>
@@ -25754,23 +25751,23 @@
       <c r="A10" s="74">
         <v>9</v>
       </c>
-      <c r="B10" s="114" t="s">
-        <v>728</v>
-      </c>
-      <c r="C10" s="118" t="s">
-        <v>733</v>
+      <c r="B10" s="107" t="s">
+        <v>727</v>
+      </c>
+      <c r="C10" s="117" t="s">
+        <v>732</v>
       </c>
       <c r="D10" s="84" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E10" s="87">
         <v>0.2</v>
       </c>
-      <c r="F10" s="118" t="s">
-        <v>644</v>
+      <c r="F10" s="117" t="s">
+        <v>643</v>
       </c>
       <c r="G10" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H10" s="93"/>
       <c r="I10" s="92"/>
@@ -25780,17 +25777,17 @@
       <c r="A11" s="74">
         <v>10</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="118"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="117"/>
       <c r="D11" s="79" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E11" s="87">
         <v>0.5</v>
       </c>
-      <c r="F11" s="118"/>
+      <c r="F11" s="117"/>
       <c r="G11" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H11" s="93"/>
       <c r="I11" s="92"/>
@@ -25800,17 +25797,17 @@
       <c r="A12" s="74">
         <v>11</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="118"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="117"/>
       <c r="D12" s="79" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E12" s="87">
         <v>0.2</v>
       </c>
-      <c r="F12" s="118"/>
+      <c r="F12" s="117"/>
       <c r="G12" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H12" s="93"/>
       <c r="I12" s="92"/>
@@ -25820,21 +25817,21 @@
       <c r="A13" s="74">
         <v>12</v>
       </c>
-      <c r="B13" s="114"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="76" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D13" s="84" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E13" s="87">
         <v>1</v>
       </c>
       <c r="F13" s="76" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G13" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H13" s="93"/>
       <c r="I13" s="92"/>
@@ -25844,21 +25841,21 @@
       <c r="A14" s="74">
         <v>13</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="118" t="s">
-        <v>730</v>
+      <c r="B14" s="107"/>
+      <c r="C14" s="117" t="s">
+        <v>729</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E14" s="89">
         <v>0.5</v>
       </c>
-      <c r="F14" s="118" t="s">
-        <v>594</v>
+      <c r="F14" s="117" t="s">
+        <v>593</v>
       </c>
       <c r="G14" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H14" s="93"/>
       <c r="I14" s="92"/>
@@ -25868,17 +25865,17 @@
       <c r="A15" s="74">
         <v>14</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="117"/>
       <c r="D15" s="77" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E15" s="89">
         <v>0.5</v>
       </c>
-      <c r="F15" s="118"/>
+      <c r="F15" s="117"/>
       <c r="G15" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H15" s="93"/>
       <c r="I15" s="92"/>
@@ -25888,17 +25885,17 @@
       <c r="A16" s="74">
         <v>15</v>
       </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="118"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="117"/>
       <c r="D16" s="77" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E16" s="89">
         <v>0.5</v>
       </c>
-      <c r="F16" s="118"/>
+      <c r="F16" s="117"/>
       <c r="G16" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H16" s="93"/>
       <c r="I16" s="92"/>
@@ -25908,17 +25905,17 @@
       <c r="A17" s="74">
         <v>16</v>
       </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="118"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="77" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E17" s="89">
         <v>0.5</v>
       </c>
-      <c r="F17" s="118"/>
+      <c r="F17" s="117"/>
       <c r="G17" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H17" s="93"/>
       <c r="I17" s="92"/>
@@ -25928,21 +25925,21 @@
       <c r="A18" s="74">
         <v>17</v>
       </c>
-      <c r="B18" s="114"/>
-      <c r="C18" s="116" t="s">
-        <v>731</v>
+      <c r="B18" s="107"/>
+      <c r="C18" s="115" t="s">
+        <v>730</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E18" s="89">
         <v>1.5</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G18" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H18" s="92"/>
       <c r="I18" s="92"/>
@@ -25952,19 +25949,19 @@
       <c r="A19" s="74">
         <v>18</v>
       </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="116"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="77" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E19" s="89">
         <v>1.5</v>
       </c>
       <c r="F19" s="80" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G19" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H19" s="92"/>
       <c r="I19" s="92"/>
@@ -25974,21 +25971,21 @@
       <c r="A20" s="74">
         <v>19</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="116" t="s">
-        <v>732</v>
+      <c r="B20" s="107"/>
+      <c r="C20" s="115" t="s">
+        <v>731</v>
       </c>
       <c r="D20" s="77" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E20" s="89">
         <v>1.5</v>
       </c>
       <c r="F20" s="80" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G20" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H20" s="92"/>
       <c r="I20" s="92"/>
@@ -25998,19 +25995,19 @@
       <c r="A21" s="74">
         <v>20</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="116"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="77" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E21" s="89">
         <v>1.5</v>
       </c>
       <c r="F21" s="80" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G21" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H21" s="92"/>
       <c r="I21" s="92"/>
@@ -26020,24 +26017,24 @@
       <c r="A22" s="74">
         <v>21</v>
       </c>
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="107" t="s">
+        <v>743</v>
+      </c>
+      <c r="C22" s="85" t="s">
         <v>744</v>
       </c>
-      <c r="C22" s="85" t="s">
-        <v>745</v>
-      </c>
       <c r="D22" s="84" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E22" s="87">
         <v>0.5</v>
       </c>
       <c r="F22" s="83" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G22" s="92"/>
       <c r="H22" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I22" s="92"/>
       <c r="J22" s="92"/>
@@ -26046,21 +26043,21 @@
       <c r="A23" s="74">
         <v>22</v>
       </c>
-      <c r="B23" s="114"/>
+      <c r="B23" s="107"/>
       <c r="C23" s="84" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D23" s="82" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E23" s="87">
         <v>2</v>
       </c>
       <c r="F23" s="83" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G23" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H23" s="92"/>
       <c r="I23" s="92"/>
@@ -26070,24 +26067,24 @@
       <c r="A24" s="74">
         <v>23</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="116" t="s">
-        <v>747</v>
+      <c r="B24" s="107"/>
+      <c r="C24" s="115" t="s">
+        <v>746</v>
       </c>
       <c r="D24" s="82" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E24" s="87">
         <v>1</v>
       </c>
-      <c r="F24" s="115" t="s">
-        <v>704</v>
+      <c r="F24" s="116" t="s">
+        <v>703</v>
       </c>
       <c r="G24" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H24" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I24" s="92"/>
       <c r="J24" s="92"/>
@@ -26096,20 +26093,20 @@
       <c r="A25" s="74">
         <v>24</v>
       </c>
-      <c r="B25" s="114"/>
-      <c r="C25" s="116"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="82" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E25" s="87">
         <v>2</v>
       </c>
-      <c r="F25" s="115"/>
+      <c r="F25" s="116"/>
       <c r="G25" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H25" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I25" s="92"/>
       <c r="J25" s="92"/>
@@ -26118,23 +26115,23 @@
       <c r="A26" s="74">
         <v>25</v>
       </c>
-      <c r="B26" s="107" t="s">
-        <v>750</v>
-      </c>
-      <c r="C26" s="116" t="s">
-        <v>748</v>
+      <c r="B26" s="108" t="s">
+        <v>749</v>
+      </c>
+      <c r="C26" s="115" t="s">
+        <v>747</v>
       </c>
       <c r="D26" s="77" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E26" s="89">
         <v>0.5</v>
       </c>
-      <c r="F26" s="115" t="s">
-        <v>789</v>
+      <c r="F26" s="116" t="s">
+        <v>788</v>
       </c>
       <c r="G26" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H26" s="92"/>
       <c r="I26" s="92"/>
@@ -26144,17 +26141,17 @@
       <c r="A27" s="74">
         <v>26</v>
       </c>
-      <c r="B27" s="108"/>
-      <c r="C27" s="116"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="115"/>
       <c r="D27" s="77" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E27" s="89">
         <v>1.5</v>
       </c>
-      <c r="F27" s="115"/>
+      <c r="F27" s="116"/>
       <c r="G27" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H27" s="92"/>
       <c r="I27" s="92"/>
@@ -26164,17 +26161,17 @@
       <c r="A28" s="74">
         <v>27</v>
       </c>
-      <c r="B28" s="108"/>
-      <c r="C28" s="116"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="115"/>
       <c r="D28" s="77" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E28" s="89">
         <v>3</v>
       </c>
-      <c r="F28" s="115"/>
+      <c r="F28" s="116"/>
       <c r="G28" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H28" s="92"/>
       <c r="I28" s="92"/>
@@ -26184,22 +26181,22 @@
       <c r="A29" s="74">
         <v>28</v>
       </c>
-      <c r="B29" s="108"/>
-      <c r="C29" s="116" t="s">
-        <v>749</v>
+      <c r="B29" s="109"/>
+      <c r="C29" s="115" t="s">
+        <v>748</v>
       </c>
       <c r="D29" s="77" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E29" s="89">
         <v>0.5</v>
       </c>
-      <c r="F29" s="115" t="s">
-        <v>790</v>
+      <c r="F29" s="116" t="s">
+        <v>789</v>
       </c>
       <c r="G29" s="93"/>
       <c r="H29" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I29" s="92"/>
       <c r="J29" s="92"/>
@@ -26208,18 +26205,18 @@
       <c r="A30" s="74">
         <v>29</v>
       </c>
-      <c r="B30" s="108"/>
-      <c r="C30" s="116"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="115"/>
       <c r="D30" s="77" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E30" s="89">
         <v>1.5</v>
       </c>
-      <c r="F30" s="115"/>
+      <c r="F30" s="116"/>
       <c r="G30" s="93"/>
       <c r="H30" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I30" s="92"/>
       <c r="J30" s="92"/>
@@ -26228,18 +26225,18 @@
       <c r="A31" s="74">
         <v>30</v>
       </c>
-      <c r="B31" s="108"/>
-      <c r="C31" s="116"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="115"/>
       <c r="D31" s="77" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E31" s="89">
         <v>3</v>
       </c>
-      <c r="F31" s="115"/>
+      <c r="F31" s="116"/>
       <c r="G31" s="93"/>
       <c r="H31" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I31" s="92"/>
       <c r="J31" s="92"/>
@@ -26248,25 +26245,25 @@
       <c r="A32" s="74">
         <v>31</v>
       </c>
-      <c r="B32" s="108"/>
-      <c r="C32" s="116" t="s">
-        <v>751</v>
+      <c r="B32" s="109"/>
+      <c r="C32" s="115" t="s">
+        <v>750</v>
       </c>
       <c r="D32" s="82" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E32" s="87">
         <v>2</v>
       </c>
-      <c r="F32" s="115" t="s">
-        <v>789</v>
+      <c r="F32" s="116" t="s">
+        <v>788</v>
       </c>
       <c r="G32" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H32" s="92"/>
       <c r="I32" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J32" s="92"/>
     </row>
@@ -26274,21 +26271,21 @@
       <c r="A33" s="74">
         <v>32</v>
       </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="116"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="115"/>
       <c r="D33" s="82" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E33" s="87">
         <v>0.5</v>
       </c>
-      <c r="F33" s="115"/>
+      <c r="F33" s="116"/>
       <c r="G33" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H33" s="92"/>
       <c r="I33" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J33" s="92"/>
     </row>
@@ -26296,47 +26293,47 @@
       <c r="A34" s="74">
         <v>33</v>
       </c>
-      <c r="B34" s="108"/>
+      <c r="B34" s="109"/>
       <c r="C34" s="71" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D34" s="60" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E34" s="91">
         <v>5</v>
       </c>
-      <c r="F34" s="115"/>
+      <c r="F34" s="116"/>
       <c r="G34" s="93"/>
       <c r="H34" s="92"/>
       <c r="I34" s="92"/>
       <c r="J34" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1">
       <c r="A35" s="74">
         <v>34</v>
       </c>
-      <c r="B35" s="108"/>
-      <c r="C35" s="116" t="s">
-        <v>612</v>
+      <c r="B35" s="109"/>
+      <c r="C35" s="115" t="s">
+        <v>611</v>
       </c>
       <c r="D35" s="82" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E35" s="87">
         <v>0.5</v>
       </c>
-      <c r="F35" s="115" t="s">
-        <v>791</v>
+      <c r="F35" s="116" t="s">
+        <v>790</v>
       </c>
       <c r="G35" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H35" s="92"/>
       <c r="I35" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J35" s="92"/>
     </row>
@@ -26344,21 +26341,21 @@
       <c r="A36" s="74">
         <v>35</v>
       </c>
-      <c r="B36" s="108"/>
-      <c r="C36" s="116"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="115"/>
       <c r="D36" s="82" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E36" s="87">
         <v>2</v>
       </c>
-      <c r="F36" s="115"/>
+      <c r="F36" s="116"/>
       <c r="G36" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H36" s="92"/>
       <c r="I36" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J36" s="92"/>
     </row>
@@ -26366,23 +26363,23 @@
       <c r="A37" s="74">
         <v>36</v>
       </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="116"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="115"/>
       <c r="D37" s="82" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E37" s="87">
         <v>2</v>
       </c>
       <c r="F37" s="80" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G37" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H37" s="92"/>
       <c r="I37" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J37" s="92"/>
     </row>
@@ -26390,26 +26387,26 @@
       <c r="A38" s="74">
         <v>37</v>
       </c>
-      <c r="B38" s="107" t="s">
-        <v>820</v>
-      </c>
-      <c r="C38" s="116" t="s">
-        <v>553</v>
+      <c r="B38" s="108" t="s">
+        <v>819</v>
+      </c>
+      <c r="C38" s="115" t="s">
+        <v>552</v>
       </c>
       <c r="D38" s="82" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E38" s="87">
         <v>0.5</v>
       </c>
-      <c r="F38" s="115" t="s">
-        <v>761</v>
+      <c r="F38" s="116" t="s">
+        <v>760</v>
       </c>
       <c r="G38" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H38" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I38" s="92"/>
       <c r="J38" s="92"/>
@@ -26418,20 +26415,20 @@
       <c r="A39" s="74">
         <v>38</v>
       </c>
-      <c r="B39" s="108"/>
-      <c r="C39" s="116"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="115"/>
       <c r="D39" s="82" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E39" s="87">
         <v>2</v>
       </c>
-      <c r="F39" s="115"/>
+      <c r="F39" s="116"/>
       <c r="G39" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H39" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I39" s="92"/>
       <c r="J39" s="92"/>
@@ -26440,24 +26437,24 @@
       <c r="A40" s="74">
         <v>39</v>
       </c>
-      <c r="B40" s="108"/>
-      <c r="C40" s="116" t="s">
-        <v>554</v>
+      <c r="B40" s="109"/>
+      <c r="C40" s="115" t="s">
+        <v>553</v>
       </c>
       <c r="D40" s="82" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E40" s="87">
         <v>0.5</v>
       </c>
       <c r="F40" s="83" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G40" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H40" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I40" s="92"/>
       <c r="J40" s="92"/>
@@ -26466,22 +26463,22 @@
       <c r="A41" s="74">
         <v>40</v>
       </c>
-      <c r="B41" s="108"/>
-      <c r="C41" s="116"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="115"/>
       <c r="D41" s="82" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E41" s="87">
         <v>1</v>
       </c>
-      <c r="F41" s="115" t="s">
-        <v>761</v>
+      <c r="F41" s="116" t="s">
+        <v>760</v>
       </c>
       <c r="G41" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H41" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I41" s="92"/>
       <c r="J41" s="92"/>
@@ -26490,22 +26487,22 @@
       <c r="A42" s="74">
         <v>41</v>
       </c>
-      <c r="B42" s="108"/>
-      <c r="C42" s="116" t="s">
-        <v>555</v>
+      <c r="B42" s="109"/>
+      <c r="C42" s="115" t="s">
+        <v>554</v>
       </c>
       <c r="D42" s="82" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E42" s="87">
         <v>0.5</v>
       </c>
-      <c r="F42" s="115"/>
+      <c r="F42" s="116"/>
       <c r="G42" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H42" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I42" s="92"/>
       <c r="J42" s="92"/>
@@ -26514,20 +26511,20 @@
       <c r="A43" s="74">
         <v>42</v>
       </c>
-      <c r="B43" s="108"/>
-      <c r="C43" s="116"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="115"/>
       <c r="D43" s="82" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E43" s="87">
         <v>1</v>
       </c>
       <c r="F43" s="83"/>
       <c r="G43" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H43" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I43" s="92"/>
       <c r="J43" s="92"/>
@@ -26536,24 +26533,24 @@
       <c r="A44" s="74">
         <v>43</v>
       </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="116" t="s">
-        <v>556</v>
+      <c r="B44" s="109"/>
+      <c r="C44" s="115" t="s">
+        <v>555</v>
       </c>
       <c r="D44" s="82" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E44" s="87">
         <v>0.5</v>
       </c>
-      <c r="F44" s="115" t="s">
-        <v>761</v>
+      <c r="F44" s="116" t="s">
+        <v>760</v>
       </c>
       <c r="G44" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H44" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I44" s="92"/>
       <c r="J44" s="92"/>
@@ -26562,20 +26559,20 @@
       <c r="A45" s="74">
         <v>44</v>
       </c>
-      <c r="B45" s="108"/>
-      <c r="C45" s="116"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="115"/>
       <c r="D45" s="82" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E45" s="87">
         <v>1</v>
       </c>
-      <c r="F45" s="115"/>
+      <c r="F45" s="116"/>
       <c r="G45" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H45" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I45" s="92"/>
       <c r="J45" s="92"/>
@@ -26584,24 +26581,24 @@
       <c r="A46" s="74">
         <v>45</v>
       </c>
-      <c r="B46" s="108"/>
-      <c r="C46" s="116" t="s">
-        <v>557</v>
+      <c r="B46" s="109"/>
+      <c r="C46" s="115" t="s">
+        <v>556</v>
       </c>
       <c r="D46" s="82" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E46" s="87">
         <v>0.5</v>
       </c>
-      <c r="F46" s="115" t="s">
-        <v>761</v>
+      <c r="F46" s="116" t="s">
+        <v>760</v>
       </c>
       <c r="G46" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H46" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I46" s="92"/>
       <c r="J46" s="92"/>
@@ -26610,20 +26607,20 @@
       <c r="A47" s="74">
         <v>46</v>
       </c>
-      <c r="B47" s="108"/>
-      <c r="C47" s="116"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="115"/>
       <c r="D47" s="82" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E47" s="87">
         <v>0.5</v>
       </c>
-      <c r="F47" s="115"/>
+      <c r="F47" s="116"/>
       <c r="G47" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H47" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I47" s="92"/>
       <c r="J47" s="92"/>
@@ -26632,20 +26629,20 @@
       <c r="A48" s="74">
         <v>47</v>
       </c>
-      <c r="B48" s="109"/>
-      <c r="C48" s="116"/>
+      <c r="B48" s="110"/>
+      <c r="C48" s="115"/>
       <c r="D48" s="82" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E48" s="87">
         <v>1</v>
       </c>
-      <c r="F48" s="115"/>
+      <c r="F48" s="116"/>
       <c r="G48" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H48" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I48" s="92"/>
       <c r="J48" s="92"/>
@@ -26654,26 +26651,26 @@
       <c r="A49" s="74">
         <v>48</v>
       </c>
-      <c r="B49" s="114" t="s">
-        <v>559</v>
-      </c>
-      <c r="C49" s="116" t="s">
-        <v>762</v>
+      <c r="B49" s="107" t="s">
+        <v>558</v>
+      </c>
+      <c r="C49" s="115" t="s">
+        <v>761</v>
       </c>
       <c r="D49" s="82" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E49" s="87">
         <v>0.2</v>
       </c>
-      <c r="F49" s="115" t="s">
-        <v>644</v>
+      <c r="F49" s="116" t="s">
+        <v>643</v>
       </c>
       <c r="G49" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H49" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I49" s="92"/>
       <c r="J49" s="92"/>
@@ -26682,17 +26679,17 @@
       <c r="A50" s="74">
         <v>49</v>
       </c>
-      <c r="B50" s="114"/>
-      <c r="C50" s="116"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="115"/>
       <c r="D50" s="82" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E50" s="87">
         <v>0.2</v>
       </c>
-      <c r="F50" s="115"/>
+      <c r="F50" s="116"/>
       <c r="G50" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H50" s="92"/>
       <c r="I50" s="92"/>
@@ -26702,23 +26699,23 @@
       <c r="A51" s="74">
         <v>50</v>
       </c>
-      <c r="B51" s="114"/>
-      <c r="C51" s="116" t="s">
-        <v>763</v>
+      <c r="B51" s="107"/>
+      <c r="C51" s="115" t="s">
+        <v>762</v>
       </c>
       <c r="D51" s="82" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E51" s="87">
         <v>0.2</v>
       </c>
-      <c r="F51" s="115"/>
+      <c r="F51" s="116"/>
       <c r="G51" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H51" s="92"/>
       <c r="I51" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J51" s="92"/>
     </row>
@@ -26726,17 +26723,17 @@
       <c r="A52" s="74">
         <v>51</v>
       </c>
-      <c r="B52" s="114"/>
-      <c r="C52" s="116"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="115"/>
       <c r="D52" s="82" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E52" s="87">
         <v>0.2</v>
       </c>
-      <c r="F52" s="115"/>
+      <c r="F52" s="116"/>
       <c r="G52" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H52" s="92"/>
       <c r="I52" s="92"/>
@@ -26746,40 +26743,40 @@
       <c r="A53" s="74">
         <v>52</v>
       </c>
-      <c r="B53" s="114" t="s">
+      <c r="B53" s="107" t="s">
         <v>481</v>
       </c>
       <c r="C53" s="76" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D53" s="77" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E53" s="89">
         <v>2</v>
       </c>
       <c r="F53" s="76" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G53" s="93"/>
       <c r="H53" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I53" s="92"/>
       <c r="J53" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K53" s="61" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="47.25">
       <c r="A54" s="74">
         <v>53</v>
       </c>
-      <c r="B54" s="114"/>
+      <c r="B54" s="107"/>
       <c r="C54" s="85" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D54" s="77" t="s">
         <v>486</v>
@@ -26788,85 +26785,85 @@
         <v>2</v>
       </c>
       <c r="F54" s="85" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G54" s="93"/>
       <c r="H54" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I54" s="92"/>
       <c r="J54" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="220.5">
       <c r="A55" s="74">
         <v>54</v>
       </c>
-      <c r="B55" s="114"/>
+      <c r="B55" s="107"/>
       <c r="C55" s="85" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D55" s="77" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E55" s="89">
         <v>2</v>
       </c>
       <c r="F55" s="85" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G55" s="93"/>
       <c r="H55" s="93"/>
       <c r="I55" s="92"/>
       <c r="J55" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="47.25">
       <c r="A56" s="74">
         <v>55</v>
       </c>
-      <c r="B56" s="114"/>
+      <c r="B56" s="107"/>
       <c r="C56" s="85" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D56" s="77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E56" s="89">
         <v>1</v>
       </c>
       <c r="F56" s="85"/>
       <c r="G56" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H56" s="93"/>
       <c r="I56" s="92"/>
       <c r="J56" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="47.25">
       <c r="A57" s="74">
         <v>56</v>
       </c>
-      <c r="B57" s="114"/>
-      <c r="C57" s="118" t="s">
-        <v>809</v>
+      <c r="B57" s="107"/>
+      <c r="C57" s="117" t="s">
+        <v>808</v>
       </c>
       <c r="D57" s="77" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E57" s="89">
         <v>1</v>
       </c>
       <c r="F57" s="85" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G57" s="93"/>
       <c r="H57" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I57" s="92"/>
       <c r="J57" s="92"/>
@@ -26875,82 +26872,82 @@
       <c r="A58" s="74">
         <v>57</v>
       </c>
-      <c r="B58" s="114"/>
-      <c r="C58" s="118"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="117"/>
       <c r="D58" s="77" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E58" s="89">
         <v>3</v>
       </c>
       <c r="F58" s="85" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G58" s="93"/>
       <c r="H58" s="93"/>
       <c r="I58" s="92"/>
       <c r="J58" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="31.5">
       <c r="A59" s="74">
         <v>58</v>
       </c>
-      <c r="B59" s="114"/>
+      <c r="B59" s="107"/>
       <c r="C59" s="85" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D59" s="77" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E59" s="89">
         <v>2</v>
       </c>
       <c r="F59" s="85" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G59" s="93"/>
       <c r="H59" s="93"/>
       <c r="I59" s="92"/>
       <c r="J59" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="78.75">
       <c r="A60" s="74">
         <v>59</v>
       </c>
-      <c r="B60" s="114"/>
+      <c r="B60" s="107"/>
       <c r="C60" s="85" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D60" s="77" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E60" s="89">
         <v>2</v>
       </c>
       <c r="F60" s="85" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G60" s="93"/>
       <c r="H60" s="93"/>
       <c r="I60" s="92"/>
       <c r="J60" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="47.25">
       <c r="A61" s="74">
         <v>60</v>
       </c>
-      <c r="B61" s="114"/>
+      <c r="B61" s="107"/>
       <c r="C61" s="76" t="s">
+        <v>678</v>
+      </c>
+      <c r="D61" s="77" t="s">
         <v>679</v>
-      </c>
-      <c r="D61" s="77" t="s">
-        <v>680</v>
       </c>
       <c r="E61" s="89">
         <v>5</v>
@@ -26958,7 +26955,7 @@
       <c r="F61" s="94"/>
       <c r="G61" s="93"/>
       <c r="H61" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I61" s="92"/>
       <c r="J61" s="92"/>
@@ -26967,40 +26964,40 @@
       <c r="A62" s="74">
         <v>61</v>
       </c>
-      <c r="B62" s="114"/>
+      <c r="B62" s="107"/>
       <c r="C62" s="85" t="s">
         <v>487</v>
       </c>
       <c r="D62" s="77" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E62" s="89">
         <v>2</v>
       </c>
       <c r="F62" s="85" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G62" s="93"/>
       <c r="H62" s="93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I62" s="92"/>
       <c r="J62" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="31.5">
       <c r="A63" s="74">
         <v>62</v>
       </c>
-      <c r="B63" s="114" t="s">
+      <c r="B63" s="107" t="s">
         <v>482</v>
       </c>
-      <c r="C63" s="116" t="s">
-        <v>597</v>
+      <c r="C63" s="115" t="s">
+        <v>596</v>
       </c>
       <c r="D63" s="82" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E63" s="87">
         <v>1</v>
@@ -27010,17 +27007,17 @@
       <c r="H63" s="92"/>
       <c r="I63" s="92"/>
       <c r="J63" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="31.5">
       <c r="A64" s="74">
         <v>63</v>
       </c>
-      <c r="B64" s="114"/>
-      <c r="C64" s="116"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="115"/>
       <c r="D64" s="82" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E64" s="87">
         <v>1</v>
@@ -27030,17 +27027,17 @@
       <c r="H64" s="92"/>
       <c r="I64" s="92"/>
       <c r="J64" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="74">
         <v>64</v>
       </c>
-      <c r="B65" s="114"/>
-      <c r="C65" s="116"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="115"/>
       <c r="D65" s="82" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E65" s="87">
         <v>1</v>
@@ -27050,33 +27047,19 @@
       <c r="H65" s="92"/>
       <c r="I65" s="92"/>
       <c r="J65" s="92" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B38:B48"/>
-    <mergeCell ref="B53:B62"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="F2:F4"/>
@@ -27091,14 +27074,28 @@
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="C20:C21"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B38:B48"/>
+    <mergeCell ref="B53:B62"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="F49:F52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -27107,10 +27104,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G238"/>
+  <dimension ref="A1:G237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B229" sqref="B229"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -27127,7 +27124,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="57" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -27235,7 +27232,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="96" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C7" s="96" t="s">
         <v>436</v>
@@ -27253,7 +27250,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="96" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C8" s="96" t="s">
         <v>436</v>
@@ -27276,7 +27273,7 @@
     </row>
     <row r="11" spans="1:6" s="11" customFormat="1">
       <c r="A11" s="104" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D11" s="105"/>
       <c r="F11" s="106"/>
@@ -27318,7 +27315,7 @@
         <v>435</v>
       </c>
       <c r="F13" s="78" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -27326,7 +27323,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="96" t="s">
-        <v>503</v>
+        <v>826</v>
       </c>
       <c r="C14" s="96" t="s">
         <v>434</v>
@@ -27338,7 +27335,7 @@
         <v>435</v>
       </c>
       <c r="F14" s="78" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -27346,7 +27343,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="96" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C15" s="96" t="s">
         <v>434</v>
@@ -27358,7 +27355,7 @@
         <v>435</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -27366,7 +27363,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="96" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C16" s="96" t="s">
         <v>434</v>
@@ -27378,7 +27375,7 @@
         <v>435</v>
       </c>
       <c r="F16" s="78" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="63">
@@ -27386,7 +27383,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="102" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C17" s="99" t="s">
         <v>488</v>
@@ -27398,7 +27395,7 @@
         <v>435</v>
       </c>
       <c r="F17" s="79" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -27406,10 +27403,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="96" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C18" s="96" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D18" s="97">
         <v>2</v>
@@ -27418,7 +27415,7 @@
         <v>435</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -27426,7 +27423,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="96" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C19" s="96" t="s">
         <v>436</v>
@@ -27436,7 +27433,7 @@
         <v>435</v>
       </c>
       <c r="F19" s="78" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -27444,7 +27441,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="96" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C20" s="96" t="s">
         <v>436</v>
@@ -27454,7 +27451,7 @@
         <v>452</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -27464,7 +27461,7 @@
     </row>
     <row r="23" spans="1:7" s="11" customFormat="1">
       <c r="A23" s="104" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D23" s="105"/>
       <c r="F23" s="106"/>
@@ -27506,7 +27503,7 @@
         <v>435</v>
       </c>
       <c r="F25" s="78" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -27514,7 +27511,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="102" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C26" s="96" t="s">
         <v>434</v>
@@ -27526,10 +27523,10 @@
         <v>435</v>
       </c>
       <c r="F26" s="81" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G26" s="56" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -27537,20 +27534,20 @@
         <v>3</v>
       </c>
       <c r="B27" s="96" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C27" s="96" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D27" s="97"/>
       <c r="E27" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F27" s="78" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G27" s="56" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -27558,7 +27555,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C28" s="96" t="s">
         <v>434</v>
@@ -27570,10 +27567,10 @@
         <v>435</v>
       </c>
       <c r="F28" s="79" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G28" s="56" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -27581,20 +27578,20 @@
         <v>5</v>
       </c>
       <c r="B29" s="96" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C29" s="96" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D29" s="97"/>
       <c r="E29" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F29" s="78" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G29" s="56" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -27602,20 +27599,20 @@
         <v>6</v>
       </c>
       <c r="B30" s="96" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C30" s="96" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D30" s="97"/>
       <c r="E30" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F30" s="78" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G30" s="56" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -27623,20 +27620,20 @@
         <v>7</v>
       </c>
       <c r="B31" s="96" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C31" s="96" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D31" s="97"/>
       <c r="E31" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F31" s="78" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G31" s="56" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -27644,20 +27641,20 @@
         <v>8</v>
       </c>
       <c r="B32" s="96" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C32" s="96" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D32" s="97"/>
       <c r="E32" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F32" s="78" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G32" s="56" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -27665,20 +27662,20 @@
         <v>9</v>
       </c>
       <c r="B33" s="96" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C33" s="96" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D33" s="97"/>
       <c r="E33" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F33" s="78" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G33" s="56" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -27686,20 +27683,20 @@
         <v>10</v>
       </c>
       <c r="B34" s="96" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C34" s="96" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D34" s="97"/>
       <c r="E34" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F34" s="78" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G34" s="56" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.25" customHeight="1">
@@ -27707,7 +27704,7 @@
         <v>11</v>
       </c>
       <c r="B35" s="96" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C35" s="96" t="s">
         <v>436</v>
@@ -27717,7 +27714,7 @@
         <v>435</v>
       </c>
       <c r="F35" s="78" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -27725,7 +27722,7 @@
         <v>12</v>
       </c>
       <c r="B36" s="96" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C36" s="96" t="s">
         <v>436</v>
@@ -27735,7 +27732,7 @@
         <v>452</v>
       </c>
       <c r="F36" s="78" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -27745,7 +27742,7 @@
     </row>
     <row r="39" spans="1:7" s="11" customFormat="1">
       <c r="A39" s="104" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D39" s="105"/>
       <c r="F39" s="106"/>
@@ -27787,7 +27784,7 @@
         <v>435</v>
       </c>
       <c r="F41" s="78" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -27795,7 +27792,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="102" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C42" s="99" t="s">
         <v>488</v>
@@ -27807,7 +27804,7 @@
         <v>452</v>
       </c>
       <c r="F42" s="78" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -27815,7 +27812,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="96" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C43" s="96" t="s">
         <v>434</v>
@@ -27827,7 +27824,7 @@
         <v>435</v>
       </c>
       <c r="F43" s="78" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -27835,7 +27832,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="96" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C44" s="99" t="s">
         <v>488</v>
@@ -27847,7 +27844,7 @@
         <v>435</v>
       </c>
       <c r="F44" s="78" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -27855,7 +27852,7 @@
         <v>5</v>
       </c>
       <c r="B45" s="102" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C45" s="96" t="s">
         <v>434</v>
@@ -27867,7 +27864,7 @@
         <v>435</v>
       </c>
       <c r="F45" s="79" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -27875,7 +27872,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="102" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C46" s="96" t="s">
         <v>434</v>
@@ -27887,7 +27884,7 @@
         <v>435</v>
       </c>
       <c r="F46" s="79" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -27895,13 +27892,13 @@
         <v>7</v>
       </c>
       <c r="B47" s="102" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C47" s="102"/>
       <c r="D47" s="103"/>
       <c r="E47" s="102"/>
       <c r="F47" s="79" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -27909,7 +27906,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="96" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C48" s="96" t="s">
         <v>436</v>
@@ -27919,7 +27916,7 @@
         <v>435</v>
       </c>
       <c r="F48" s="78" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -27927,7 +27924,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="96" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C49" s="96" t="s">
         <v>436</v>
@@ -27937,7 +27934,7 @@
         <v>452</v>
       </c>
       <c r="F49" s="78" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -27947,7 +27944,7 @@
     </row>
     <row r="52" spans="1:6" s="11" customFormat="1">
       <c r="A52" s="104" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D52" s="105"/>
       <c r="F52" s="106"/>
@@ -27989,7 +27986,7 @@
         <v>435</v>
       </c>
       <c r="F54" s="78" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -27997,7 +27994,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="102" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C55" s="99" t="s">
         <v>488</v>
@@ -28009,7 +28006,7 @@
         <v>452</v>
       </c>
       <c r="F55" s="79" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -28017,7 +28014,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="102" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C56" s="99" t="s">
         <v>488</v>
@@ -28029,7 +28026,7 @@
         <v>435</v>
       </c>
       <c r="F56" s="79" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -28187,7 +28184,7 @@
         <v>435</v>
       </c>
       <c r="F64" s="101" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -28255,7 +28252,7 @@
         <v>18</v>
       </c>
       <c r="B68" s="96" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C68" s="96" t="s">
         <v>436</v>
@@ -28273,7 +28270,7 @@
         <v>19</v>
       </c>
       <c r="B69" s="96" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C69" s="96" t="s">
         <v>436</v>
@@ -28293,7 +28290,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="104" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -28333,7 +28330,7 @@
         <v>435</v>
       </c>
       <c r="F73" s="78" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -28341,7 +28338,7 @@
         <v>2</v>
       </c>
       <c r="B74" s="102" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C74" s="96" t="s">
         <v>434</v>
@@ -28353,7 +28350,7 @@
         <v>435</v>
       </c>
       <c r="F74" s="78" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -28361,7 +28358,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="102" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C75" s="99" t="s">
         <v>488</v>
@@ -28373,7 +28370,7 @@
         <v>452</v>
       </c>
       <c r="F75" s="79" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -28381,7 +28378,7 @@
         <v>3</v>
       </c>
       <c r="B76" s="102" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C76" s="99" t="s">
         <v>488</v>
@@ -28393,7 +28390,7 @@
         <v>435</v>
       </c>
       <c r="F76" s="79" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -28401,7 +28398,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="99" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C77" s="99" t="s">
         <v>438</v>
@@ -28413,7 +28410,7 @@
         <v>452</v>
       </c>
       <c r="F77" s="101" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -28421,7 +28418,7 @@
         <v>5</v>
       </c>
       <c r="B78" s="102" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C78" s="99" t="s">
         <v>438</v>
@@ -28433,7 +28430,7 @@
         <v>452</v>
       </c>
       <c r="F78" s="79" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -28441,10 +28438,10 @@
         <v>6</v>
       </c>
       <c r="B79" s="99" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C79" s="99" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D79" s="100">
         <v>8</v>
@@ -28453,7 +28450,7 @@
         <v>452</v>
       </c>
       <c r="F79" s="101" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -28476,7 +28473,7 @@
         <v>500</v>
       </c>
       <c r="G80" s="56" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="31.5">
@@ -28496,10 +28493,10 @@
         <v>435</v>
       </c>
       <c r="F81" s="101" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G81" s="56" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="31.5">
@@ -28507,7 +28504,7 @@
         <v>8</v>
       </c>
       <c r="B82" s="99" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C82" s="99" t="s">
         <v>438</v>
@@ -28519,10 +28516,10 @@
         <v>435</v>
       </c>
       <c r="F82" s="101" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G82" s="56" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -28542,7 +28539,7 @@
         <v>435</v>
       </c>
       <c r="F83" s="81" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G83" s="56" t="s">
         <v>2</v>
@@ -28553,7 +28550,7 @@
         <v>10</v>
       </c>
       <c r="B84" s="99" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C84" s="99" t="s">
         <v>438</v>
@@ -28565,7 +28562,7 @@
         <v>435</v>
       </c>
       <c r="F84" s="101" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G84" s="56" t="s">
         <v>2</v>
@@ -28576,7 +28573,7 @@
         <v>11</v>
       </c>
       <c r="B85" s="102" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C85" s="99" t="s">
         <v>438</v>
@@ -28588,7 +28585,7 @@
         <v>435</v>
       </c>
       <c r="F85" s="79" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G85" s="56" t="s">
         <v>2</v>
@@ -28599,7 +28596,7 @@
         <v>12</v>
       </c>
       <c r="B86" s="102" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C86" s="99" t="s">
         <v>438</v>
@@ -28611,7 +28608,7 @@
         <v>435</v>
       </c>
       <c r="F86" s="79" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G86" s="56" t="s">
         <v>2</v>
@@ -28622,17 +28619,17 @@
         <v>13</v>
       </c>
       <c r="B87" s="96" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C87" s="96" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D87" s="97"/>
       <c r="E87" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F87" s="78" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G87" s="56" t="s">
         <v>2</v>
@@ -28643,7 +28640,7 @@
         <v>14</v>
       </c>
       <c r="B88" s="96" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C88" s="96" t="s">
         <v>434</v>
@@ -28655,7 +28652,7 @@
         <v>435</v>
       </c>
       <c r="F88" s="79" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G88" s="56" t="s">
         <v>2</v>
@@ -28666,7 +28663,7 @@
         <v>15</v>
       </c>
       <c r="B89" s="96" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C89" s="96" t="s">
         <v>436</v>
@@ -28684,7 +28681,7 @@
         <v>16</v>
       </c>
       <c r="B90" s="96" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C90" s="96" t="s">
         <v>436</v>
@@ -28702,7 +28699,7 @@
         <v>16</v>
       </c>
       <c r="B91" s="96" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C91" s="96" t="s">
         <v>436</v>
@@ -28725,7 +28722,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="104" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -28765,7 +28762,7 @@
         <v>435</v>
       </c>
       <c r="F96" s="78" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -28773,7 +28770,7 @@
         <v>2</v>
       </c>
       <c r="B97" s="102" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C97" s="96" t="s">
         <v>434</v>
@@ -28785,7 +28782,7 @@
         <v>435</v>
       </c>
       <c r="F97" s="78" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -28793,7 +28790,7 @@
         <v>3</v>
       </c>
       <c r="B98" s="99" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C98" s="99" t="s">
         <v>438</v>
@@ -28805,7 +28802,7 @@
         <v>452</v>
       </c>
       <c r="F98" s="101" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -28813,7 +28810,7 @@
         <v>4</v>
       </c>
       <c r="B99" s="102" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C99" s="99" t="s">
         <v>438</v>
@@ -28825,7 +28822,7 @@
         <v>452</v>
       </c>
       <c r="F99" s="79" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -28833,17 +28830,17 @@
         <v>5</v>
       </c>
       <c r="B100" s="99" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C100" s="99" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D100" s="100"/>
       <c r="E100" s="96" t="s">
         <v>452</v>
       </c>
       <c r="F100" s="101" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="31.5">
@@ -28863,7 +28860,7 @@
         <v>435</v>
       </c>
       <c r="F101" s="101" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -28871,7 +28868,7 @@
         <v>7</v>
       </c>
       <c r="B102" s="96" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C102" s="96" t="s">
         <v>436</v>
@@ -28889,7 +28886,7 @@
         <v>8</v>
       </c>
       <c r="B103" s="96" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C103" s="96" t="s">
         <v>436</v>
@@ -28909,7 +28906,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="104" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -28949,7 +28946,7 @@
         <v>435</v>
       </c>
       <c r="F108" s="79" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -28957,7 +28954,7 @@
         <v>2</v>
       </c>
       <c r="B109" s="102" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C109" s="102" t="s">
         <v>434</v>
@@ -28969,7 +28966,7 @@
         <v>435</v>
       </c>
       <c r="F109" s="79" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -28977,7 +28974,7 @@
         <v>3</v>
       </c>
       <c r="B110" s="102" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C110" s="102" t="s">
         <v>434</v>
@@ -28989,124 +28986,124 @@
         <v>452</v>
       </c>
       <c r="F110" s="79" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B111" s="102" t="s">
-        <v>828</v>
+        <v>718</v>
       </c>
       <c r="C111" s="102" t="s">
-        <v>434</v>
-      </c>
-      <c r="D111" s="103">
-        <v>8</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="D111" s="103"/>
       <c r="E111" s="102" t="s">
         <v>452</v>
       </c>
       <c r="F111" s="79" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B112" s="102" t="s">
-        <v>719</v>
+        <v>517</v>
       </c>
       <c r="C112" s="102" t="s">
-        <v>549</v>
+        <v>436</v>
       </c>
       <c r="D112" s="103"/>
       <c r="E112" s="102" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="F112" s="79" t="s">
-        <v>723</v>
+        <v>440</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="64">
-        <v>6</v>
-      </c>
-      <c r="B113" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="96" t="s">
         <v>518</v>
       </c>
-      <c r="C113" s="102" t="s">
+      <c r="C113" s="96" t="s">
         <v>436</v>
       </c>
-      <c r="D113" s="103"/>
-      <c r="E113" s="102" t="s">
+      <c r="D113" s="97"/>
+      <c r="E113" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="F113" s="78" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="57"/>
+    </row>
+    <row r="116" spans="1:6" s="11" customFormat="1">
+      <c r="A116" s="104" t="s">
+        <v>520</v>
+      </c>
+      <c r="D116" s="105"/>
+      <c r="F116" s="106"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="53" t="s">
+        <v>429</v>
+      </c>
+      <c r="C117" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="D117" s="53" t="s">
+        <v>496</v>
+      </c>
+      <c r="E117" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="F117" s="55" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="95">
+        <v>1</v>
+      </c>
+      <c r="B118" s="96" t="s">
+        <v>432</v>
+      </c>
+      <c r="C118" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D118" s="97">
+        <v>8</v>
+      </c>
+      <c r="E118" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F113" s="79" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="64">
-        <v>7</v>
-      </c>
-      <c r="B114" s="96" t="s">
-        <v>519</v>
-      </c>
-      <c r="C114" s="96" t="s">
-        <v>436</v>
-      </c>
-      <c r="D114" s="97"/>
-      <c r="E114" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="F114" s="78" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="57"/>
-    </row>
-    <row r="117" spans="1:6" s="11" customFormat="1">
-      <c r="A117" s="104" t="s">
-        <v>521</v>
-      </c>
-      <c r="D117" s="105"/>
-      <c r="F117" s="106"/>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118" s="53" t="s">
-        <v>429</v>
-      </c>
-      <c r="C118" s="53" t="s">
-        <v>430</v>
-      </c>
-      <c r="D118" s="53" t="s">
-        <v>496</v>
-      </c>
-      <c r="E118" s="54" t="s">
-        <v>431</v>
-      </c>
-      <c r="F118" s="55" t="s">
-        <v>428</v>
+      <c r="F118" s="78" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B119" s="96" t="s">
-        <v>432</v>
+        <v>826</v>
       </c>
       <c r="C119" s="96" t="s">
         <v>434</v>
@@ -29118,15 +29115,15 @@
         <v>435</v>
       </c>
       <c r="F119" s="78" t="s">
-        <v>507</v>
+        <v>719</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B120" s="96" t="s">
-        <v>827</v>
+        <v>574</v>
       </c>
       <c r="C120" s="96" t="s">
         <v>434</v>
@@ -29137,93 +29134,91 @@
       <c r="E120" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F120" s="78" t="s">
-        <v>720</v>
+      <c r="F120" s="79" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B121" s="96" t="s">
-        <v>575</v>
-      </c>
-      <c r="C121" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D121" s="97">
-        <v>8</v>
+        <v>447</v>
+      </c>
+      <c r="C121" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="D121" s="100">
+        <v>50</v>
       </c>
       <c r="E121" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F121" s="79" t="s">
-        <v>678</v>
+      <c r="F121" s="78" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B122" s="96" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="C122" s="99" t="s">
         <v>488</v>
       </c>
       <c r="D122" s="100">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="E122" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F122" s="78" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="95">
-        <v>5</v>
-      </c>
-      <c r="B123" s="96" t="s">
-        <v>505</v>
+        <v>6</v>
+      </c>
+      <c r="B123" s="99" t="s">
+        <v>460</v>
       </c>
       <c r="C123" s="99" t="s">
-        <v>488</v>
+        <v>438</v>
       </c>
       <c r="D123" s="100">
-        <v>255</v>
+        <v>2</v>
       </c>
       <c r="E123" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F123" s="78" t="s">
-        <v>506</v>
+      <c r="F123" s="101" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="95">
-        <v>6</v>
-      </c>
-      <c r="B124" s="99" t="s">
-        <v>460</v>
-      </c>
-      <c r="C124" s="99" t="s">
-        <v>438</v>
-      </c>
-      <c r="D124" s="100">
-        <v>2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B124" s="96" t="s">
+        <v>517</v>
+      </c>
+      <c r="C124" s="96" t="s">
+        <v>436</v>
+      </c>
+      <c r="D124" s="97"/>
       <c r="E124" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F124" s="101" t="s">
-        <v>511</v>
+      <c r="F124" s="78" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="95">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B125" s="96" t="s">
         <v>518</v>
@@ -29233,68 +29228,70 @@
       </c>
       <c r="D125" s="97"/>
       <c r="E125" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="F125" s="78" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="11" customFormat="1">
+      <c r="A128" s="104" t="s">
+        <v>521</v>
+      </c>
+      <c r="D128" s="105"/>
+      <c r="F128" s="106"/>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="53" t="s">
+        <v>429</v>
+      </c>
+      <c r="C129" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="D129" s="53" t="s">
+        <v>496</v>
+      </c>
+      <c r="E129" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="F129" s="55" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="95">
+        <v>1</v>
+      </c>
+      <c r="B130" s="96" t="s">
+        <v>432</v>
+      </c>
+      <c r="C130" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D130" s="97">
+        <v>8</v>
+      </c>
+      <c r="E130" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F125" s="78" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="95">
-        <v>8</v>
-      </c>
-      <c r="B126" s="96" t="s">
-        <v>519</v>
-      </c>
-      <c r="C126" s="96" t="s">
-        <v>436</v>
-      </c>
-      <c r="D126" s="97"/>
-      <c r="E126" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="F126" s="78" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" s="11" customFormat="1">
-      <c r="A129" s="104" t="s">
-        <v>522</v>
-      </c>
-      <c r="D129" s="105"/>
-      <c r="F129" s="106"/>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B130" s="53" t="s">
-        <v>429</v>
-      </c>
-      <c r="C130" s="53" t="s">
-        <v>430</v>
-      </c>
-      <c r="D130" s="53" t="s">
-        <v>496</v>
-      </c>
-      <c r="E130" s="54" t="s">
-        <v>431</v>
-      </c>
-      <c r="F130" s="55" t="s">
-        <v>428</v>
+      <c r="F130" s="78" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="95">
-        <v>1</v>
+      <c r="A131" s="98">
+        <v>2</v>
       </c>
       <c r="B131" s="96" t="s">
-        <v>432</v>
+        <v>826</v>
       </c>
       <c r="C131" s="96" t="s">
         <v>434</v>
@@ -29306,15 +29303,15 @@
         <v>435</v>
       </c>
       <c r="F131" s="78" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="95">
+        <v>3</v>
+      </c>
+      <c r="B132" s="96" t="s">
         <v>508</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="98">
-        <v>2</v>
-      </c>
-      <c r="B132" s="96" t="s">
-        <v>827</v>
       </c>
       <c r="C132" s="96" t="s">
         <v>434</v>
@@ -29326,75 +29323,75 @@
         <v>435</v>
       </c>
       <c r="F132" s="78" t="s">
-        <v>720</v>
+        <v>522</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="95">
-        <v>3</v>
+      <c r="A133" s="98">
+        <v>4</v>
       </c>
       <c r="B133" s="96" t="s">
-        <v>509</v>
-      </c>
-      <c r="C133" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D133" s="97">
-        <v>8</v>
+        <v>447</v>
+      </c>
+      <c r="C133" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="D133" s="100">
+        <v>50</v>
       </c>
       <c r="E133" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F133" s="78" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="98">
-        <v>4</v>
+      <c r="A134" s="64">
+        <v>5</v>
       </c>
       <c r="B134" s="96" t="s">
-        <v>447</v>
-      </c>
-      <c r="C134" s="99" t="s">
-        <v>488</v>
-      </c>
-      <c r="D134" s="100">
-        <v>50</v>
+        <v>616</v>
+      </c>
+      <c r="C134" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D134" s="97">
+        <v>8</v>
       </c>
       <c r="E134" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F134" s="78" t="s">
-        <v>510</v>
+      <c r="F134" s="79" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="64">
-        <v>5</v>
+      <c r="A135" s="95">
+        <v>6</v>
       </c>
       <c r="B135" s="96" t="s">
         <v>617</v>
       </c>
-      <c r="C135" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D135" s="97">
-        <v>8</v>
+      <c r="C135" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="D135" s="100">
+        <v>50</v>
       </c>
       <c r="E135" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F135" s="79" t="s">
+        <v>452</v>
+      </c>
+      <c r="F135" s="78" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="95">
-        <v>6</v>
-      </c>
-      <c r="B136" s="96" t="s">
-        <v>618</v>
+      <c r="A136" s="98">
+        <v>7</v>
+      </c>
+      <c r="B136" s="99" t="s">
+        <v>538</v>
       </c>
       <c r="C136" s="99" t="s">
         <v>488</v>
@@ -29403,24 +29400,24 @@
         <v>50</v>
       </c>
       <c r="E136" s="96" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="F136" s="78" t="s">
-        <v>635</v>
+        <v>539</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="98">
-        <v>7</v>
-      </c>
-      <c r="B137" s="99" t="s">
-        <v>539</v>
+      <c r="A137" s="95">
+        <v>8</v>
+      </c>
+      <c r="B137" s="96" t="s">
+        <v>464</v>
       </c>
       <c r="C137" s="99" t="s">
         <v>488</v>
       </c>
       <c r="D137" s="100">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="E137" s="96" t="s">
         <v>435</v>
@@ -29429,52 +29426,52 @@
         <v>540</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="95">
+    <row r="138" spans="1:6" ht="31.5">
+      <c r="A138" s="98">
+        <v>9</v>
+      </c>
+      <c r="B138" s="99" t="s">
+        <v>656</v>
+      </c>
+      <c r="C138" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D138" s="100">
         <v>8</v>
-      </c>
-      <c r="B138" s="96" t="s">
-        <v>464</v>
-      </c>
-      <c r="C138" s="99" t="s">
-        <v>488</v>
-      </c>
-      <c r="D138" s="100">
-        <v>255</v>
       </c>
       <c r="E138" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F138" s="78" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="31.5">
-      <c r="A139" s="98">
-        <v>9</v>
-      </c>
-      <c r="B139" s="99" t="s">
+      <c r="F138" s="101" t="s">
         <v>657</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="95">
+        <v>10</v>
+      </c>
+      <c r="B139" s="102" t="s">
+        <v>655</v>
       </c>
       <c r="C139" s="99" t="s">
         <v>438</v>
       </c>
       <c r="D139" s="100">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E139" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F139" s="101" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="95">
-        <v>10</v>
-      </c>
-      <c r="B140" s="102" t="s">
-        <v>656</v>
+      <c r="F139" s="79" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="31.5">
+      <c r="A140" s="98">
+        <v>11</v>
+      </c>
+      <c r="B140" s="99" t="s">
+        <v>514</v>
       </c>
       <c r="C140" s="99" t="s">
         <v>438</v>
@@ -29485,16 +29482,16 @@
       <c r="E140" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F140" s="79" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="31.5">
-      <c r="A141" s="98">
-        <v>11</v>
+      <c r="F140" s="101" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="47.25">
+      <c r="A141" s="95">
+        <v>12</v>
       </c>
       <c r="B141" s="99" t="s">
-        <v>515</v>
+        <v>460</v>
       </c>
       <c r="C141" s="99" t="s">
         <v>438</v>
@@ -29506,32 +29503,30 @@
         <v>435</v>
       </c>
       <c r="F141" s="101" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="47.25">
-      <c r="A142" s="95">
-        <v>12</v>
-      </c>
-      <c r="B142" s="99" t="s">
-        <v>460</v>
-      </c>
-      <c r="C142" s="99" t="s">
-        <v>438</v>
-      </c>
-      <c r="D142" s="100">
-        <v>2</v>
-      </c>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="98">
+        <v>13</v>
+      </c>
+      <c r="B142" s="96" t="s">
+        <v>517</v>
+      </c>
+      <c r="C142" s="96" t="s">
+        <v>436</v>
+      </c>
+      <c r="D142" s="97"/>
       <c r="E142" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F142" s="101" t="s">
-        <v>821</v>
+      <c r="F142" s="78" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="98">
-        <v>13</v>
+      <c r="A143" s="95">
+        <v>14</v>
       </c>
       <c r="B143" s="96" t="s">
         <v>518</v>
@@ -29541,68 +29536,73 @@
       </c>
       <c r="D143" s="97"/>
       <c r="E143" s="96" t="s">
+        <v>452</v>
+      </c>
+      <c r="F143" s="78" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="11" customFormat="1">
+      <c r="A146" s="104" t="s">
+        <v>769</v>
+      </c>
+      <c r="D146" s="105"/>
+      <c r="F146" s="106"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="53" t="s">
+        <v>429</v>
+      </c>
+      <c r="C147" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="D147" s="53" t="s">
+        <v>496</v>
+      </c>
+      <c r="E147" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="F147" s="55" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="95">
+        <v>1</v>
+      </c>
+      <c r="B148" s="96" t="s">
+        <v>432</v>
+      </c>
+      <c r="C148" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D148" s="97">
+        <v>8</v>
+      </c>
+      <c r="E148" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F143" s="78" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="95">
-        <v>14</v>
-      </c>
-      <c r="B144" s="96" t="s">
-        <v>519</v>
-      </c>
-      <c r="C144" s="96" t="s">
-        <v>436</v>
-      </c>
-      <c r="D144" s="97"/>
-      <c r="E144" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="F144" s="78" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" s="11" customFormat="1">
-      <c r="A147" s="104" t="s">
-        <v>770</v>
-      </c>
-      <c r="D147" s="105"/>
-      <c r="F147" s="106"/>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B148" s="53" t="s">
-        <v>429</v>
-      </c>
-      <c r="C148" s="53" t="s">
-        <v>430</v>
-      </c>
-      <c r="D148" s="53" t="s">
-        <v>496</v>
-      </c>
-      <c r="E148" s="54" t="s">
-        <v>431</v>
-      </c>
-      <c r="F148" s="55" t="s">
-        <v>428</v>
+      <c r="F148" s="78" t="s">
+        <v>526</v>
+      </c>
+      <c r="G148" s="56" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B149" s="96" t="s">
-        <v>432</v>
+        <v>826</v>
       </c>
       <c r="C149" s="96" t="s">
         <v>434</v>
@@ -29614,18 +29614,15 @@
         <v>435</v>
       </c>
       <c r="F149" s="78" t="s">
-        <v>527</v>
-      </c>
-      <c r="G149" s="56" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" hidden="1">
       <c r="A150" s="95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B150" s="96" t="s">
-        <v>827</v>
+        <v>513</v>
       </c>
       <c r="C150" s="96" t="s">
         <v>434</v>
@@ -29637,15 +29634,15 @@
         <v>435</v>
       </c>
       <c r="F150" s="78" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" hidden="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B151" s="96" t="s">
-        <v>514</v>
+        <v>770</v>
       </c>
       <c r="C151" s="96" t="s">
         <v>434</v>
@@ -29657,12 +29654,12 @@
         <v>435</v>
       </c>
       <c r="F151" s="78" t="s">
-        <v>524</v>
+        <v>786</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B152" s="96" t="s">
         <v>771</v>
@@ -29677,163 +29674,166 @@
         <v>435</v>
       </c>
       <c r="F152" s="78" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="95">
-        <v>5</v>
-      </c>
-      <c r="B153" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B153" s="102" t="s">
         <v>772</v>
       </c>
-      <c r="C153" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D153" s="97">
-        <v>8</v>
-      </c>
+      <c r="C153" s="99" t="s">
+        <v>571</v>
+      </c>
+      <c r="D153" s="100"/>
       <c r="E153" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F153" s="78" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="95">
-        <v>6</v>
-      </c>
-      <c r="B154" s="102" t="s">
-        <v>773</v>
-      </c>
-      <c r="C154" s="99" t="s">
-        <v>572</v>
-      </c>
-      <c r="D154" s="100"/>
+        <v>7</v>
+      </c>
+      <c r="B154" s="96" t="s">
+        <v>549</v>
+      </c>
+      <c r="C154" s="96" t="s">
+        <v>580</v>
+      </c>
+      <c r="D154" s="97">
+        <v>2</v>
+      </c>
       <c r="E154" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F154" s="78" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="95">
-        <v>7</v>
-      </c>
-      <c r="B155" s="96" t="s">
-        <v>550</v>
-      </c>
-      <c r="C155" s="96" t="s">
-        <v>581</v>
-      </c>
-      <c r="D155" s="97">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="B155" s="102" t="s">
+        <v>612</v>
+      </c>
+      <c r="C155" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="D155" s="100">
+        <v>10</v>
       </c>
       <c r="E155" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F155" s="78" t="s">
-        <v>769</v>
+      <c r="F155" s="79" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="95">
+        <v>9</v>
+      </c>
+      <c r="B156" s="96" t="s">
+        <v>531</v>
+      </c>
+      <c r="C156" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D156" s="97">
         <v>8</v>
-      </c>
-      <c r="B156" s="102" t="s">
-        <v>613</v>
-      </c>
-      <c r="C156" s="99" t="s">
-        <v>488</v>
-      </c>
-      <c r="D156" s="100">
-        <v>10</v>
       </c>
       <c r="E156" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F156" s="79" t="s">
-        <v>768</v>
+      <c r="F156" s="78" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="95">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B157" s="96" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="C157" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D157" s="97">
-        <v>8</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="D157" s="97"/>
       <c r="E157" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F157" s="78" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="95">
-        <v>10</v>
-      </c>
-      <c r="B158" s="96" t="s">
-        <v>518</v>
-      </c>
-      <c r="C158" s="96" t="s">
-        <v>436</v>
-      </c>
-      <c r="D158" s="97"/>
-      <c r="E158" s="96" t="s">
+      <c r="A158" s="57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" s="11" customFormat="1">
+      <c r="A160" s="104" t="s">
+        <v>525</v>
+      </c>
+      <c r="D160" s="105"/>
+      <c r="F160" s="106"/>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" s="53" t="s">
+        <v>429</v>
+      </c>
+      <c r="C161" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="D161" s="53" t="s">
+        <v>496</v>
+      </c>
+      <c r="E161" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="F161" s="55" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="95">
+        <v>1</v>
+      </c>
+      <c r="B162" s="96" t="s">
+        <v>432</v>
+      </c>
+      <c r="C162" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D162" s="97">
+        <v>8</v>
+      </c>
+      <c r="E162" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F158" s="78" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" s="11" customFormat="1">
-      <c r="A161" s="104" t="s">
+      <c r="F162" s="78" t="s">
         <v>526</v>
       </c>
-      <c r="D161" s="105"/>
-      <c r="F161" s="106"/>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B162" s="53" t="s">
-        <v>429</v>
-      </c>
-      <c r="C162" s="53" t="s">
-        <v>430</v>
-      </c>
-      <c r="D162" s="53" t="s">
-        <v>496</v>
-      </c>
-      <c r="E162" s="54" t="s">
-        <v>431</v>
-      </c>
-      <c r="F162" s="55" t="s">
-        <v>428</v>
+      <c r="G162" s="56" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="95">
-        <v>1</v>
+      <c r="A163" s="64">
+        <v>6</v>
       </c>
       <c r="B163" s="96" t="s">
-        <v>432</v>
+        <v>827</v>
       </c>
       <c r="C163" s="96" t="s">
         <v>434</v>
@@ -29845,18 +29845,15 @@
         <v>435</v>
       </c>
       <c r="F163" s="78" t="s">
-        <v>527</v>
-      </c>
-      <c r="G163" s="56" t="s">
-        <v>777</v>
+        <v>720</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="64">
-        <v>6</v>
-      </c>
-      <c r="B164" s="96" t="s">
-        <v>828</v>
+        <v>2</v>
+      </c>
+      <c r="B164" s="102" t="s">
+        <v>773</v>
       </c>
       <c r="C164" s="96" t="s">
         <v>434</v>
@@ -29867,16 +29864,16 @@
       <c r="E164" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F164" s="78" t="s">
-        <v>721</v>
+      <c r="F164" s="79" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="64">
-        <v>2</v>
-      </c>
-      <c r="B165" s="102" t="s">
-        <v>774</v>
+      <c r="A165" s="95">
+        <v>3</v>
+      </c>
+      <c r="B165" s="96" t="s">
+        <v>616</v>
       </c>
       <c r="C165" s="96" t="s">
         <v>434</v>
@@ -29888,90 +29885,90 @@
         <v>435</v>
       </c>
       <c r="F165" s="79" t="s">
-        <v>776</v>
+        <v>633</v>
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="95">
-        <v>3</v>
+      <c r="A166" s="64">
+        <v>4</v>
       </c>
       <c r="B166" s="96" t="s">
         <v>617</v>
       </c>
-      <c r="C166" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D166" s="97">
-        <v>8</v>
+      <c r="C166" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="D166" s="100">
+        <v>50</v>
       </c>
       <c r="E166" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F166" s="79" t="s">
+      <c r="F166" s="78" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="64">
-        <v>4</v>
+      <c r="A167" s="95">
+        <v>5</v>
       </c>
       <c r="B167" s="96" t="s">
-        <v>618</v>
-      </c>
-      <c r="C167" s="99" t="s">
-        <v>488</v>
-      </c>
-      <c r="D167" s="100">
-        <v>50</v>
+        <v>828</v>
+      </c>
+      <c r="C167" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D167" s="97">
+        <v>8</v>
       </c>
       <c r="E167" s="96" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="F167" s="78" t="s">
-        <v>635</v>
+        <v>719</v>
       </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="95">
-        <v>5</v>
-      </c>
-      <c r="B168" s="96" t="s">
-        <v>829</v>
+      <c r="A168" s="64">
+        <v>6</v>
+      </c>
+      <c r="B168" s="102" t="s">
+        <v>778</v>
       </c>
       <c r="C168" s="96" t="s">
         <v>434</v>
       </c>
-      <c r="D168" s="97">
-        <v>8</v>
-      </c>
-      <c r="E168" s="96" t="s">
+      <c r="D168" s="103"/>
+      <c r="E168" s="102" t="s">
         <v>452</v>
       </c>
-      <c r="F168" s="78" t="s">
-        <v>720</v>
+      <c r="F168" s="79" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="64">
-        <v>6</v>
-      </c>
-      <c r="B169" s="102" t="s">
-        <v>779</v>
+        <v>8</v>
+      </c>
+      <c r="B169" s="96" t="s">
+        <v>527</v>
       </c>
       <c r="C169" s="96" t="s">
         <v>434</v>
       </c>
-      <c r="D169" s="103"/>
-      <c r="E169" s="102" t="s">
+      <c r="D169" s="97">
+        <v>8</v>
+      </c>
+      <c r="E169" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="F169" s="79" t="s">
-        <v>780</v>
+      <c r="F169" s="78" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="64">
-        <v>8</v>
+      <c r="A170" s="95">
+        <v>9</v>
       </c>
       <c r="B170" s="96" t="s">
         <v>528</v>
@@ -29990,11 +29987,11 @@
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="95">
-        <v>9</v>
-      </c>
-      <c r="B171" s="96" t="s">
-        <v>529</v>
+      <c r="A171" s="64">
+        <v>10</v>
+      </c>
+      <c r="B171" s="102" t="s">
+        <v>501</v>
       </c>
       <c r="C171" s="96" t="s">
         <v>434</v>
@@ -30005,146 +30002,146 @@
       <c r="E171" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="F171" s="78" t="s">
-        <v>531</v>
+      <c r="F171" s="79" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="64">
+      <c r="A172" s="95">
+        <v>11</v>
+      </c>
+      <c r="B172" s="96" t="s">
+        <v>549</v>
+      </c>
+      <c r="C172" s="96" t="s">
+        <v>580</v>
+      </c>
+      <c r="D172" s="97">
+        <v>2</v>
+      </c>
+      <c r="E172" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F172" s="78" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="64">
+        <v>12</v>
+      </c>
+      <c r="B173" s="102" t="s">
+        <v>612</v>
+      </c>
+      <c r="C173" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="D173" s="100">
         <v>10</v>
-      </c>
-      <c r="B172" s="102" t="s">
-        <v>501</v>
-      </c>
-      <c r="C172" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D172" s="97">
-        <v>8</v>
-      </c>
-      <c r="E172" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="F172" s="79" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="95">
-        <v>11</v>
-      </c>
-      <c r="B173" s="96" t="s">
-        <v>550</v>
-      </c>
-      <c r="C173" s="96" t="s">
-        <v>581</v>
-      </c>
-      <c r="D173" s="97">
-        <v>2</v>
       </c>
       <c r="E173" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F173" s="78" t="s">
-        <v>769</v>
+      <c r="F173" s="79" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="64">
-        <v>12</v>
-      </c>
-      <c r="B174" s="102" t="s">
-        <v>613</v>
-      </c>
-      <c r="C174" s="99" t="s">
-        <v>488</v>
-      </c>
-      <c r="D174" s="100">
-        <v>10</v>
+      <c r="A174" s="95">
+        <v>13</v>
+      </c>
+      <c r="B174" s="96" t="s">
+        <v>531</v>
+      </c>
+      <c r="C174" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D174" s="97">
+        <v>8</v>
       </c>
       <c r="E174" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F174" s="79" t="s">
-        <v>768</v>
+      <c r="F174" s="78" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="95">
-        <v>13</v>
+      <c r="A175" s="64">
+        <v>14</v>
       </c>
       <c r="B175" s="96" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="C175" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D175" s="97">
-        <v>8</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="D175" s="97"/>
       <c r="E175" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F175" s="78" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="64">
-        <v>14</v>
-      </c>
-      <c r="B176" s="96" t="s">
-        <v>518</v>
-      </c>
-      <c r="C176" s="96" t="s">
-        <v>436</v>
-      </c>
-      <c r="D176" s="97"/>
-      <c r="E176" s="96" t="s">
+      <c r="A176" s="57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" s="11" customFormat="1">
+      <c r="A178" s="104" t="s">
+        <v>524</v>
+      </c>
+      <c r="D178" s="105"/>
+      <c r="F178" s="106"/>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" s="53" t="s">
+        <v>429</v>
+      </c>
+      <c r="C179" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="D179" s="53" t="s">
+        <v>496</v>
+      </c>
+      <c r="E179" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="F179" s="55" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="95">
+        <v>1</v>
+      </c>
+      <c r="B180" s="96" t="s">
+        <v>432</v>
+      </c>
+      <c r="C180" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D180" s="97">
+        <v>8</v>
+      </c>
+      <c r="E180" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F176" s="78" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" s="11" customFormat="1">
-      <c r="A179" s="104" t="s">
-        <v>525</v>
-      </c>
-      <c r="D179" s="105"/>
-      <c r="F179" s="106"/>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B180" s="53" t="s">
-        <v>429</v>
-      </c>
-      <c r="C180" s="53" t="s">
-        <v>430</v>
-      </c>
-      <c r="D180" s="53" t="s">
-        <v>496</v>
-      </c>
-      <c r="E180" s="54" t="s">
-        <v>431</v>
-      </c>
-      <c r="F180" s="55" t="s">
-        <v>428</v>
+      <c r="F180" s="78" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B181" s="96" t="s">
-        <v>432</v>
+        <v>537</v>
       </c>
       <c r="C181" s="96" t="s">
         <v>434</v>
@@ -30153,18 +30150,18 @@
         <v>8</v>
       </c>
       <c r="E181" s="96" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="F181" s="78" t="s">
-        <v>508</v>
+        <v>777</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="95">
-        <v>2</v>
-      </c>
-      <c r="B182" s="96" t="s">
-        <v>538</v>
+        <v>3</v>
+      </c>
+      <c r="B182" s="102" t="s">
+        <v>773</v>
       </c>
       <c r="C182" s="96" t="s">
         <v>434</v>
@@ -30175,16 +30172,16 @@
       <c r="E182" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="F182" s="78" t="s">
-        <v>778</v>
+      <c r="F182" s="79" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="95">
-        <v>3</v>
-      </c>
-      <c r="B183" s="102" t="s">
-        <v>774</v>
+        <v>4</v>
+      </c>
+      <c r="B183" s="96" t="s">
+        <v>827</v>
       </c>
       <c r="C183" s="96" t="s">
         <v>434</v>
@@ -30193,18 +30190,18 @@
         <v>8</v>
       </c>
       <c r="E183" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="F183" s="79" t="s">
-        <v>776</v>
+        <v>435</v>
+      </c>
+      <c r="F183" s="78" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B184" s="96" t="s">
-        <v>828</v>
+        <v>616</v>
       </c>
       <c r="C184" s="96" t="s">
         <v>434</v>
@@ -30215,16 +30212,16 @@
       <c r="E184" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F184" s="78" t="s">
-        <v>720</v>
+      <c r="F184" s="79" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="95">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B185" s="96" t="s">
-        <v>617</v>
+        <v>828</v>
       </c>
       <c r="C185" s="96" t="s">
         <v>434</v>
@@ -30233,18 +30230,18 @@
         <v>8</v>
       </c>
       <c r="E185" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F185" s="79" t="s">
-        <v>634</v>
+        <v>452</v>
+      </c>
+      <c r="F185" s="78" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="95">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B186" s="96" t="s">
-        <v>829</v>
+        <v>508</v>
       </c>
       <c r="C186" s="96" t="s">
         <v>434</v>
@@ -30256,15 +30253,15 @@
         <v>452</v>
       </c>
       <c r="F186" s="78" t="s">
-        <v>721</v>
+        <v>522</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="95">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B187" s="96" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C187" s="96" t="s">
         <v>434</v>
@@ -30281,27 +30278,27 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="95">
-        <v>8</v>
-      </c>
-      <c r="B188" s="96" t="s">
-        <v>514</v>
-      </c>
-      <c r="C188" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D188" s="97">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B188" s="99" t="s">
+        <v>783</v>
+      </c>
+      <c r="C188" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="D188" s="100">
+        <v>20</v>
       </c>
       <c r="E188" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="F188" s="78" t="s">
-        <v>524</v>
+      <c r="F188" s="101" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="95">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B189" s="99" t="s">
         <v>784</v>
@@ -30313,7 +30310,7 @@
         <v>20</v>
       </c>
       <c r="E189" s="96" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="F189" s="101" t="s">
         <v>781</v>
@@ -30321,87 +30318,87 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="95">
-        <v>12</v>
-      </c>
-      <c r="B190" s="99" t="s">
-        <v>785</v>
-      </c>
-      <c r="C190" s="99" t="s">
-        <v>488</v>
-      </c>
-      <c r="D190" s="100">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="B190" s="96" t="s">
+        <v>549</v>
+      </c>
+      <c r="C190" s="96" t="s">
+        <v>580</v>
+      </c>
+      <c r="D190" s="97">
+        <v>2</v>
       </c>
       <c r="E190" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F190" s="101" t="s">
-        <v>782</v>
+      <c r="F190" s="78" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="95">
+        <v>11</v>
+      </c>
+      <c r="B191" s="102" t="s">
+        <v>612</v>
+      </c>
+      <c r="C191" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="D191" s="100">
         <v>10</v>
-      </c>
-      <c r="B191" s="96" t="s">
-        <v>550</v>
-      </c>
-      <c r="C191" s="96" t="s">
-        <v>581</v>
-      </c>
-      <c r="D191" s="97">
-        <v>2</v>
       </c>
       <c r="E191" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F191" s="78" t="s">
+      <c r="F191" s="79" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="95">
-        <v>11</v>
-      </c>
-      <c r="B192" s="102" t="s">
-        <v>613</v>
+        <v>13</v>
+      </c>
+      <c r="B192" s="96" t="s">
+        <v>464</v>
       </c>
       <c r="C192" s="99" t="s">
         <v>488</v>
       </c>
       <c r="D192" s="100">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="E192" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F192" s="79" t="s">
-        <v>615</v>
+        <v>452</v>
+      </c>
+      <c r="F192" s="78" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="95">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B193" s="96" t="s">
-        <v>464</v>
-      </c>
-      <c r="C193" s="99" t="s">
-        <v>488</v>
-      </c>
-      <c r="D193" s="100">
-        <v>160</v>
+        <v>541</v>
+      </c>
+      <c r="C193" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D193" s="97">
+        <v>8</v>
       </c>
       <c r="E193" s="96" t="s">
         <v>452</v>
       </c>
       <c r="F193" s="78" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="95">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B194" s="96" t="s">
         <v>542</v>
@@ -30416,15 +30413,15 @@
         <v>452</v>
       </c>
       <c r="F194" s="78" t="s">
-        <v>544</v>
+        <v>463</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="95">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B195" s="96" t="s">
-        <v>543</v>
+        <v>454</v>
       </c>
       <c r="C195" s="96" t="s">
         <v>434</v>
@@ -30436,15 +30433,15 @@
         <v>452</v>
       </c>
       <c r="F195" s="78" t="s">
-        <v>463</v>
+        <v>544</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="95">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B196" s="96" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C196" s="96" t="s">
         <v>434</v>
@@ -30461,10 +30458,10 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="95">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B197" s="96" t="s">
-        <v>453</v>
+        <v>531</v>
       </c>
       <c r="C197" s="96" t="s">
         <v>434</v>
@@ -30476,18 +30473,18 @@
         <v>452</v>
       </c>
       <c r="F197" s="78" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="95">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B198" s="96" t="s">
-        <v>532</v>
+        <v>800</v>
       </c>
       <c r="C198" s="96" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D198" s="97">
         <v>8</v>
@@ -30501,80 +30498,80 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="95">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B199" s="96" t="s">
-        <v>801</v>
+        <v>517</v>
       </c>
       <c r="C199" s="96" t="s">
         <v>436</v>
       </c>
-      <c r="D199" s="97">
+      <c r="D199" s="97"/>
+      <c r="E199" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F199" s="78" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" s="11" customFormat="1">
+      <c r="A202" s="104" t="s">
+        <v>754</v>
+      </c>
+      <c r="D202" s="105"/>
+      <c r="F202" s="106"/>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" s="53" t="s">
+        <v>429</v>
+      </c>
+      <c r="C203" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="D203" s="53" t="s">
+        <v>496</v>
+      </c>
+      <c r="E203" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="F203" s="55" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="95">
+        <v>1</v>
+      </c>
+      <c r="B204" s="96" t="s">
+        <v>432</v>
+      </c>
+      <c r="C204" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D204" s="97">
         <v>8</v>
       </c>
-      <c r="E199" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="F199" s="78" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200" s="95">
-        <v>20</v>
-      </c>
-      <c r="B200" s="96" t="s">
-        <v>518</v>
-      </c>
-      <c r="C200" s="96" t="s">
-        <v>436</v>
-      </c>
-      <c r="D200" s="97"/>
-      <c r="E200" s="96" t="s">
+      <c r="E204" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F200" s="78" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201" s="57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" s="11" customFormat="1">
-      <c r="A203" s="104" t="s">
-        <v>755</v>
-      </c>
-      <c r="D203" s="105"/>
-      <c r="F203" s="106"/>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B204" s="53" t="s">
-        <v>429</v>
-      </c>
-      <c r="C204" s="53" t="s">
-        <v>430</v>
-      </c>
-      <c r="D204" s="53" t="s">
-        <v>496</v>
-      </c>
-      <c r="E204" s="54" t="s">
-        <v>431</v>
-      </c>
-      <c r="F204" s="55" t="s">
-        <v>428</v>
+      <c r="F204" s="78" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B205" s="96" t="s">
-        <v>432</v>
+        <v>827</v>
       </c>
       <c r="C205" s="96" t="s">
         <v>434</v>
@@ -30586,12 +30583,12 @@
         <v>435</v>
       </c>
       <c r="F205" s="78" t="s">
-        <v>783</v>
+        <v>719</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B206" s="96" t="s">
         <v>828</v>
@@ -30611,10 +30608,10 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B207" s="96" t="s">
-        <v>829</v>
+        <v>616</v>
       </c>
       <c r="C207" s="96" t="s">
         <v>434</v>
@@ -30626,35 +30623,35 @@
         <v>435</v>
       </c>
       <c r="F207" s="78" t="s">
-        <v>721</v>
+        <v>758</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="95">
-        <v>4</v>
-      </c>
-      <c r="B208" s="96" t="s">
-        <v>617</v>
-      </c>
-      <c r="C208" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D208" s="97">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B208" s="99" t="s">
+        <v>655</v>
+      </c>
+      <c r="C208" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="D208" s="100">
+        <v>20</v>
       </c>
       <c r="E208" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F208" s="78" t="s">
-        <v>759</v>
+      <c r="F208" s="101" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="95">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B209" s="99" t="s">
-        <v>656</v>
+        <v>755</v>
       </c>
       <c r="C209" s="99" t="s">
         <v>488</v>
@@ -30671,27 +30668,27 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="95">
-        <v>6</v>
-      </c>
-      <c r="B210" s="99" t="s">
-        <v>756</v>
-      </c>
-      <c r="C210" s="99" t="s">
-        <v>488</v>
-      </c>
-      <c r="D210" s="100">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="B210" s="96" t="s">
+        <v>541</v>
+      </c>
+      <c r="C210" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D210" s="97">
+        <v>8</v>
       </c>
       <c r="E210" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F210" s="101" t="s">
-        <v>758</v>
+      <c r="F210" s="78" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="95">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B211" s="96" t="s">
         <v>542</v>
@@ -30706,15 +30703,15 @@
         <v>435</v>
       </c>
       <c r="F211" s="78" t="s">
-        <v>544</v>
+        <v>463</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="95">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B212" s="96" t="s">
-        <v>543</v>
+        <v>454</v>
       </c>
       <c r="C212" s="96" t="s">
         <v>434</v>
@@ -30726,15 +30723,15 @@
         <v>435</v>
       </c>
       <c r="F212" s="78" t="s">
-        <v>463</v>
+        <v>544</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="95">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B213" s="96" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C213" s="96" t="s">
         <v>434</v>
@@ -30751,78 +30748,78 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="95">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B214" s="96" t="s">
-        <v>453</v>
+        <v>517</v>
       </c>
       <c r="C214" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D214" s="97">
-        <v>8</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="D214" s="97"/>
       <c r="E214" s="96" t="s">
         <v>435</v>
       </c>
       <c r="F214" s="78" t="s">
-        <v>546</v>
+        <v>759</v>
       </c>
     </row>
     <row r="215" spans="1:6">
-      <c r="A215" s="95">
-        <v>11</v>
-      </c>
-      <c r="B215" s="96" t="s">
-        <v>518</v>
-      </c>
-      <c r="C215" s="96" t="s">
-        <v>436</v>
-      </c>
-      <c r="D215" s="97"/>
-      <c r="E215" s="96" t="s">
+      <c r="A215" s="57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="104" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218" s="53" t="s">
+        <v>429</v>
+      </c>
+      <c r="C218" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="D218" s="53" t="s">
+        <v>496</v>
+      </c>
+      <c r="E218" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="F218" s="55" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="95">
+        <v>1</v>
+      </c>
+      <c r="B219" s="96" t="s">
+        <v>432</v>
+      </c>
+      <c r="C219" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D219" s="97">
+        <v>8</v>
+      </c>
+      <c r="E219" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F215" s="78" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="104" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B219" s="53" t="s">
-        <v>429</v>
-      </c>
-      <c r="C219" s="53" t="s">
-        <v>430</v>
-      </c>
-      <c r="D219" s="53" t="s">
-        <v>496</v>
-      </c>
-      <c r="E219" s="54" t="s">
-        <v>431</v>
-      </c>
-      <c r="F219" s="55" t="s">
-        <v>428</v>
+      <c r="F219" s="78" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="220" spans="1:6">
-      <c r="A220" s="95">
-        <v>1</v>
-      </c>
-      <c r="B220" s="96" t="s">
-        <v>432</v>
+      <c r="A220" s="64">
+        <v>2</v>
+      </c>
+      <c r="B220" s="102" t="s">
+        <v>826</v>
       </c>
       <c r="C220" s="96" t="s">
         <v>434</v>
@@ -30834,7 +30831,7 @@
         <v>435</v>
       </c>
       <c r="F220" s="78" t="s">
-        <v>638</v>
+        <v>719</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -30842,24 +30839,24 @@
         <v>2</v>
       </c>
       <c r="B221" s="102" t="s">
-        <v>827</v>
-      </c>
-      <c r="C221" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D221" s="97">
-        <v>8</v>
+        <v>583</v>
+      </c>
+      <c r="C221" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="D221" s="100">
+        <v>200</v>
       </c>
       <c r="E221" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F221" s="78" t="s">
-        <v>720</v>
+        <v>452</v>
+      </c>
+      <c r="F221" s="79" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B222" s="102" t="s">
         <v>584</v>
@@ -30868,10 +30865,10 @@
         <v>488</v>
       </c>
       <c r="D222" s="100">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E222" s="96" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="F222" s="79" t="s">
         <v>716</v>
@@ -30879,30 +30876,30 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="64">
-        <v>3</v>
-      </c>
-      <c r="B223" s="102" t="s">
-        <v>585</v>
+        <v>4</v>
+      </c>
+      <c r="B223" s="99" t="s">
+        <v>551</v>
       </c>
       <c r="C223" s="99" t="s">
-        <v>488</v>
+        <v>438</v>
       </c>
       <c r="D223" s="100">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E223" s="96" t="s">
-        <v>435</v>
-      </c>
-      <c r="F223" s="79" t="s">
-        <v>717</v>
+        <v>452</v>
+      </c>
+      <c r="F223" s="101" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="64">
-        <v>4</v>
-      </c>
-      <c r="B224" s="99" t="s">
-        <v>552</v>
+      <c r="A224" s="95">
+        <v>5</v>
+      </c>
+      <c r="B224" s="102" t="s">
+        <v>586</v>
       </c>
       <c r="C224" s="99" t="s">
         <v>438</v>
@@ -30913,56 +30910,59 @@
       <c r="E224" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="F224" s="101" t="s">
-        <v>637</v>
+      <c r="F224" s="79" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="225" spans="1:7">
-      <c r="A225" s="95">
-        <v>5</v>
-      </c>
-      <c r="B225" s="102" t="s">
-        <v>587</v>
+      <c r="A225" s="64">
+        <v>6</v>
+      </c>
+      <c r="B225" s="99" t="s">
+        <v>546</v>
       </c>
       <c r="C225" s="99" t="s">
-        <v>438</v>
+        <v>548</v>
       </c>
       <c r="D225" s="100">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E225" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="F225" s="79" t="s">
-        <v>697</v>
+      <c r="F225" s="101" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="64">
+      <c r="A226" s="95">
+        <v>7</v>
+      </c>
+      <c r="B226" s="99" t="s">
+        <v>499</v>
+      </c>
+      <c r="C226" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D226" s="100">
+        <v>2</v>
+      </c>
+      <c r="E226" s="96" t="s">
+        <v>435</v>
+      </c>
+      <c r="F226" s="101" t="s">
+        <v>500</v>
+      </c>
+      <c r="G226" s="56" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="31.5">
+      <c r="A227" s="64">
         <v>6</v>
       </c>
-      <c r="B226" s="99" t="s">
-        <v>547</v>
-      </c>
-      <c r="C226" s="99" t="s">
-        <v>549</v>
-      </c>
-      <c r="D226" s="100">
-        <v>8</v>
-      </c>
-      <c r="E226" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="F226" s="101" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="A227" s="95">
-        <v>7</v>
-      </c>
       <c r="B227" s="99" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C227" s="99" t="s">
         <v>438</v>
@@ -30974,7 +30974,7 @@
         <v>435</v>
       </c>
       <c r="F227" s="101" t="s">
-        <v>500</v>
+        <v>651</v>
       </c>
       <c r="G227" s="56" t="s">
         <v>831</v>
@@ -30982,10 +30982,10 @@
     </row>
     <row r="228" spans="1:7" ht="31.5">
       <c r="A228" s="64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B228" s="99" t="s">
-        <v>502</v>
+        <v>700</v>
       </c>
       <c r="C228" s="99" t="s">
         <v>438</v>
@@ -30997,64 +30997,64 @@
         <v>435</v>
       </c>
       <c r="F228" s="101" t="s">
-        <v>652</v>
+        <v>701</v>
       </c>
       <c r="G228" s="56" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" ht="31.5">
-      <c r="A229" s="64">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="95">
+        <v>9</v>
+      </c>
+      <c r="B229" s="96" t="s">
+        <v>501</v>
+      </c>
+      <c r="C229" s="96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D229" s="97">
         <v>8</v>
-      </c>
-      <c r="B229" s="99" t="s">
-        <v>701</v>
-      </c>
-      <c r="C229" s="99" t="s">
-        <v>438</v>
-      </c>
-      <c r="D229" s="100">
-        <v>2</v>
       </c>
       <c r="E229" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F229" s="101" t="s">
-        <v>702</v>
+      <c r="F229" s="81" t="s">
+        <v>675</v>
       </c>
       <c r="G229" s="56" t="s">
-        <v>831</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:7">
-      <c r="A230" s="95">
-        <v>9</v>
-      </c>
-      <c r="B230" s="96" t="s">
-        <v>501</v>
-      </c>
-      <c r="C230" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D230" s="97">
+      <c r="A230" s="64">
+        <v>10</v>
+      </c>
+      <c r="B230" s="99" t="s">
+        <v>590</v>
+      </c>
+      <c r="C230" s="99" t="s">
+        <v>438</v>
+      </c>
+      <c r="D230" s="100">
         <v>8</v>
       </c>
       <c r="E230" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F230" s="81" t="s">
-        <v>676</v>
+      <c r="F230" s="101" t="s">
+        <v>635</v>
       </c>
       <c r="G230" s="56" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="64">
-        <v>10</v>
-      </c>
-      <c r="B231" s="99" t="s">
-        <v>591</v>
+      <c r="A231" s="95">
+        <v>11</v>
+      </c>
+      <c r="B231" s="102" t="s">
+        <v>659</v>
       </c>
       <c r="C231" s="99" t="s">
         <v>438</v>
@@ -31065,16 +31065,16 @@
       <c r="E231" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F231" s="101" t="s">
-        <v>636</v>
+      <c r="F231" s="79" t="s">
+        <v>661</v>
       </c>
       <c r="G231" s="56" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="95">
-        <v>11</v>
+      <c r="A232" s="64">
+        <v>12</v>
       </c>
       <c r="B232" s="102" t="s">
         <v>660</v>
@@ -31096,75 +31096,70 @@
       </c>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="64">
-        <v>12</v>
-      </c>
-      <c r="B233" s="102" t="s">
-        <v>661</v>
-      </c>
-      <c r="C233" s="99" t="s">
-        <v>438</v>
-      </c>
-      <c r="D233" s="100">
-        <v>8</v>
-      </c>
+      <c r="A233" s="95">
+        <v>13</v>
+      </c>
+      <c r="B233" s="96" t="s">
+        <v>639</v>
+      </c>
+      <c r="C233" s="96" t="s">
+        <v>571</v>
+      </c>
+      <c r="D233" s="97"/>
       <c r="E233" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F233" s="79" t="s">
-        <v>663</v>
+      <c r="F233" s="78" t="s">
+        <v>640</v>
       </c>
       <c r="G233" s="56" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
-      <c r="A234" s="95">
-        <v>13</v>
+    <row r="234" spans="1:7" ht="31.5">
+      <c r="A234" s="64">
+        <v>14</v>
       </c>
       <c r="B234" s="96" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="C234" s="96" t="s">
-        <v>572</v>
-      </c>
-      <c r="D234" s="97"/>
+        <v>434</v>
+      </c>
+      <c r="D234" s="97">
+        <v>8</v>
+      </c>
       <c r="E234" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F234" s="78" t="s">
-        <v>641</v>
+      <c r="F234" s="79" t="s">
+        <v>648</v>
       </c>
       <c r="G234" s="56" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="31.5">
-      <c r="A235" s="64">
-        <v>14</v>
+    <row r="235" spans="1:7">
+      <c r="A235" s="95">
+        <v>15</v>
       </c>
       <c r="B235" s="96" t="s">
-        <v>648</v>
+        <v>517</v>
       </c>
       <c r="C235" s="96" t="s">
-        <v>434</v>
-      </c>
-      <c r="D235" s="97">
-        <v>8</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="D235" s="97"/>
       <c r="E235" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="F235" s="79" t="s">
-        <v>649</v>
-      </c>
-      <c r="G235" s="56" t="s">
-        <v>2</v>
+      <c r="F235" s="78" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="95">
-        <v>15</v>
+      <c r="A236" s="64">
+        <v>16</v>
       </c>
       <c r="B236" s="96" t="s">
         <v>518</v>
@@ -31174,10 +31169,10 @@
       </c>
       <c r="D236" s="97"/>
       <c r="E236" s="96" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="F236" s="78" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -31185,7 +31180,7 @@
         <v>16</v>
       </c>
       <c r="B237" s="96" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C237" s="96" t="s">
         <v>436</v>
@@ -31195,24 +31190,6 @@
         <v>452</v>
       </c>
       <c r="F237" s="78" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
-      <c r="A238" s="64">
-        <v>16</v>
-      </c>
-      <c r="B238" s="96" t="s">
-        <v>519</v>
-      </c>
-      <c r="C238" s="96" t="s">
-        <v>436</v>
-      </c>
-      <c r="D238" s="97"/>
-      <c r="E238" s="96" t="s">
-        <v>452</v>
-      </c>
-      <c r="F238" s="78" t="s">
         <v>439</v>
       </c>
     </row>
@@ -31243,10 +31220,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -31256,10 +31233,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -31269,10 +31246,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -31282,10 +31259,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -31295,10 +31272,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -31308,10 +31285,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C6" s="67" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -31321,10 +31298,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -31334,10 +31311,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -31347,10 +31324,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -31360,10 +31337,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -31373,10 +31350,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>

--- a/reque/SMS_Gateway_Requirements_20171115.xlsx
+++ b/reque/SMS_Gateway_Requirements_20171115.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="836">
   <si>
     <t>No.</t>
   </si>
@@ -2697,6 +2697,9 @@
   </si>
   <si>
     <t>TABLE "Manager_Setting"=&gt; không dùng</t>
+  </si>
+  <si>
+    <t>device_code</t>
   </si>
 </sst>
 </file>
@@ -27106,8 +27109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -27343,7 +27346,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="96" t="s">
-        <v>574</v>
+        <v>835</v>
       </c>
       <c r="C15" s="96" t="s">
         <v>434</v>

--- a/reque/SMS_Gateway_Requirements_20171115.xlsx
+++ b/reque/SMS_Gateway_Requirements_20171115.xlsx
@@ -27109,8 +27109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G237"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
